--- a/00001.xlsx
+++ b/00001.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALK999"/>
+  <dimension ref="A1:NTO9999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1646906999.408929</v>
+        <v>1657455730.60481</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1360,6 +1360,226 @@
       <c r="GJ2" t="inlineStr">
         <is>
           <t>gAAAAABiKc53NsxSVPBKMaUI_GG1hw9ERTCrP7YSdSrbMQ90Zc0h8WZH8VuAsVi-7COQeL3cuj0ZN8wa_K0dR5WNL9ti1HgWXijgP8h1HVBuBZa-wg55E2vZKeTEJgrZGLCPHB1KCz31</t>
+        </is>
+      </c>
+      <c r="GK2" t="inlineStr">
+        <is>
+          <t>gAAAAABix_2xxdnWx7oLF3CewkKpNoB6pFJ2xyioA64cMPXrb660xSehdheNUB0UdH_qXPmEZcD4ojzYmuJHI4hl_qZyJENfsLAPT2j2lBIbWR9Qs85HASo=</t>
+        </is>
+      </c>
+      <c r="GL2" t="inlineStr">
+        <is>
+          <t>gAAAAABix_2yJuGCwuqqPRH64gW9-mgBLkQXxTCw9lxIkose_jWAU3Sqj6JfQmbdpKF_S4c7IVZiSSNnnftQbTQDC50cycm-O0RCMGv6_DMz8rNizQKTBR0=</t>
+        </is>
+      </c>
+      <c r="GM2" t="inlineStr">
+        <is>
+          <t>gAAAAABix_20oN0YiVw3vWozvksQ5ov7LSmhfB1_nModPS2D9Lm8F91tUvSPlcQDZwG8fvcFaIUk2I3sLMkPPvZ8bzxY85N8r1HIXgEV6yFfMXp1AEFCR8M=</t>
+        </is>
+      </c>
+      <c r="GN2" t="inlineStr">
+        <is>
+          <t>gAAAAABix_22CVtWpCS9kLY7aNDY1oGPwV9jfsTi9-C57y9szwx4oKwpi3Guisctm-9LctEDR5mx457OM_yz6o1u5UeT3uaqG3e2l7TCTk38cYVzhPogxUo=</t>
+        </is>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t>gAAAAABix_22tnT17rwhcRKkt6UV96W3zRb3jHnABYTmpXnnGI67YhZ8UpkeqLB-RZR6zAf-_EKr5c_BhKFLgP4sxc7CgnA4YVIeWsAzTyuj2hYJuL3C4ec=</t>
+        </is>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyW73i0jK-Pwqh6zflIYadO3HQZlfQkCaC7oX05XA_W1e5eI7ViEbg6lyfENMEmbLThkagNnD5F6-k3d2fT0nUIdk1C-YDb0TGR-As0FGQc2JJjj24rDgwN1vAauimEdqXKox</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyW8DuzwvWPrc_1Z-qZemjcVi3FRgg2VrnCyHNCwhR6DVGaO_B5nOOe2Ount9pmxP1IEwzWO52LgZn5-Bx6sYzCZQPctmqeyuwIKiHIXCsDL90ruovjPls1ldQ2rvOEQNhFuI</t>
+        </is>
+      </c>
+      <c r="GR2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyXiPZroL0-fcb2t_MP_0rHxpgmOHawpAWIChhIg_PYptfrRlvbBQw1b-1_HxcNIcUTSe3s8nJulQToSL7BfvSX_HeuqXP6jyrEGDwJFew8SVBhyxk2P6Xhu0pTlgQxPA2jwG</t>
+        </is>
+      </c>
+      <c r="GS2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyXiblodmKEyUUw9ryuEGlIIT90Znep7uO0gS7J10hOCUqvruiYsIRbW-feG4FdAie91orSKOSTwKhp_iMWZk5zv3JPIgELg1pKUUN_voULJgtcsCRSv-4fFMe3RPW87EQ596</t>
+        </is>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyXu3f0hgRCt3cfI-O9dZ3ACa0eCfKlj5QOD07Ulmh7CP77L6tIG-SdoIv4XIm1yd6yguy7SkeYcj1utSXrtOV9E0Pn7La7kdwqshc5HkNvfF5VOxZSG4HL6YMkHj3nVHafRT</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyh2ccRfptw1YJVpKlDhL29yYSInNlH5OAQk58woTwTxCLFWcdFPVVsiPhU8rH2nT_nVl_Z5buWVNh6K5jY2Py2QUbujHE587GcZDE_xMrqNkS_OsEMMl7bd-WFJ1IAjKx4dc</t>
+        </is>
+      </c>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyh3ivG-uBDxB9d2dPs5aw0s-fO6mzRBamgqfkjU4HmXl_SRL2BuJbiJBxG7E5rL7nQYiyerZvEatyBvGo1F6mlam2ZSqthb_jUaCPAiC1kzugWy5gld9wvu5mQMrlvXDkZje</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyh49_3aC969EFX4rfMeZfdkG3FidZ36UdO5oE0uG5REVbslCgOVB1mAjb3u2QY7-iiqWX7zEHivVrEyCu7et_1o8Tll1g-vjS5OnCePPcdRyqGvldeECazYHvdoWuHYCSF18</t>
+        </is>
+      </c>
+      <c r="GX2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyh5yWiivxmule35CHqdiDaoy9JMf3OEon_NsYjjbl2Z-Y6yGI2qojDhN1aZ_SWnIoq7nmCjRXznHwGELjFTMaYeFNu6PnPeoe5kRnCd19Aaf_b05yv2aZnm9PuAooHW_2Lsu</t>
+        </is>
+      </c>
+      <c r="GY2" t="inlineStr">
+        <is>
+          <t>gAAAAABiykVpqlxJiQ0SuwagWbEtrFNNGcZR3rBNwEmmsDFJpCWTsa37i7jlf4pHikj-YCCyl8hF27o0UdOn8YQRhEZTFZjHSSPt1YRtXGkcrBm_X8d4KVgMrjKLLjv2XbDCYAY4Sko9</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>gAAAAABiykZADnzsaKHpsYd4miqQhvBIWRc2Qp_kckqKIqEt8Bq0IxGdmb2bH1uNKbtKs8KkdNbsvYitpqIMhhIRU8vbvo0OBw-RFv4_9YHdQlqjP3RuLjKiqIaMbiNuxXVbxGiZ8g0G</t>
+        </is>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t>gAAAAABiykuzu4jC2_PaqYiCM3xApWmhXkE8SmV4S0MiuinkI39wzvBSzfXUurzlMqMjVSdQIsh9xWBBRwwiu5BGmAqxNYkLTs3tXqnbxgCgh2hTNJU4A3W_8hx-Jx_xDXO3UOKUBt1V</t>
+        </is>
+      </c>
+      <c r="HB2" t="inlineStr">
+        <is>
+          <t>gAAAAABiykzt7V0TsXpJovDNOENlm6ORf5E9yjD7eyim00MyuZVQgqBjZfX9zX_3NeKEIY2kiGBbutPX8nPD_xZq0qVmXZqTeZA0K5skkTS_W5wNaxdqpAUWCDON90GMkpOK0o5ELxvw</t>
+        </is>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyk1-VgGsCdmLCTU8lFFvOS1Xe66RFtZfeOiNBtYu5ty4PjrppR1uiynYYA8Xh7PxABbNbNdGqZoiIs2w_LiwqHYowZEnjNzDxXQ91sUTSgjsVzGhSt1iKkqc4_CRTPWYidbR</t>
+        </is>
+      </c>
+      <c r="HD2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyk4FccqfOcq03ITvKbLifIpB-7WwYcYnfVem-ERd30ABqqgNl6vW4hj3uUeOFw5ShrQBLUocoxvOap50PXkDdaklPkMGt7mfHMdvKF76QIfHNA1wp5M-mRf7bxbzZrObDHPuDZGFVCbjNvh7ijmZwWZj2w==</t>
+        </is>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyo2xGtfseqpq1kygy1GX-pmiojqTtHvl89lhijImssetbMi-YjluIbXCPrTYI9Mm-Wy6ufEP3nHWXEZZwEyYrA3VH9Ssalp638q5G7XGAa5MA48BckXwwEIJJnXpNVTGN8-O</t>
+        </is>
+      </c>
+      <c r="HF2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypKu7hA5mvKoeksb3vMcheoTnMG7Ii_rWSSO0bf3HLlf73cnpLycoZp3wCCsc7lfYAb--0PrS1StI15kJkrUmU6gwIpXb3ORwd1j9JGFpKoTZM0qQ4jkQToPNQ-uBL4BmI8X</t>
+        </is>
+      </c>
+      <c r="HG2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypK0MUxc9jGsJOEThT_xYMyo5dgQXbJa4fEs5W_6lKNuHIswtF-2aXmN3eaVrPevlk7dMvlPs-HWhvQVJXZFuiRAbx3wB1A7wGPSEYbNLlOAaPN8aqtC5vIf8mojAoL9pwqY</t>
+        </is>
+      </c>
+      <c r="HH2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypK5TPFRbqxsxSOPyWtKblgSoZPLpbT0wsroVLFYD3SN8fqWNGL80hrvexAEsVevRvFstB2dmbPaEsVsQf3-4oe8Stnwlcq7itcsZcq2GWD_HPrgIZb-zi96zIj59x8AhXwY</t>
+        </is>
+      </c>
+      <c r="HI2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypK95gKenbptDXc0bvOb-rZjQ5eBZhHTlk4avI_KhkRCgc6OzqWgWWcel6X154p22wWdgfXfiJ6eMOuNkVeYimGiqsPYMOuT2Gi-TfM-L9wIEKFQ0fKz1DA6HuSnAci5MUQX</t>
+        </is>
+      </c>
+      <c r="HJ2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypLAzitQUPetWFU1S8qA9OOHkNiaz7DsR8pGftrkj9nJ4mlP0SW4gYQTz6MecHVJBC9rEkfQvt3bSWkaMkFd2DO5Qdi8RjvRyaEGdeA40wJpRI8hAiVU4mY2GHAnh4GKyGu6</t>
+        </is>
+      </c>
+      <c r="HK2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypLpCM33R7gC_oCCXehGryb0WsxH23cukMcr3fMzm8yjqC-ev2XesdszsFKBg860r4KJKMyADelUhxj65M2MYJM8g6TPyUwvfC6pOZlLD6ZfQKH6yvcK7b2G9AhLc2KquwTBNGGpkSlTmzvX_zqCW-WTSw==</t>
+        </is>
+      </c>
+      <c r="HL2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypLr2M0IckjQ0P_o0IknLDJVLY0650eUE62fi6x1lHrPosl_vaW6HicW0myKL6GmCO-RM2OdYy5dFEfNphCaCUd1wrk0Y6lOtxMRE4VzKMGs86VTO19pq9RUjqxRZI7mKXjR</t>
+        </is>
+      </c>
+      <c r="HM2" t="inlineStr">
+        <is>
+          <t>gAAAAABiypLt5wCYQnUvQ2HwGfaP_d9Dge7lkQjRIjS-blW37lHqIKH0HpR1Ys-QKAP-dNQpLjzl8j0-Ll9IYQN3CnUfq0TPU6mbAf7_--U8Q97X93SmtpM=</t>
+        </is>
+      </c>
+      <c r="HN2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysRd2LBQCkhylEPypjCegawOiw_ZZZf_cn8a67DwG5OgMkzd99IhEBEDiJmUiivr2Xf3IsfaLn7A2KYsudkJOh94NgesXvpmyS9j9AAJ4QfxhGdwEWfs6TZ9dsko8DEMmii5</t>
+        </is>
+      </c>
+      <c r="HO2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysRm0zNAngAkb2v22H50klEM70xDWx3Lmy8Rbkjm6vSBU9U7UuGfig2geXyY0xLtKuNRYB8TSOosBaxTtxMbpApFeGcvkh1BBhtvij1o44A9KHDs9BLIZIRTv4okXfX-Ta9r</t>
+        </is>
+      </c>
+      <c r="HP2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysRpe-BmUWrGXcznpxSf0sYUoWb13H0iLjw01yLTlI63BXTSuO1GujbgjEklYGS5BwdPMR6P5zLZURfjt0ZJ8rT4NpHnH4JI5yIIlOpRcpuLXpHfOmyAkZXZtwdttIJx66a0</t>
+        </is>
+      </c>
+      <c r="HQ2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysRyXimMQIPzUT7euUn9dwohocmlAlfjrvGV2mttVM5YVQj9XDuxYfUP2prNdrSTEpfVxm3oXxbuH5OKrhCc6ekCOYkUmyCx4ZKprVbzT8E5Mc1Q-cHmWOUt0in_7RbPKcwQ</t>
+        </is>
+      </c>
+      <c r="HR2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysajzBO-Y5Y7MW3vXci6tk9r9y9h9DPuSG9UilgRbt_DCSpFo23sbKGSKD0c5PPmjL-w3ADKkT2ZNclplsbPv5mUdlYZipyf6P7TQwDFSGcQ5Lg=</t>
+        </is>
+      </c>
+      <c r="HS2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysazVbjjvDK2Q_7gFwBB8Nlp1W3SQ_EKGgI70KUImpxpPFUU7sPf2nvVE6O-6dxGOb69oLSRd1mckuytj_m8AO5lvy_ZjVQXLaocNG0Btxkeuimm2sM2WkFVmTHv5GQfAw0t</t>
+        </is>
+      </c>
+      <c r="HT2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysa1d_fBy1FqW-skFaXeHRzd9fyt90ctSLk1iScp6M-ClX9IGW_qHrRLgC8ZDuD6TciASjtQDmyg3j5cZeUTj7BKw_zth3WJ-6QGVCIy7FI-7z5pARJ8IxDXrhfC-odO1Z8i</t>
+        </is>
+      </c>
+      <c r="HU2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysa3uSn-stZy6fGPfv8xPQ78QJOY0NhKb_AQtOdcEXQpnkIKn1lqUbQlJdL_2Rzpvvk2rX369j5CeuG249csjEfXZLp9Ih0D0eWWxqvyX8PMcGittZmVNN2C6qMid0bGY6vS</t>
+        </is>
+      </c>
+      <c r="HV2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysa53xQ_MOIo1XEVtQ50b63gRzXJ5GzotCP-RtFl53dBw2E0zFck7YQe2hjy2w0wpDHZhXexoNy85xA4wr9EYoPFkol130zXYe1mYrAhq9rZFN6UP-hbe0q5NbO1NOHHETM-</t>
+        </is>
+      </c>
+      <c r="HW2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysc2dgSGkNFlriyDFkAFYOZNhAaDcuIIvxXI1knzU61-AZhpTvQDgD-3mwbRpq6ONsSBy7_Z-nDbLfUFldovCHouVeE17u53VadHRy_mfWbdxCG-aJ0cGM3bC1EiFV5Qs2H94gweF4Zw1l_UtCVx8fVodA==</t>
+        </is>
+      </c>
+      <c r="HX2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysc4vtFeXgOt_Bs4mIWU7qihC7f-tgp1lrR7Z6dQN0s9dnAblOvkQcSqdgElYHkBNW3vZ2yjcNOG5-9gNgE8FHqEQ6SWxfWH2d5adWN9py2ycY8z1SlUAZlwP9cIuKIsAH9M89SS-UVOubbatkL8fobckw==</t>
+        </is>
+      </c>
+      <c r="HY2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysc5ewO2HMYquPs7fBWBoBwp8OpwUEQV3ZrSIP9880-bqzH438lT-CeeVuqTwY3rsNZgVsLChRaIsFdEkn_gByL1b-rfEfJ8vJKOp85aDRheBTiFzwvzeZm7ssjw_vlLkdlYHCpAeeIIOrfmkKFPKNdaEg==</t>
+        </is>
+      </c>
+      <c r="HZ2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysc9wVg8Ms-Oqx1SvzO7LfAHC_3LIxyH5q93D3xvdKoNsEYmojl7mxnUsLYwmM_ysh8VRebRO7zswewZqDebbzTlHuO5CO_2K_9iI-jcskAASqAOxURB0DbYLt7Pf3kbfPwAfVBg-w0788BbDJzMgunQyw==</t>
+        </is>
+      </c>
+      <c r="IA2" t="inlineStr">
+        <is>
+          <t>gAAAAABiysg5vdYHn9J-qNoJ3CYvODFQ1n0Xt1zl8GaZ1qgoZp7rvi6IZq1LZlziWSm6U5m3roTYimcPiOAe8CD_ZzvbtaGdHxcfJL8wd9V89RSdVKMbV8E=</t>
+        </is>
+      </c>
+      <c r="IB2" t="inlineStr">
+        <is>
+          <t>gAAAAABiyshWGs8fkfUd4mvm5z7N9UIHXuO9D3lGjpxvsFh5NzhTk3nuW_0_J3l0_OqEGVmd2prJr4J4gr78hDYCSUtYG3uwpYnZeKHTjBc1dPQv0LCZTvfhl2aR48GIL7ChAS5L2zKK</t>
         </is>
       </c>
     </row>
@@ -1925,6 +2145,21 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>gAAAAABiOrW05CQX3TMxNbyQfBzsyavGCNMgH32XXH4dNqWsoZEPBXjGvjO0uliJnne_dVHHiAQ6YMDozAVe0Ig4zXJ2O2LKxAZOqq7IFewn6wNg-6JvPhorEbpp0Ee_T5rDPkGW5eNXcNIxrfG8QV7KWuuQ6Gw2Vg==</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>gAAAAABix_ekeTXRbtvYd7wO9nUhzHakX70c_SKikE4OtiAYlSmRLLOwWqCO_wiYcITJ4CpzQwuFNWfViKWxQ3XEUiHSEDm2vVUOZd6MfaZRfjB2dUn5S5c2yITYsVXDNB6QgW8b6KOj</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>gAAAAABix_emA9dZVP1wXKytz9UWVcuTgYXQsNduO-EyqybHrziTJoC7yTcOpj5-K85K8kifk3jYH_jpydWx_U-lbkimIiV-ghnneKkHeTufRWADDBIMDK4tY4DGy6n_HT2GHm5mPqo3</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>gAAAAABix_eqHWF9l7LFUn1bBLgLaN0UXGgkJDs65_TLoHVwoXBlpWYLfhOM7Z6HgQFd2n6Vi86_gRUGwkt48_h3RYSfLJ4sS2WRGzkhWsr8iYphri62s9lAHMQDMOtYR1pPVG_i14kC</t>
         </is>
       </c>
     </row>
@@ -2922,6 +3157,9006 @@
     <row r="997"/>
     <row r="998"/>
     <row r="999"/>
+    <row r="1000"/>
+    <row r="1001"/>
+    <row r="1002"/>
+    <row r="1003"/>
+    <row r="1004"/>
+    <row r="1005"/>
+    <row r="1006"/>
+    <row r="1007"/>
+    <row r="1008"/>
+    <row r="1009"/>
+    <row r="1010"/>
+    <row r="1011"/>
+    <row r="1012"/>
+    <row r="1013"/>
+    <row r="1014"/>
+    <row r="1015"/>
+    <row r="1016"/>
+    <row r="1017"/>
+    <row r="1018"/>
+    <row r="1019"/>
+    <row r="1020"/>
+    <row r="1021"/>
+    <row r="1022"/>
+    <row r="1023"/>
+    <row r="1024"/>
+    <row r="1025"/>
+    <row r="1026"/>
+    <row r="1027"/>
+    <row r="1028"/>
+    <row r="1029"/>
+    <row r="1030"/>
+    <row r="1031"/>
+    <row r="1032"/>
+    <row r="1033"/>
+    <row r="1034"/>
+    <row r="1035"/>
+    <row r="1036"/>
+    <row r="1037"/>
+    <row r="1038"/>
+    <row r="1039"/>
+    <row r="1040"/>
+    <row r="1041"/>
+    <row r="1042"/>
+    <row r="1043"/>
+    <row r="1044"/>
+    <row r="1045"/>
+    <row r="1046"/>
+    <row r="1047"/>
+    <row r="1048"/>
+    <row r="1049"/>
+    <row r="1050"/>
+    <row r="1051"/>
+    <row r="1052"/>
+    <row r="1053"/>
+    <row r="1054"/>
+    <row r="1055"/>
+    <row r="1056"/>
+    <row r="1057"/>
+    <row r="1058"/>
+    <row r="1059"/>
+    <row r="1060"/>
+    <row r="1061"/>
+    <row r="1062"/>
+    <row r="1063"/>
+    <row r="1064"/>
+    <row r="1065"/>
+    <row r="1066"/>
+    <row r="1067"/>
+    <row r="1068"/>
+    <row r="1069"/>
+    <row r="1070"/>
+    <row r="1071"/>
+    <row r="1072"/>
+    <row r="1073"/>
+    <row r="1074"/>
+    <row r="1075"/>
+    <row r="1076"/>
+    <row r="1077"/>
+    <row r="1078"/>
+    <row r="1079"/>
+    <row r="1080"/>
+    <row r="1081"/>
+    <row r="1082"/>
+    <row r="1083"/>
+    <row r="1084"/>
+    <row r="1085"/>
+    <row r="1086"/>
+    <row r="1087"/>
+    <row r="1088"/>
+    <row r="1089"/>
+    <row r="1090"/>
+    <row r="1091"/>
+    <row r="1092"/>
+    <row r="1093"/>
+    <row r="1094"/>
+    <row r="1095"/>
+    <row r="1096"/>
+    <row r="1097"/>
+    <row r="1098"/>
+    <row r="1099"/>
+    <row r="1100"/>
+    <row r="1101"/>
+    <row r="1102"/>
+    <row r="1103"/>
+    <row r="1104"/>
+    <row r="1105"/>
+    <row r="1106"/>
+    <row r="1107"/>
+    <row r="1108"/>
+    <row r="1109"/>
+    <row r="1110"/>
+    <row r="1111"/>
+    <row r="1112"/>
+    <row r="1113"/>
+    <row r="1114"/>
+    <row r="1115"/>
+    <row r="1116"/>
+    <row r="1117"/>
+    <row r="1118"/>
+    <row r="1119"/>
+    <row r="1120"/>
+    <row r="1121"/>
+    <row r="1122"/>
+    <row r="1123"/>
+    <row r="1124"/>
+    <row r="1125"/>
+    <row r="1126"/>
+    <row r="1127"/>
+    <row r="1128"/>
+    <row r="1129"/>
+    <row r="1130"/>
+    <row r="1131"/>
+    <row r="1132"/>
+    <row r="1133"/>
+    <row r="1134"/>
+    <row r="1135"/>
+    <row r="1136"/>
+    <row r="1137"/>
+    <row r="1138"/>
+    <row r="1139"/>
+    <row r="1140"/>
+    <row r="1141"/>
+    <row r="1142"/>
+    <row r="1143"/>
+    <row r="1144"/>
+    <row r="1145"/>
+    <row r="1146"/>
+    <row r="1147"/>
+    <row r="1148"/>
+    <row r="1149"/>
+    <row r="1150"/>
+    <row r="1151"/>
+    <row r="1152"/>
+    <row r="1153"/>
+    <row r="1154"/>
+    <row r="1155"/>
+    <row r="1156"/>
+    <row r="1157"/>
+    <row r="1158"/>
+    <row r="1159"/>
+    <row r="1160"/>
+    <row r="1161"/>
+    <row r="1162"/>
+    <row r="1163"/>
+    <row r="1164"/>
+    <row r="1165"/>
+    <row r="1166"/>
+    <row r="1167"/>
+    <row r="1168"/>
+    <row r="1169"/>
+    <row r="1170"/>
+    <row r="1171"/>
+    <row r="1172"/>
+    <row r="1173"/>
+    <row r="1174"/>
+    <row r="1175"/>
+    <row r="1176"/>
+    <row r="1177"/>
+    <row r="1178"/>
+    <row r="1179"/>
+    <row r="1180"/>
+    <row r="1181"/>
+    <row r="1182"/>
+    <row r="1183"/>
+    <row r="1184"/>
+    <row r="1185"/>
+    <row r="1186"/>
+    <row r="1187"/>
+    <row r="1188"/>
+    <row r="1189"/>
+    <row r="1190"/>
+    <row r="1191"/>
+    <row r="1192"/>
+    <row r="1193"/>
+    <row r="1194"/>
+    <row r="1195"/>
+    <row r="1196"/>
+    <row r="1197"/>
+    <row r="1198"/>
+    <row r="1199"/>
+    <row r="1200"/>
+    <row r="1201"/>
+    <row r="1202"/>
+    <row r="1203"/>
+    <row r="1204"/>
+    <row r="1205"/>
+    <row r="1206"/>
+    <row r="1207"/>
+    <row r="1208"/>
+    <row r="1209"/>
+    <row r="1210"/>
+    <row r="1211"/>
+    <row r="1212"/>
+    <row r="1213"/>
+    <row r="1214"/>
+    <row r="1215"/>
+    <row r="1216"/>
+    <row r="1217"/>
+    <row r="1218"/>
+    <row r="1219"/>
+    <row r="1220"/>
+    <row r="1221"/>
+    <row r="1222"/>
+    <row r="1223"/>
+    <row r="1224"/>
+    <row r="1225"/>
+    <row r="1226"/>
+    <row r="1227"/>
+    <row r="1228"/>
+    <row r="1229"/>
+    <row r="1230"/>
+    <row r="1231"/>
+    <row r="1232"/>
+    <row r="1233"/>
+    <row r="1234"/>
+    <row r="1235"/>
+    <row r="1236"/>
+    <row r="1237"/>
+    <row r="1238"/>
+    <row r="1239"/>
+    <row r="1240"/>
+    <row r="1241"/>
+    <row r="1242"/>
+    <row r="1243"/>
+    <row r="1244"/>
+    <row r="1245"/>
+    <row r="1246"/>
+    <row r="1247"/>
+    <row r="1248"/>
+    <row r="1249"/>
+    <row r="1250"/>
+    <row r="1251"/>
+    <row r="1252"/>
+    <row r="1253"/>
+    <row r="1254"/>
+    <row r="1255"/>
+    <row r="1256"/>
+    <row r="1257"/>
+    <row r="1258"/>
+    <row r="1259"/>
+    <row r="1260"/>
+    <row r="1261"/>
+    <row r="1262"/>
+    <row r="1263"/>
+    <row r="1264"/>
+    <row r="1265"/>
+    <row r="1266"/>
+    <row r="1267"/>
+    <row r="1268"/>
+    <row r="1269"/>
+    <row r="1270"/>
+    <row r="1271"/>
+    <row r="1272"/>
+    <row r="1273"/>
+    <row r="1274"/>
+    <row r="1275"/>
+    <row r="1276"/>
+    <row r="1277"/>
+    <row r="1278"/>
+    <row r="1279"/>
+    <row r="1280"/>
+    <row r="1281"/>
+    <row r="1282"/>
+    <row r="1283"/>
+    <row r="1284"/>
+    <row r="1285"/>
+    <row r="1286"/>
+    <row r="1287"/>
+    <row r="1288"/>
+    <row r="1289"/>
+    <row r="1290"/>
+    <row r="1291"/>
+    <row r="1292"/>
+    <row r="1293"/>
+    <row r="1294"/>
+    <row r="1295"/>
+    <row r="1296"/>
+    <row r="1297"/>
+    <row r="1298"/>
+    <row r="1299"/>
+    <row r="1300"/>
+    <row r="1301"/>
+    <row r="1302"/>
+    <row r="1303"/>
+    <row r="1304"/>
+    <row r="1305"/>
+    <row r="1306"/>
+    <row r="1307"/>
+    <row r="1308"/>
+    <row r="1309"/>
+    <row r="1310"/>
+    <row r="1311"/>
+    <row r="1312"/>
+    <row r="1313"/>
+    <row r="1314"/>
+    <row r="1315"/>
+    <row r="1316"/>
+    <row r="1317"/>
+    <row r="1318"/>
+    <row r="1319"/>
+    <row r="1320"/>
+    <row r="1321"/>
+    <row r="1322"/>
+    <row r="1323"/>
+    <row r="1324"/>
+    <row r="1325"/>
+    <row r="1326"/>
+    <row r="1327"/>
+    <row r="1328"/>
+    <row r="1329"/>
+    <row r="1330"/>
+    <row r="1331"/>
+    <row r="1332"/>
+    <row r="1333"/>
+    <row r="1334"/>
+    <row r="1335"/>
+    <row r="1336"/>
+    <row r="1337"/>
+    <row r="1338"/>
+    <row r="1339"/>
+    <row r="1340"/>
+    <row r="1341"/>
+    <row r="1342"/>
+    <row r="1343"/>
+    <row r="1344"/>
+    <row r="1345"/>
+    <row r="1346"/>
+    <row r="1347"/>
+    <row r="1348"/>
+    <row r="1349"/>
+    <row r="1350"/>
+    <row r="1351"/>
+    <row r="1352"/>
+    <row r="1353"/>
+    <row r="1354"/>
+    <row r="1355"/>
+    <row r="1356"/>
+    <row r="1357"/>
+    <row r="1358"/>
+    <row r="1359"/>
+    <row r="1360"/>
+    <row r="1361"/>
+    <row r="1362"/>
+    <row r="1363"/>
+    <row r="1364"/>
+    <row r="1365"/>
+    <row r="1366"/>
+    <row r="1367"/>
+    <row r="1368"/>
+    <row r="1369"/>
+    <row r="1370"/>
+    <row r="1371"/>
+    <row r="1372"/>
+    <row r="1373"/>
+    <row r="1374"/>
+    <row r="1375"/>
+    <row r="1376"/>
+    <row r="1377"/>
+    <row r="1378"/>
+    <row r="1379"/>
+    <row r="1380"/>
+    <row r="1381"/>
+    <row r="1382"/>
+    <row r="1383"/>
+    <row r="1384"/>
+    <row r="1385"/>
+    <row r="1386"/>
+    <row r="1387"/>
+    <row r="1388"/>
+    <row r="1389"/>
+    <row r="1390"/>
+    <row r="1391"/>
+    <row r="1392"/>
+    <row r="1393"/>
+    <row r="1394"/>
+    <row r="1395"/>
+    <row r="1396"/>
+    <row r="1397"/>
+    <row r="1398"/>
+    <row r="1399"/>
+    <row r="1400"/>
+    <row r="1401"/>
+    <row r="1402"/>
+    <row r="1403"/>
+    <row r="1404"/>
+    <row r="1405"/>
+    <row r="1406"/>
+    <row r="1407"/>
+    <row r="1408"/>
+    <row r="1409"/>
+    <row r="1410"/>
+    <row r="1411"/>
+    <row r="1412"/>
+    <row r="1413"/>
+    <row r="1414"/>
+    <row r="1415"/>
+    <row r="1416"/>
+    <row r="1417"/>
+    <row r="1418"/>
+    <row r="1419"/>
+    <row r="1420"/>
+    <row r="1421"/>
+    <row r="1422"/>
+    <row r="1423"/>
+    <row r="1424"/>
+    <row r="1425"/>
+    <row r="1426"/>
+    <row r="1427"/>
+    <row r="1428"/>
+    <row r="1429"/>
+    <row r="1430"/>
+    <row r="1431"/>
+    <row r="1432"/>
+    <row r="1433"/>
+    <row r="1434"/>
+    <row r="1435"/>
+    <row r="1436"/>
+    <row r="1437"/>
+    <row r="1438"/>
+    <row r="1439"/>
+    <row r="1440"/>
+    <row r="1441"/>
+    <row r="1442"/>
+    <row r="1443"/>
+    <row r="1444"/>
+    <row r="1445"/>
+    <row r="1446"/>
+    <row r="1447"/>
+    <row r="1448"/>
+    <row r="1449"/>
+    <row r="1450"/>
+    <row r="1451"/>
+    <row r="1452"/>
+    <row r="1453"/>
+    <row r="1454"/>
+    <row r="1455"/>
+    <row r="1456"/>
+    <row r="1457"/>
+    <row r="1458"/>
+    <row r="1459"/>
+    <row r="1460"/>
+    <row r="1461"/>
+    <row r="1462"/>
+    <row r="1463"/>
+    <row r="1464"/>
+    <row r="1465"/>
+    <row r="1466"/>
+    <row r="1467"/>
+    <row r="1468"/>
+    <row r="1469"/>
+    <row r="1470"/>
+    <row r="1471"/>
+    <row r="1472"/>
+    <row r="1473"/>
+    <row r="1474"/>
+    <row r="1475"/>
+    <row r="1476"/>
+    <row r="1477"/>
+    <row r="1478"/>
+    <row r="1479"/>
+    <row r="1480"/>
+    <row r="1481"/>
+    <row r="1482"/>
+    <row r="1483"/>
+    <row r="1484"/>
+    <row r="1485"/>
+    <row r="1486"/>
+    <row r="1487"/>
+    <row r="1488"/>
+    <row r="1489"/>
+    <row r="1490"/>
+    <row r="1491"/>
+    <row r="1492"/>
+    <row r="1493"/>
+    <row r="1494"/>
+    <row r="1495"/>
+    <row r="1496"/>
+    <row r="1497"/>
+    <row r="1498"/>
+    <row r="1499"/>
+    <row r="1500"/>
+    <row r="1501"/>
+    <row r="1502"/>
+    <row r="1503"/>
+    <row r="1504"/>
+    <row r="1505"/>
+    <row r="1506"/>
+    <row r="1507"/>
+    <row r="1508"/>
+    <row r="1509"/>
+    <row r="1510"/>
+    <row r="1511"/>
+    <row r="1512"/>
+    <row r="1513"/>
+    <row r="1514"/>
+    <row r="1515"/>
+    <row r="1516"/>
+    <row r="1517"/>
+    <row r="1518"/>
+    <row r="1519"/>
+    <row r="1520"/>
+    <row r="1521"/>
+    <row r="1522"/>
+    <row r="1523"/>
+    <row r="1524"/>
+    <row r="1525"/>
+    <row r="1526"/>
+    <row r="1527"/>
+    <row r="1528"/>
+    <row r="1529"/>
+    <row r="1530"/>
+    <row r="1531"/>
+    <row r="1532"/>
+    <row r="1533"/>
+    <row r="1534"/>
+    <row r="1535"/>
+    <row r="1536"/>
+    <row r="1537"/>
+    <row r="1538"/>
+    <row r="1539"/>
+    <row r="1540"/>
+    <row r="1541"/>
+    <row r="1542"/>
+    <row r="1543"/>
+    <row r="1544"/>
+    <row r="1545"/>
+    <row r="1546"/>
+    <row r="1547"/>
+    <row r="1548"/>
+    <row r="1549"/>
+    <row r="1550"/>
+    <row r="1551"/>
+    <row r="1552"/>
+    <row r="1553"/>
+    <row r="1554"/>
+    <row r="1555"/>
+    <row r="1556"/>
+    <row r="1557"/>
+    <row r="1558"/>
+    <row r="1559"/>
+    <row r="1560"/>
+    <row r="1561"/>
+    <row r="1562"/>
+    <row r="1563"/>
+    <row r="1564"/>
+    <row r="1565"/>
+    <row r="1566"/>
+    <row r="1567"/>
+    <row r="1568"/>
+    <row r="1569"/>
+    <row r="1570"/>
+    <row r="1571"/>
+    <row r="1572"/>
+    <row r="1573"/>
+    <row r="1574"/>
+    <row r="1575"/>
+    <row r="1576"/>
+    <row r="1577"/>
+    <row r="1578"/>
+    <row r="1579"/>
+    <row r="1580"/>
+    <row r="1581"/>
+    <row r="1582"/>
+    <row r="1583"/>
+    <row r="1584"/>
+    <row r="1585"/>
+    <row r="1586"/>
+    <row r="1587"/>
+    <row r="1588"/>
+    <row r="1589"/>
+    <row r="1590"/>
+    <row r="1591"/>
+    <row r="1592"/>
+    <row r="1593"/>
+    <row r="1594"/>
+    <row r="1595"/>
+    <row r="1596"/>
+    <row r="1597"/>
+    <row r="1598"/>
+    <row r="1599"/>
+    <row r="1600"/>
+    <row r="1601"/>
+    <row r="1602"/>
+    <row r="1603"/>
+    <row r="1604"/>
+    <row r="1605"/>
+    <row r="1606"/>
+    <row r="1607"/>
+    <row r="1608"/>
+    <row r="1609"/>
+    <row r="1610"/>
+    <row r="1611"/>
+    <row r="1612"/>
+    <row r="1613"/>
+    <row r="1614"/>
+    <row r="1615"/>
+    <row r="1616"/>
+    <row r="1617"/>
+    <row r="1618"/>
+    <row r="1619"/>
+    <row r="1620"/>
+    <row r="1621"/>
+    <row r="1622"/>
+    <row r="1623"/>
+    <row r="1624"/>
+    <row r="1625"/>
+    <row r="1626"/>
+    <row r="1627"/>
+    <row r="1628"/>
+    <row r="1629"/>
+    <row r="1630"/>
+    <row r="1631"/>
+    <row r="1632"/>
+    <row r="1633"/>
+    <row r="1634"/>
+    <row r="1635"/>
+    <row r="1636"/>
+    <row r="1637"/>
+    <row r="1638"/>
+    <row r="1639"/>
+    <row r="1640"/>
+    <row r="1641"/>
+    <row r="1642"/>
+    <row r="1643"/>
+    <row r="1644"/>
+    <row r="1645"/>
+    <row r="1646"/>
+    <row r="1647"/>
+    <row r="1648"/>
+    <row r="1649"/>
+    <row r="1650"/>
+    <row r="1651"/>
+    <row r="1652"/>
+    <row r="1653"/>
+    <row r="1654"/>
+    <row r="1655"/>
+    <row r="1656"/>
+    <row r="1657"/>
+    <row r="1658"/>
+    <row r="1659"/>
+    <row r="1660"/>
+    <row r="1661"/>
+    <row r="1662"/>
+    <row r="1663"/>
+    <row r="1664"/>
+    <row r="1665"/>
+    <row r="1666"/>
+    <row r="1667"/>
+    <row r="1668"/>
+    <row r="1669"/>
+    <row r="1670"/>
+    <row r="1671"/>
+    <row r="1672"/>
+    <row r="1673"/>
+    <row r="1674"/>
+    <row r="1675"/>
+    <row r="1676"/>
+    <row r="1677"/>
+    <row r="1678"/>
+    <row r="1679"/>
+    <row r="1680"/>
+    <row r="1681"/>
+    <row r="1682"/>
+    <row r="1683"/>
+    <row r="1684"/>
+    <row r="1685"/>
+    <row r="1686"/>
+    <row r="1687"/>
+    <row r="1688"/>
+    <row r="1689"/>
+    <row r="1690"/>
+    <row r="1691"/>
+    <row r="1692"/>
+    <row r="1693"/>
+    <row r="1694"/>
+    <row r="1695"/>
+    <row r="1696"/>
+    <row r="1697"/>
+    <row r="1698"/>
+    <row r="1699"/>
+    <row r="1700"/>
+    <row r="1701"/>
+    <row r="1702"/>
+    <row r="1703"/>
+    <row r="1704"/>
+    <row r="1705"/>
+    <row r="1706"/>
+    <row r="1707"/>
+    <row r="1708"/>
+    <row r="1709"/>
+    <row r="1710"/>
+    <row r="1711"/>
+    <row r="1712"/>
+    <row r="1713"/>
+    <row r="1714"/>
+    <row r="1715"/>
+    <row r="1716"/>
+    <row r="1717"/>
+    <row r="1718"/>
+    <row r="1719"/>
+    <row r="1720"/>
+    <row r="1721"/>
+    <row r="1722"/>
+    <row r="1723"/>
+    <row r="1724"/>
+    <row r="1725"/>
+    <row r="1726"/>
+    <row r="1727"/>
+    <row r="1728"/>
+    <row r="1729"/>
+    <row r="1730"/>
+    <row r="1731"/>
+    <row r="1732"/>
+    <row r="1733"/>
+    <row r="1734"/>
+    <row r="1735"/>
+    <row r="1736"/>
+    <row r="1737"/>
+    <row r="1738"/>
+    <row r="1739"/>
+    <row r="1740"/>
+    <row r="1741"/>
+    <row r="1742"/>
+    <row r="1743"/>
+    <row r="1744"/>
+    <row r="1745"/>
+    <row r="1746"/>
+    <row r="1747"/>
+    <row r="1748"/>
+    <row r="1749"/>
+    <row r="1750"/>
+    <row r="1751"/>
+    <row r="1752"/>
+    <row r="1753"/>
+    <row r="1754"/>
+    <row r="1755"/>
+    <row r="1756"/>
+    <row r="1757"/>
+    <row r="1758"/>
+    <row r="1759"/>
+    <row r="1760"/>
+    <row r="1761"/>
+    <row r="1762"/>
+    <row r="1763"/>
+    <row r="1764"/>
+    <row r="1765"/>
+    <row r="1766"/>
+    <row r="1767"/>
+    <row r="1768"/>
+    <row r="1769"/>
+    <row r="1770"/>
+    <row r="1771"/>
+    <row r="1772"/>
+    <row r="1773"/>
+    <row r="1774"/>
+    <row r="1775"/>
+    <row r="1776"/>
+    <row r="1777"/>
+    <row r="1778"/>
+    <row r="1779"/>
+    <row r="1780"/>
+    <row r="1781"/>
+    <row r="1782"/>
+    <row r="1783"/>
+    <row r="1784"/>
+    <row r="1785"/>
+    <row r="1786"/>
+    <row r="1787"/>
+    <row r="1788"/>
+    <row r="1789"/>
+    <row r="1790"/>
+    <row r="1791"/>
+    <row r="1792"/>
+    <row r="1793"/>
+    <row r="1794"/>
+    <row r="1795"/>
+    <row r="1796"/>
+    <row r="1797"/>
+    <row r="1798"/>
+    <row r="1799"/>
+    <row r="1800"/>
+    <row r="1801"/>
+    <row r="1802"/>
+    <row r="1803"/>
+    <row r="1804"/>
+    <row r="1805"/>
+    <row r="1806"/>
+    <row r="1807"/>
+    <row r="1808"/>
+    <row r="1809"/>
+    <row r="1810"/>
+    <row r="1811"/>
+    <row r="1812"/>
+    <row r="1813"/>
+    <row r="1814"/>
+    <row r="1815"/>
+    <row r="1816"/>
+    <row r="1817"/>
+    <row r="1818"/>
+    <row r="1819"/>
+    <row r="1820"/>
+    <row r="1821"/>
+    <row r="1822"/>
+    <row r="1823"/>
+    <row r="1824"/>
+    <row r="1825"/>
+    <row r="1826"/>
+    <row r="1827"/>
+    <row r="1828"/>
+    <row r="1829"/>
+    <row r="1830"/>
+    <row r="1831"/>
+    <row r="1832"/>
+    <row r="1833"/>
+    <row r="1834"/>
+    <row r="1835"/>
+    <row r="1836"/>
+    <row r="1837"/>
+    <row r="1838"/>
+    <row r="1839"/>
+    <row r="1840"/>
+    <row r="1841"/>
+    <row r="1842"/>
+    <row r="1843"/>
+    <row r="1844"/>
+    <row r="1845"/>
+    <row r="1846"/>
+    <row r="1847"/>
+    <row r="1848"/>
+    <row r="1849"/>
+    <row r="1850"/>
+    <row r="1851"/>
+    <row r="1852"/>
+    <row r="1853"/>
+    <row r="1854"/>
+    <row r="1855"/>
+    <row r="1856"/>
+    <row r="1857"/>
+    <row r="1858"/>
+    <row r="1859"/>
+    <row r="1860"/>
+    <row r="1861"/>
+    <row r="1862"/>
+    <row r="1863"/>
+    <row r="1864"/>
+    <row r="1865"/>
+    <row r="1866"/>
+    <row r="1867"/>
+    <row r="1868"/>
+    <row r="1869"/>
+    <row r="1870"/>
+    <row r="1871"/>
+    <row r="1872"/>
+    <row r="1873"/>
+    <row r="1874"/>
+    <row r="1875"/>
+    <row r="1876"/>
+    <row r="1877"/>
+    <row r="1878"/>
+    <row r="1879"/>
+    <row r="1880"/>
+    <row r="1881"/>
+    <row r="1882"/>
+    <row r="1883"/>
+    <row r="1884"/>
+    <row r="1885"/>
+    <row r="1886"/>
+    <row r="1887"/>
+    <row r="1888"/>
+    <row r="1889"/>
+    <row r="1890"/>
+    <row r="1891"/>
+    <row r="1892"/>
+    <row r="1893"/>
+    <row r="1894"/>
+    <row r="1895"/>
+    <row r="1896"/>
+    <row r="1897"/>
+    <row r="1898"/>
+    <row r="1899"/>
+    <row r="1900"/>
+    <row r="1901"/>
+    <row r="1902"/>
+    <row r="1903"/>
+    <row r="1904"/>
+    <row r="1905"/>
+    <row r="1906"/>
+    <row r="1907"/>
+    <row r="1908"/>
+    <row r="1909"/>
+    <row r="1910"/>
+    <row r="1911"/>
+    <row r="1912"/>
+    <row r="1913"/>
+    <row r="1914"/>
+    <row r="1915"/>
+    <row r="1916"/>
+    <row r="1917"/>
+    <row r="1918"/>
+    <row r="1919"/>
+    <row r="1920"/>
+    <row r="1921"/>
+    <row r="1922"/>
+    <row r="1923"/>
+    <row r="1924"/>
+    <row r="1925"/>
+    <row r="1926"/>
+    <row r="1927"/>
+    <row r="1928"/>
+    <row r="1929"/>
+    <row r="1930"/>
+    <row r="1931"/>
+    <row r="1932"/>
+    <row r="1933"/>
+    <row r="1934"/>
+    <row r="1935"/>
+    <row r="1936"/>
+    <row r="1937"/>
+    <row r="1938"/>
+    <row r="1939"/>
+    <row r="1940"/>
+    <row r="1941"/>
+    <row r="1942"/>
+    <row r="1943"/>
+    <row r="1944"/>
+    <row r="1945"/>
+    <row r="1946"/>
+    <row r="1947"/>
+    <row r="1948"/>
+    <row r="1949"/>
+    <row r="1950"/>
+    <row r="1951"/>
+    <row r="1952"/>
+    <row r="1953"/>
+    <row r="1954"/>
+    <row r="1955"/>
+    <row r="1956"/>
+    <row r="1957"/>
+    <row r="1958"/>
+    <row r="1959"/>
+    <row r="1960"/>
+    <row r="1961"/>
+    <row r="1962"/>
+    <row r="1963"/>
+    <row r="1964"/>
+    <row r="1965"/>
+    <row r="1966"/>
+    <row r="1967"/>
+    <row r="1968"/>
+    <row r="1969"/>
+    <row r="1970"/>
+    <row r="1971"/>
+    <row r="1972"/>
+    <row r="1973"/>
+    <row r="1974"/>
+    <row r="1975"/>
+    <row r="1976"/>
+    <row r="1977"/>
+    <row r="1978"/>
+    <row r="1979"/>
+    <row r="1980"/>
+    <row r="1981"/>
+    <row r="1982"/>
+    <row r="1983"/>
+    <row r="1984"/>
+    <row r="1985"/>
+    <row r="1986"/>
+    <row r="1987"/>
+    <row r="1988"/>
+    <row r="1989"/>
+    <row r="1990"/>
+    <row r="1991"/>
+    <row r="1992"/>
+    <row r="1993"/>
+    <row r="1994"/>
+    <row r="1995"/>
+    <row r="1996"/>
+    <row r="1997"/>
+    <row r="1998"/>
+    <row r="1999"/>
+    <row r="2000"/>
+    <row r="2001"/>
+    <row r="2002"/>
+    <row r="2003"/>
+    <row r="2004"/>
+    <row r="2005"/>
+    <row r="2006"/>
+    <row r="2007"/>
+    <row r="2008"/>
+    <row r="2009"/>
+    <row r="2010"/>
+    <row r="2011"/>
+    <row r="2012"/>
+    <row r="2013"/>
+    <row r="2014"/>
+    <row r="2015"/>
+    <row r="2016"/>
+    <row r="2017"/>
+    <row r="2018"/>
+    <row r="2019"/>
+    <row r="2020"/>
+    <row r="2021"/>
+    <row r="2022"/>
+    <row r="2023"/>
+    <row r="2024"/>
+    <row r="2025"/>
+    <row r="2026"/>
+    <row r="2027"/>
+    <row r="2028"/>
+    <row r="2029"/>
+    <row r="2030"/>
+    <row r="2031"/>
+    <row r="2032"/>
+    <row r="2033"/>
+    <row r="2034"/>
+    <row r="2035"/>
+    <row r="2036"/>
+    <row r="2037"/>
+    <row r="2038"/>
+    <row r="2039"/>
+    <row r="2040"/>
+    <row r="2041"/>
+    <row r="2042"/>
+    <row r="2043"/>
+    <row r="2044"/>
+    <row r="2045"/>
+    <row r="2046"/>
+    <row r="2047"/>
+    <row r="2048"/>
+    <row r="2049"/>
+    <row r="2050"/>
+    <row r="2051"/>
+    <row r="2052"/>
+    <row r="2053"/>
+    <row r="2054"/>
+    <row r="2055"/>
+    <row r="2056"/>
+    <row r="2057"/>
+    <row r="2058"/>
+    <row r="2059"/>
+    <row r="2060"/>
+    <row r="2061"/>
+    <row r="2062"/>
+    <row r="2063"/>
+    <row r="2064"/>
+    <row r="2065"/>
+    <row r="2066"/>
+    <row r="2067"/>
+    <row r="2068"/>
+    <row r="2069"/>
+    <row r="2070"/>
+    <row r="2071"/>
+    <row r="2072"/>
+    <row r="2073"/>
+    <row r="2074"/>
+    <row r="2075"/>
+    <row r="2076"/>
+    <row r="2077"/>
+    <row r="2078"/>
+    <row r="2079"/>
+    <row r="2080"/>
+    <row r="2081"/>
+    <row r="2082"/>
+    <row r="2083"/>
+    <row r="2084"/>
+    <row r="2085"/>
+    <row r="2086"/>
+    <row r="2087"/>
+    <row r="2088"/>
+    <row r="2089"/>
+    <row r="2090"/>
+    <row r="2091"/>
+    <row r="2092"/>
+    <row r="2093"/>
+    <row r="2094"/>
+    <row r="2095"/>
+    <row r="2096"/>
+    <row r="2097"/>
+    <row r="2098"/>
+    <row r="2099"/>
+    <row r="2100"/>
+    <row r="2101"/>
+    <row r="2102"/>
+    <row r="2103"/>
+    <row r="2104"/>
+    <row r="2105"/>
+    <row r="2106"/>
+    <row r="2107"/>
+    <row r="2108"/>
+    <row r="2109"/>
+    <row r="2110"/>
+    <row r="2111"/>
+    <row r="2112"/>
+    <row r="2113"/>
+    <row r="2114"/>
+    <row r="2115"/>
+    <row r="2116"/>
+    <row r="2117"/>
+    <row r="2118"/>
+    <row r="2119"/>
+    <row r="2120"/>
+    <row r="2121"/>
+    <row r="2122"/>
+    <row r="2123"/>
+    <row r="2124"/>
+    <row r="2125"/>
+    <row r="2126"/>
+    <row r="2127"/>
+    <row r="2128"/>
+    <row r="2129"/>
+    <row r="2130"/>
+    <row r="2131"/>
+    <row r="2132"/>
+    <row r="2133"/>
+    <row r="2134"/>
+    <row r="2135"/>
+    <row r="2136"/>
+    <row r="2137"/>
+    <row r="2138"/>
+    <row r="2139"/>
+    <row r="2140"/>
+    <row r="2141"/>
+    <row r="2142"/>
+    <row r="2143"/>
+    <row r="2144"/>
+    <row r="2145"/>
+    <row r="2146"/>
+    <row r="2147"/>
+    <row r="2148"/>
+    <row r="2149"/>
+    <row r="2150"/>
+    <row r="2151"/>
+    <row r="2152"/>
+    <row r="2153"/>
+    <row r="2154"/>
+    <row r="2155"/>
+    <row r="2156"/>
+    <row r="2157"/>
+    <row r="2158"/>
+    <row r="2159"/>
+    <row r="2160"/>
+    <row r="2161"/>
+    <row r="2162"/>
+    <row r="2163"/>
+    <row r="2164"/>
+    <row r="2165"/>
+    <row r="2166"/>
+    <row r="2167"/>
+    <row r="2168"/>
+    <row r="2169"/>
+    <row r="2170"/>
+    <row r="2171"/>
+    <row r="2172"/>
+    <row r="2173"/>
+    <row r="2174"/>
+    <row r="2175"/>
+    <row r="2176"/>
+    <row r="2177"/>
+    <row r="2178"/>
+    <row r="2179"/>
+    <row r="2180"/>
+    <row r="2181"/>
+    <row r="2182"/>
+    <row r="2183"/>
+    <row r="2184"/>
+    <row r="2185"/>
+    <row r="2186"/>
+    <row r="2187"/>
+    <row r="2188"/>
+    <row r="2189"/>
+    <row r="2190"/>
+    <row r="2191"/>
+    <row r="2192"/>
+    <row r="2193"/>
+    <row r="2194"/>
+    <row r="2195"/>
+    <row r="2196"/>
+    <row r="2197"/>
+    <row r="2198"/>
+    <row r="2199"/>
+    <row r="2200"/>
+    <row r="2201"/>
+    <row r="2202"/>
+    <row r="2203"/>
+    <row r="2204"/>
+    <row r="2205"/>
+    <row r="2206"/>
+    <row r="2207"/>
+    <row r="2208"/>
+    <row r="2209"/>
+    <row r="2210"/>
+    <row r="2211"/>
+    <row r="2212"/>
+    <row r="2213"/>
+    <row r="2214"/>
+    <row r="2215"/>
+    <row r="2216"/>
+    <row r="2217"/>
+    <row r="2218"/>
+    <row r="2219"/>
+    <row r="2220"/>
+    <row r="2221"/>
+    <row r="2222"/>
+    <row r="2223"/>
+    <row r="2224"/>
+    <row r="2225"/>
+    <row r="2226"/>
+    <row r="2227"/>
+    <row r="2228"/>
+    <row r="2229"/>
+    <row r="2230"/>
+    <row r="2231"/>
+    <row r="2232"/>
+    <row r="2233"/>
+    <row r="2234"/>
+    <row r="2235"/>
+    <row r="2236"/>
+    <row r="2237"/>
+    <row r="2238"/>
+    <row r="2239"/>
+    <row r="2240"/>
+    <row r="2241"/>
+    <row r="2242"/>
+    <row r="2243"/>
+    <row r="2244"/>
+    <row r="2245"/>
+    <row r="2246"/>
+    <row r="2247"/>
+    <row r="2248"/>
+    <row r="2249"/>
+    <row r="2250"/>
+    <row r="2251"/>
+    <row r="2252"/>
+    <row r="2253"/>
+    <row r="2254"/>
+    <row r="2255"/>
+    <row r="2256"/>
+    <row r="2257"/>
+    <row r="2258"/>
+    <row r="2259"/>
+    <row r="2260"/>
+    <row r="2261"/>
+    <row r="2262"/>
+    <row r="2263"/>
+    <row r="2264"/>
+    <row r="2265"/>
+    <row r="2266"/>
+    <row r="2267"/>
+    <row r="2268"/>
+    <row r="2269"/>
+    <row r="2270"/>
+    <row r="2271"/>
+    <row r="2272"/>
+    <row r="2273"/>
+    <row r="2274"/>
+    <row r="2275"/>
+    <row r="2276"/>
+    <row r="2277"/>
+    <row r="2278"/>
+    <row r="2279"/>
+    <row r="2280"/>
+    <row r="2281"/>
+    <row r="2282"/>
+    <row r="2283"/>
+    <row r="2284"/>
+    <row r="2285"/>
+    <row r="2286"/>
+    <row r="2287"/>
+    <row r="2288"/>
+    <row r="2289"/>
+    <row r="2290"/>
+    <row r="2291"/>
+    <row r="2292"/>
+    <row r="2293"/>
+    <row r="2294"/>
+    <row r="2295"/>
+    <row r="2296"/>
+    <row r="2297"/>
+    <row r="2298"/>
+    <row r="2299"/>
+    <row r="2300"/>
+    <row r="2301"/>
+    <row r="2302"/>
+    <row r="2303"/>
+    <row r="2304"/>
+    <row r="2305"/>
+    <row r="2306"/>
+    <row r="2307"/>
+    <row r="2308"/>
+    <row r="2309"/>
+    <row r="2310"/>
+    <row r="2311"/>
+    <row r="2312"/>
+    <row r="2313"/>
+    <row r="2314"/>
+    <row r="2315"/>
+    <row r="2316"/>
+    <row r="2317"/>
+    <row r="2318"/>
+    <row r="2319"/>
+    <row r="2320"/>
+    <row r="2321"/>
+    <row r="2322"/>
+    <row r="2323"/>
+    <row r="2324"/>
+    <row r="2325"/>
+    <row r="2326"/>
+    <row r="2327"/>
+    <row r="2328"/>
+    <row r="2329"/>
+    <row r="2330"/>
+    <row r="2331"/>
+    <row r="2332"/>
+    <row r="2333"/>
+    <row r="2334"/>
+    <row r="2335"/>
+    <row r="2336"/>
+    <row r="2337"/>
+    <row r="2338"/>
+    <row r="2339"/>
+    <row r="2340"/>
+    <row r="2341"/>
+    <row r="2342"/>
+    <row r="2343"/>
+    <row r="2344"/>
+    <row r="2345"/>
+    <row r="2346"/>
+    <row r="2347"/>
+    <row r="2348"/>
+    <row r="2349"/>
+    <row r="2350"/>
+    <row r="2351"/>
+    <row r="2352"/>
+    <row r="2353"/>
+    <row r="2354"/>
+    <row r="2355"/>
+    <row r="2356"/>
+    <row r="2357"/>
+    <row r="2358"/>
+    <row r="2359"/>
+    <row r="2360"/>
+    <row r="2361"/>
+    <row r="2362"/>
+    <row r="2363"/>
+    <row r="2364"/>
+    <row r="2365"/>
+    <row r="2366"/>
+    <row r="2367"/>
+    <row r="2368"/>
+    <row r="2369"/>
+    <row r="2370"/>
+    <row r="2371"/>
+    <row r="2372"/>
+    <row r="2373"/>
+    <row r="2374"/>
+    <row r="2375"/>
+    <row r="2376"/>
+    <row r="2377"/>
+    <row r="2378"/>
+    <row r="2379"/>
+    <row r="2380"/>
+    <row r="2381"/>
+    <row r="2382"/>
+    <row r="2383"/>
+    <row r="2384"/>
+    <row r="2385"/>
+    <row r="2386"/>
+    <row r="2387"/>
+    <row r="2388"/>
+    <row r="2389"/>
+    <row r="2390"/>
+    <row r="2391"/>
+    <row r="2392"/>
+    <row r="2393"/>
+    <row r="2394"/>
+    <row r="2395"/>
+    <row r="2396"/>
+    <row r="2397"/>
+    <row r="2398"/>
+    <row r="2399"/>
+    <row r="2400"/>
+    <row r="2401"/>
+    <row r="2402"/>
+    <row r="2403"/>
+    <row r="2404"/>
+    <row r="2405"/>
+    <row r="2406"/>
+    <row r="2407"/>
+    <row r="2408"/>
+    <row r="2409"/>
+    <row r="2410"/>
+    <row r="2411"/>
+    <row r="2412"/>
+    <row r="2413"/>
+    <row r="2414"/>
+    <row r="2415"/>
+    <row r="2416"/>
+    <row r="2417"/>
+    <row r="2418"/>
+    <row r="2419"/>
+    <row r="2420"/>
+    <row r="2421"/>
+    <row r="2422"/>
+    <row r="2423"/>
+    <row r="2424"/>
+    <row r="2425"/>
+    <row r="2426"/>
+    <row r="2427"/>
+    <row r="2428"/>
+    <row r="2429"/>
+    <row r="2430"/>
+    <row r="2431"/>
+    <row r="2432"/>
+    <row r="2433"/>
+    <row r="2434"/>
+    <row r="2435"/>
+    <row r="2436"/>
+    <row r="2437"/>
+    <row r="2438"/>
+    <row r="2439"/>
+    <row r="2440"/>
+    <row r="2441"/>
+    <row r="2442"/>
+    <row r="2443"/>
+    <row r="2444"/>
+    <row r="2445"/>
+    <row r="2446"/>
+    <row r="2447"/>
+    <row r="2448"/>
+    <row r="2449"/>
+    <row r="2450"/>
+    <row r="2451"/>
+    <row r="2452"/>
+    <row r="2453"/>
+    <row r="2454"/>
+    <row r="2455"/>
+    <row r="2456"/>
+    <row r="2457"/>
+    <row r="2458"/>
+    <row r="2459"/>
+    <row r="2460"/>
+    <row r="2461"/>
+    <row r="2462"/>
+    <row r="2463"/>
+    <row r="2464"/>
+    <row r="2465"/>
+    <row r="2466"/>
+    <row r="2467"/>
+    <row r="2468"/>
+    <row r="2469"/>
+    <row r="2470"/>
+    <row r="2471"/>
+    <row r="2472"/>
+    <row r="2473"/>
+    <row r="2474"/>
+    <row r="2475"/>
+    <row r="2476"/>
+    <row r="2477"/>
+    <row r="2478"/>
+    <row r="2479"/>
+    <row r="2480"/>
+    <row r="2481"/>
+    <row r="2482"/>
+    <row r="2483"/>
+    <row r="2484"/>
+    <row r="2485"/>
+    <row r="2486"/>
+    <row r="2487"/>
+    <row r="2488"/>
+    <row r="2489"/>
+    <row r="2490"/>
+    <row r="2491"/>
+    <row r="2492"/>
+    <row r="2493"/>
+    <row r="2494"/>
+    <row r="2495"/>
+    <row r="2496"/>
+    <row r="2497"/>
+    <row r="2498"/>
+    <row r="2499"/>
+    <row r="2500"/>
+    <row r="2501"/>
+    <row r="2502"/>
+    <row r="2503"/>
+    <row r="2504"/>
+    <row r="2505"/>
+    <row r="2506"/>
+    <row r="2507"/>
+    <row r="2508"/>
+    <row r="2509"/>
+    <row r="2510"/>
+    <row r="2511"/>
+    <row r="2512"/>
+    <row r="2513"/>
+    <row r="2514"/>
+    <row r="2515"/>
+    <row r="2516"/>
+    <row r="2517"/>
+    <row r="2518"/>
+    <row r="2519"/>
+    <row r="2520"/>
+    <row r="2521"/>
+    <row r="2522"/>
+    <row r="2523"/>
+    <row r="2524"/>
+    <row r="2525"/>
+    <row r="2526"/>
+    <row r="2527"/>
+    <row r="2528"/>
+    <row r="2529"/>
+    <row r="2530"/>
+    <row r="2531"/>
+    <row r="2532"/>
+    <row r="2533"/>
+    <row r="2534"/>
+    <row r="2535"/>
+    <row r="2536"/>
+    <row r="2537"/>
+    <row r="2538"/>
+    <row r="2539"/>
+    <row r="2540"/>
+    <row r="2541"/>
+    <row r="2542"/>
+    <row r="2543"/>
+    <row r="2544"/>
+    <row r="2545"/>
+    <row r="2546"/>
+    <row r="2547"/>
+    <row r="2548"/>
+    <row r="2549"/>
+    <row r="2550"/>
+    <row r="2551"/>
+    <row r="2552"/>
+    <row r="2553"/>
+    <row r="2554"/>
+    <row r="2555"/>
+    <row r="2556"/>
+    <row r="2557"/>
+    <row r="2558"/>
+    <row r="2559"/>
+    <row r="2560"/>
+    <row r="2561"/>
+    <row r="2562"/>
+    <row r="2563"/>
+    <row r="2564"/>
+    <row r="2565"/>
+    <row r="2566"/>
+    <row r="2567"/>
+    <row r="2568"/>
+    <row r="2569"/>
+    <row r="2570"/>
+    <row r="2571"/>
+    <row r="2572"/>
+    <row r="2573"/>
+    <row r="2574"/>
+    <row r="2575"/>
+    <row r="2576"/>
+    <row r="2577"/>
+    <row r="2578"/>
+    <row r="2579"/>
+    <row r="2580"/>
+    <row r="2581"/>
+    <row r="2582"/>
+    <row r="2583"/>
+    <row r="2584"/>
+    <row r="2585"/>
+    <row r="2586"/>
+    <row r="2587"/>
+    <row r="2588"/>
+    <row r="2589"/>
+    <row r="2590"/>
+    <row r="2591"/>
+    <row r="2592"/>
+    <row r="2593"/>
+    <row r="2594"/>
+    <row r="2595"/>
+    <row r="2596"/>
+    <row r="2597"/>
+    <row r="2598"/>
+    <row r="2599"/>
+    <row r="2600"/>
+    <row r="2601"/>
+    <row r="2602"/>
+    <row r="2603"/>
+    <row r="2604"/>
+    <row r="2605"/>
+    <row r="2606"/>
+    <row r="2607"/>
+    <row r="2608"/>
+    <row r="2609"/>
+    <row r="2610"/>
+    <row r="2611"/>
+    <row r="2612"/>
+    <row r="2613"/>
+    <row r="2614"/>
+    <row r="2615"/>
+    <row r="2616"/>
+    <row r="2617"/>
+    <row r="2618"/>
+    <row r="2619"/>
+    <row r="2620"/>
+    <row r="2621"/>
+    <row r="2622"/>
+    <row r="2623"/>
+    <row r="2624"/>
+    <row r="2625"/>
+    <row r="2626"/>
+    <row r="2627"/>
+    <row r="2628"/>
+    <row r="2629"/>
+    <row r="2630"/>
+    <row r="2631"/>
+    <row r="2632"/>
+    <row r="2633"/>
+    <row r="2634"/>
+    <row r="2635"/>
+    <row r="2636"/>
+    <row r="2637"/>
+    <row r="2638"/>
+    <row r="2639"/>
+    <row r="2640"/>
+    <row r="2641"/>
+    <row r="2642"/>
+    <row r="2643"/>
+    <row r="2644"/>
+    <row r="2645"/>
+    <row r="2646"/>
+    <row r="2647"/>
+    <row r="2648"/>
+    <row r="2649"/>
+    <row r="2650"/>
+    <row r="2651"/>
+    <row r="2652"/>
+    <row r="2653"/>
+    <row r="2654"/>
+    <row r="2655"/>
+    <row r="2656"/>
+    <row r="2657"/>
+    <row r="2658"/>
+    <row r="2659"/>
+    <row r="2660"/>
+    <row r="2661"/>
+    <row r="2662"/>
+    <row r="2663"/>
+    <row r="2664"/>
+    <row r="2665"/>
+    <row r="2666"/>
+    <row r="2667"/>
+    <row r="2668"/>
+    <row r="2669"/>
+    <row r="2670"/>
+    <row r="2671"/>
+    <row r="2672"/>
+    <row r="2673"/>
+    <row r="2674"/>
+    <row r="2675"/>
+    <row r="2676"/>
+    <row r="2677"/>
+    <row r="2678"/>
+    <row r="2679"/>
+    <row r="2680"/>
+    <row r="2681"/>
+    <row r="2682"/>
+    <row r="2683"/>
+    <row r="2684"/>
+    <row r="2685"/>
+    <row r="2686"/>
+    <row r="2687"/>
+    <row r="2688"/>
+    <row r="2689"/>
+    <row r="2690"/>
+    <row r="2691"/>
+    <row r="2692"/>
+    <row r="2693"/>
+    <row r="2694"/>
+    <row r="2695"/>
+    <row r="2696"/>
+    <row r="2697"/>
+    <row r="2698"/>
+    <row r="2699"/>
+    <row r="2700"/>
+    <row r="2701"/>
+    <row r="2702"/>
+    <row r="2703"/>
+    <row r="2704"/>
+    <row r="2705"/>
+    <row r="2706"/>
+    <row r="2707"/>
+    <row r="2708"/>
+    <row r="2709"/>
+    <row r="2710"/>
+    <row r="2711"/>
+    <row r="2712"/>
+    <row r="2713"/>
+    <row r="2714"/>
+    <row r="2715"/>
+    <row r="2716"/>
+    <row r="2717"/>
+    <row r="2718"/>
+    <row r="2719"/>
+    <row r="2720"/>
+    <row r="2721"/>
+    <row r="2722"/>
+    <row r="2723"/>
+    <row r="2724"/>
+    <row r="2725"/>
+    <row r="2726"/>
+    <row r="2727"/>
+    <row r="2728"/>
+    <row r="2729"/>
+    <row r="2730"/>
+    <row r="2731"/>
+    <row r="2732"/>
+    <row r="2733"/>
+    <row r="2734"/>
+    <row r="2735"/>
+    <row r="2736"/>
+    <row r="2737"/>
+    <row r="2738"/>
+    <row r="2739"/>
+    <row r="2740"/>
+    <row r="2741"/>
+    <row r="2742"/>
+    <row r="2743"/>
+    <row r="2744"/>
+    <row r="2745"/>
+    <row r="2746"/>
+    <row r="2747"/>
+    <row r="2748"/>
+    <row r="2749"/>
+    <row r="2750"/>
+    <row r="2751"/>
+    <row r="2752"/>
+    <row r="2753"/>
+    <row r="2754"/>
+    <row r="2755"/>
+    <row r="2756"/>
+    <row r="2757"/>
+    <row r="2758"/>
+    <row r="2759"/>
+    <row r="2760"/>
+    <row r="2761"/>
+    <row r="2762"/>
+    <row r="2763"/>
+    <row r="2764"/>
+    <row r="2765"/>
+    <row r="2766"/>
+    <row r="2767"/>
+    <row r="2768"/>
+    <row r="2769"/>
+    <row r="2770"/>
+    <row r="2771"/>
+    <row r="2772"/>
+    <row r="2773"/>
+    <row r="2774"/>
+    <row r="2775"/>
+    <row r="2776"/>
+    <row r="2777"/>
+    <row r="2778"/>
+    <row r="2779"/>
+    <row r="2780"/>
+    <row r="2781"/>
+    <row r="2782"/>
+    <row r="2783"/>
+    <row r="2784"/>
+    <row r="2785"/>
+    <row r="2786"/>
+    <row r="2787"/>
+    <row r="2788"/>
+    <row r="2789"/>
+    <row r="2790"/>
+    <row r="2791"/>
+    <row r="2792"/>
+    <row r="2793"/>
+    <row r="2794"/>
+    <row r="2795"/>
+    <row r="2796"/>
+    <row r="2797"/>
+    <row r="2798"/>
+    <row r="2799"/>
+    <row r="2800"/>
+    <row r="2801"/>
+    <row r="2802"/>
+    <row r="2803"/>
+    <row r="2804"/>
+    <row r="2805"/>
+    <row r="2806"/>
+    <row r="2807"/>
+    <row r="2808"/>
+    <row r="2809"/>
+    <row r="2810"/>
+    <row r="2811"/>
+    <row r="2812"/>
+    <row r="2813"/>
+    <row r="2814"/>
+    <row r="2815"/>
+    <row r="2816"/>
+    <row r="2817"/>
+    <row r="2818"/>
+    <row r="2819"/>
+    <row r="2820"/>
+    <row r="2821"/>
+    <row r="2822"/>
+    <row r="2823"/>
+    <row r="2824"/>
+    <row r="2825"/>
+    <row r="2826"/>
+    <row r="2827"/>
+    <row r="2828"/>
+    <row r="2829"/>
+    <row r="2830"/>
+    <row r="2831"/>
+    <row r="2832"/>
+    <row r="2833"/>
+    <row r="2834"/>
+    <row r="2835"/>
+    <row r="2836"/>
+    <row r="2837"/>
+    <row r="2838"/>
+    <row r="2839"/>
+    <row r="2840"/>
+    <row r="2841"/>
+    <row r="2842"/>
+    <row r="2843"/>
+    <row r="2844"/>
+    <row r="2845"/>
+    <row r="2846"/>
+    <row r="2847"/>
+    <row r="2848"/>
+    <row r="2849"/>
+    <row r="2850"/>
+    <row r="2851"/>
+    <row r="2852"/>
+    <row r="2853"/>
+    <row r="2854"/>
+    <row r="2855"/>
+    <row r="2856"/>
+    <row r="2857"/>
+    <row r="2858"/>
+    <row r="2859"/>
+    <row r="2860"/>
+    <row r="2861"/>
+    <row r="2862"/>
+    <row r="2863"/>
+    <row r="2864"/>
+    <row r="2865"/>
+    <row r="2866"/>
+    <row r="2867"/>
+    <row r="2868"/>
+    <row r="2869"/>
+    <row r="2870"/>
+    <row r="2871"/>
+    <row r="2872"/>
+    <row r="2873"/>
+    <row r="2874"/>
+    <row r="2875"/>
+    <row r="2876"/>
+    <row r="2877"/>
+    <row r="2878"/>
+    <row r="2879"/>
+    <row r="2880"/>
+    <row r="2881"/>
+    <row r="2882"/>
+    <row r="2883"/>
+    <row r="2884"/>
+    <row r="2885"/>
+    <row r="2886"/>
+    <row r="2887"/>
+    <row r="2888"/>
+    <row r="2889"/>
+    <row r="2890"/>
+    <row r="2891"/>
+    <row r="2892"/>
+    <row r="2893"/>
+    <row r="2894"/>
+    <row r="2895"/>
+    <row r="2896"/>
+    <row r="2897"/>
+    <row r="2898"/>
+    <row r="2899"/>
+    <row r="2900"/>
+    <row r="2901"/>
+    <row r="2902"/>
+    <row r="2903"/>
+    <row r="2904"/>
+    <row r="2905"/>
+    <row r="2906"/>
+    <row r="2907"/>
+    <row r="2908"/>
+    <row r="2909"/>
+    <row r="2910"/>
+    <row r="2911"/>
+    <row r="2912"/>
+    <row r="2913"/>
+    <row r="2914"/>
+    <row r="2915"/>
+    <row r="2916"/>
+    <row r="2917"/>
+    <row r="2918"/>
+    <row r="2919"/>
+    <row r="2920"/>
+    <row r="2921"/>
+    <row r="2922"/>
+    <row r="2923"/>
+    <row r="2924"/>
+    <row r="2925"/>
+    <row r="2926"/>
+    <row r="2927"/>
+    <row r="2928"/>
+    <row r="2929"/>
+    <row r="2930"/>
+    <row r="2931"/>
+    <row r="2932"/>
+    <row r="2933"/>
+    <row r="2934"/>
+    <row r="2935"/>
+    <row r="2936"/>
+    <row r="2937"/>
+    <row r="2938"/>
+    <row r="2939"/>
+    <row r="2940"/>
+    <row r="2941"/>
+    <row r="2942"/>
+    <row r="2943"/>
+    <row r="2944"/>
+    <row r="2945"/>
+    <row r="2946"/>
+    <row r="2947"/>
+    <row r="2948"/>
+    <row r="2949"/>
+    <row r="2950"/>
+    <row r="2951"/>
+    <row r="2952"/>
+    <row r="2953"/>
+    <row r="2954"/>
+    <row r="2955"/>
+    <row r="2956"/>
+    <row r="2957"/>
+    <row r="2958"/>
+    <row r="2959"/>
+    <row r="2960"/>
+    <row r="2961"/>
+    <row r="2962"/>
+    <row r="2963"/>
+    <row r="2964"/>
+    <row r="2965"/>
+    <row r="2966"/>
+    <row r="2967"/>
+    <row r="2968"/>
+    <row r="2969"/>
+    <row r="2970"/>
+    <row r="2971"/>
+    <row r="2972"/>
+    <row r="2973"/>
+    <row r="2974"/>
+    <row r="2975"/>
+    <row r="2976"/>
+    <row r="2977"/>
+    <row r="2978"/>
+    <row r="2979"/>
+    <row r="2980"/>
+    <row r="2981"/>
+    <row r="2982"/>
+    <row r="2983"/>
+    <row r="2984"/>
+    <row r="2985"/>
+    <row r="2986"/>
+    <row r="2987"/>
+    <row r="2988"/>
+    <row r="2989"/>
+    <row r="2990"/>
+    <row r="2991"/>
+    <row r="2992"/>
+    <row r="2993"/>
+    <row r="2994"/>
+    <row r="2995"/>
+    <row r="2996"/>
+    <row r="2997"/>
+    <row r="2998"/>
+    <row r="2999"/>
+    <row r="3000"/>
+    <row r="3001"/>
+    <row r="3002"/>
+    <row r="3003"/>
+    <row r="3004"/>
+    <row r="3005"/>
+    <row r="3006"/>
+    <row r="3007"/>
+    <row r="3008"/>
+    <row r="3009"/>
+    <row r="3010"/>
+    <row r="3011"/>
+    <row r="3012"/>
+    <row r="3013"/>
+    <row r="3014"/>
+    <row r="3015"/>
+    <row r="3016"/>
+    <row r="3017"/>
+    <row r="3018"/>
+    <row r="3019"/>
+    <row r="3020"/>
+    <row r="3021"/>
+    <row r="3022"/>
+    <row r="3023"/>
+    <row r="3024"/>
+    <row r="3025"/>
+    <row r="3026"/>
+    <row r="3027"/>
+    <row r="3028"/>
+    <row r="3029"/>
+    <row r="3030"/>
+    <row r="3031"/>
+    <row r="3032"/>
+    <row r="3033"/>
+    <row r="3034"/>
+    <row r="3035"/>
+    <row r="3036"/>
+    <row r="3037"/>
+    <row r="3038"/>
+    <row r="3039"/>
+    <row r="3040"/>
+    <row r="3041"/>
+    <row r="3042"/>
+    <row r="3043"/>
+    <row r="3044"/>
+    <row r="3045"/>
+    <row r="3046"/>
+    <row r="3047"/>
+    <row r="3048"/>
+    <row r="3049"/>
+    <row r="3050"/>
+    <row r="3051"/>
+    <row r="3052"/>
+    <row r="3053"/>
+    <row r="3054"/>
+    <row r="3055"/>
+    <row r="3056"/>
+    <row r="3057"/>
+    <row r="3058"/>
+    <row r="3059"/>
+    <row r="3060"/>
+    <row r="3061"/>
+    <row r="3062"/>
+    <row r="3063"/>
+    <row r="3064"/>
+    <row r="3065"/>
+    <row r="3066"/>
+    <row r="3067"/>
+    <row r="3068"/>
+    <row r="3069"/>
+    <row r="3070"/>
+    <row r="3071"/>
+    <row r="3072"/>
+    <row r="3073"/>
+    <row r="3074"/>
+    <row r="3075"/>
+    <row r="3076"/>
+    <row r="3077"/>
+    <row r="3078"/>
+    <row r="3079"/>
+    <row r="3080"/>
+    <row r="3081"/>
+    <row r="3082"/>
+    <row r="3083"/>
+    <row r="3084"/>
+    <row r="3085"/>
+    <row r="3086"/>
+    <row r="3087"/>
+    <row r="3088"/>
+    <row r="3089"/>
+    <row r="3090"/>
+    <row r="3091"/>
+    <row r="3092"/>
+    <row r="3093"/>
+    <row r="3094"/>
+    <row r="3095"/>
+    <row r="3096"/>
+    <row r="3097"/>
+    <row r="3098"/>
+    <row r="3099"/>
+    <row r="3100"/>
+    <row r="3101"/>
+    <row r="3102"/>
+    <row r="3103"/>
+    <row r="3104"/>
+    <row r="3105"/>
+    <row r="3106"/>
+    <row r="3107"/>
+    <row r="3108"/>
+    <row r="3109"/>
+    <row r="3110"/>
+    <row r="3111"/>
+    <row r="3112"/>
+    <row r="3113"/>
+    <row r="3114"/>
+    <row r="3115"/>
+    <row r="3116"/>
+    <row r="3117"/>
+    <row r="3118"/>
+    <row r="3119"/>
+    <row r="3120"/>
+    <row r="3121"/>
+    <row r="3122"/>
+    <row r="3123"/>
+    <row r="3124"/>
+    <row r="3125"/>
+    <row r="3126"/>
+    <row r="3127"/>
+    <row r="3128"/>
+    <row r="3129"/>
+    <row r="3130"/>
+    <row r="3131"/>
+    <row r="3132"/>
+    <row r="3133"/>
+    <row r="3134"/>
+    <row r="3135"/>
+    <row r="3136"/>
+    <row r="3137"/>
+    <row r="3138"/>
+    <row r="3139"/>
+    <row r="3140"/>
+    <row r="3141"/>
+    <row r="3142"/>
+    <row r="3143"/>
+    <row r="3144"/>
+    <row r="3145"/>
+    <row r="3146"/>
+    <row r="3147"/>
+    <row r="3148"/>
+    <row r="3149"/>
+    <row r="3150"/>
+    <row r="3151"/>
+    <row r="3152"/>
+    <row r="3153"/>
+    <row r="3154"/>
+    <row r="3155"/>
+    <row r="3156"/>
+    <row r="3157"/>
+    <row r="3158"/>
+    <row r="3159"/>
+    <row r="3160"/>
+    <row r="3161"/>
+    <row r="3162"/>
+    <row r="3163"/>
+    <row r="3164"/>
+    <row r="3165"/>
+    <row r="3166"/>
+    <row r="3167"/>
+    <row r="3168"/>
+    <row r="3169"/>
+    <row r="3170"/>
+    <row r="3171"/>
+    <row r="3172"/>
+    <row r="3173"/>
+    <row r="3174"/>
+    <row r="3175"/>
+    <row r="3176"/>
+    <row r="3177"/>
+    <row r="3178"/>
+    <row r="3179"/>
+    <row r="3180"/>
+    <row r="3181"/>
+    <row r="3182"/>
+    <row r="3183"/>
+    <row r="3184"/>
+    <row r="3185"/>
+    <row r="3186"/>
+    <row r="3187"/>
+    <row r="3188"/>
+    <row r="3189"/>
+    <row r="3190"/>
+    <row r="3191"/>
+    <row r="3192"/>
+    <row r="3193"/>
+    <row r="3194"/>
+    <row r="3195"/>
+    <row r="3196"/>
+    <row r="3197"/>
+    <row r="3198"/>
+    <row r="3199"/>
+    <row r="3200"/>
+    <row r="3201"/>
+    <row r="3202"/>
+    <row r="3203"/>
+    <row r="3204"/>
+    <row r="3205"/>
+    <row r="3206"/>
+    <row r="3207"/>
+    <row r="3208"/>
+    <row r="3209"/>
+    <row r="3210"/>
+    <row r="3211"/>
+    <row r="3212"/>
+    <row r="3213"/>
+    <row r="3214"/>
+    <row r="3215"/>
+    <row r="3216"/>
+    <row r="3217"/>
+    <row r="3218"/>
+    <row r="3219"/>
+    <row r="3220"/>
+    <row r="3221"/>
+    <row r="3222"/>
+    <row r="3223"/>
+    <row r="3224"/>
+    <row r="3225"/>
+    <row r="3226"/>
+    <row r="3227"/>
+    <row r="3228"/>
+    <row r="3229"/>
+    <row r="3230"/>
+    <row r="3231"/>
+    <row r="3232"/>
+    <row r="3233"/>
+    <row r="3234"/>
+    <row r="3235"/>
+    <row r="3236"/>
+    <row r="3237"/>
+    <row r="3238"/>
+    <row r="3239"/>
+    <row r="3240"/>
+    <row r="3241"/>
+    <row r="3242"/>
+    <row r="3243"/>
+    <row r="3244"/>
+    <row r="3245"/>
+    <row r="3246"/>
+    <row r="3247"/>
+    <row r="3248"/>
+    <row r="3249"/>
+    <row r="3250"/>
+    <row r="3251"/>
+    <row r="3252"/>
+    <row r="3253"/>
+    <row r="3254"/>
+    <row r="3255"/>
+    <row r="3256"/>
+    <row r="3257"/>
+    <row r="3258"/>
+    <row r="3259"/>
+    <row r="3260"/>
+    <row r="3261"/>
+    <row r="3262"/>
+    <row r="3263"/>
+    <row r="3264"/>
+    <row r="3265"/>
+    <row r="3266"/>
+    <row r="3267"/>
+    <row r="3268"/>
+    <row r="3269"/>
+    <row r="3270"/>
+    <row r="3271"/>
+    <row r="3272"/>
+    <row r="3273"/>
+    <row r="3274"/>
+    <row r="3275"/>
+    <row r="3276"/>
+    <row r="3277"/>
+    <row r="3278"/>
+    <row r="3279"/>
+    <row r="3280"/>
+    <row r="3281"/>
+    <row r="3282"/>
+    <row r="3283"/>
+    <row r="3284"/>
+    <row r="3285"/>
+    <row r="3286"/>
+    <row r="3287"/>
+    <row r="3288"/>
+    <row r="3289"/>
+    <row r="3290"/>
+    <row r="3291"/>
+    <row r="3292"/>
+    <row r="3293"/>
+    <row r="3294"/>
+    <row r="3295"/>
+    <row r="3296"/>
+    <row r="3297"/>
+    <row r="3298"/>
+    <row r="3299"/>
+    <row r="3300"/>
+    <row r="3301"/>
+    <row r="3302"/>
+    <row r="3303"/>
+    <row r="3304"/>
+    <row r="3305"/>
+    <row r="3306"/>
+    <row r="3307"/>
+    <row r="3308"/>
+    <row r="3309"/>
+    <row r="3310"/>
+    <row r="3311"/>
+    <row r="3312"/>
+    <row r="3313"/>
+    <row r="3314"/>
+    <row r="3315"/>
+    <row r="3316"/>
+    <row r="3317"/>
+    <row r="3318"/>
+    <row r="3319"/>
+    <row r="3320"/>
+    <row r="3321"/>
+    <row r="3322"/>
+    <row r="3323"/>
+    <row r="3324"/>
+    <row r="3325"/>
+    <row r="3326"/>
+    <row r="3327"/>
+    <row r="3328"/>
+    <row r="3329"/>
+    <row r="3330"/>
+    <row r="3331"/>
+    <row r="3332"/>
+    <row r="3333"/>
+    <row r="3334"/>
+    <row r="3335"/>
+    <row r="3336"/>
+    <row r="3337"/>
+    <row r="3338"/>
+    <row r="3339"/>
+    <row r="3340"/>
+    <row r="3341"/>
+    <row r="3342"/>
+    <row r="3343"/>
+    <row r="3344"/>
+    <row r="3345"/>
+    <row r="3346"/>
+    <row r="3347"/>
+    <row r="3348"/>
+    <row r="3349"/>
+    <row r="3350"/>
+    <row r="3351"/>
+    <row r="3352"/>
+    <row r="3353"/>
+    <row r="3354"/>
+    <row r="3355"/>
+    <row r="3356"/>
+    <row r="3357"/>
+    <row r="3358"/>
+    <row r="3359"/>
+    <row r="3360"/>
+    <row r="3361"/>
+    <row r="3362"/>
+    <row r="3363"/>
+    <row r="3364"/>
+    <row r="3365"/>
+    <row r="3366"/>
+    <row r="3367"/>
+    <row r="3368"/>
+    <row r="3369"/>
+    <row r="3370"/>
+    <row r="3371"/>
+    <row r="3372"/>
+    <row r="3373"/>
+    <row r="3374"/>
+    <row r="3375"/>
+    <row r="3376"/>
+    <row r="3377"/>
+    <row r="3378"/>
+    <row r="3379"/>
+    <row r="3380"/>
+    <row r="3381"/>
+    <row r="3382"/>
+    <row r="3383"/>
+    <row r="3384"/>
+    <row r="3385"/>
+    <row r="3386"/>
+    <row r="3387"/>
+    <row r="3388"/>
+    <row r="3389"/>
+    <row r="3390"/>
+    <row r="3391"/>
+    <row r="3392"/>
+    <row r="3393"/>
+    <row r="3394"/>
+    <row r="3395"/>
+    <row r="3396"/>
+    <row r="3397"/>
+    <row r="3398"/>
+    <row r="3399"/>
+    <row r="3400"/>
+    <row r="3401"/>
+    <row r="3402"/>
+    <row r="3403"/>
+    <row r="3404"/>
+    <row r="3405"/>
+    <row r="3406"/>
+    <row r="3407"/>
+    <row r="3408"/>
+    <row r="3409"/>
+    <row r="3410"/>
+    <row r="3411"/>
+    <row r="3412"/>
+    <row r="3413"/>
+    <row r="3414"/>
+    <row r="3415"/>
+    <row r="3416"/>
+    <row r="3417"/>
+    <row r="3418"/>
+    <row r="3419"/>
+    <row r="3420"/>
+    <row r="3421"/>
+    <row r="3422"/>
+    <row r="3423"/>
+    <row r="3424"/>
+    <row r="3425"/>
+    <row r="3426"/>
+    <row r="3427"/>
+    <row r="3428"/>
+    <row r="3429"/>
+    <row r="3430"/>
+    <row r="3431"/>
+    <row r="3432"/>
+    <row r="3433"/>
+    <row r="3434"/>
+    <row r="3435"/>
+    <row r="3436"/>
+    <row r="3437"/>
+    <row r="3438"/>
+    <row r="3439"/>
+    <row r="3440"/>
+    <row r="3441"/>
+    <row r="3442"/>
+    <row r="3443"/>
+    <row r="3444"/>
+    <row r="3445"/>
+    <row r="3446"/>
+    <row r="3447"/>
+    <row r="3448"/>
+    <row r="3449"/>
+    <row r="3450"/>
+    <row r="3451"/>
+    <row r="3452"/>
+    <row r="3453"/>
+    <row r="3454"/>
+    <row r="3455"/>
+    <row r="3456"/>
+    <row r="3457"/>
+    <row r="3458"/>
+    <row r="3459"/>
+    <row r="3460"/>
+    <row r="3461"/>
+    <row r="3462"/>
+    <row r="3463"/>
+    <row r="3464"/>
+    <row r="3465"/>
+    <row r="3466"/>
+    <row r="3467"/>
+    <row r="3468"/>
+    <row r="3469"/>
+    <row r="3470"/>
+    <row r="3471"/>
+    <row r="3472"/>
+    <row r="3473"/>
+    <row r="3474"/>
+    <row r="3475"/>
+    <row r="3476"/>
+    <row r="3477"/>
+    <row r="3478"/>
+    <row r="3479"/>
+    <row r="3480"/>
+    <row r="3481"/>
+    <row r="3482"/>
+    <row r="3483"/>
+    <row r="3484"/>
+    <row r="3485"/>
+    <row r="3486"/>
+    <row r="3487"/>
+    <row r="3488"/>
+    <row r="3489"/>
+    <row r="3490"/>
+    <row r="3491"/>
+    <row r="3492"/>
+    <row r="3493"/>
+    <row r="3494"/>
+    <row r="3495"/>
+    <row r="3496"/>
+    <row r="3497"/>
+    <row r="3498"/>
+    <row r="3499"/>
+    <row r="3500"/>
+    <row r="3501"/>
+    <row r="3502"/>
+    <row r="3503"/>
+    <row r="3504"/>
+    <row r="3505"/>
+    <row r="3506"/>
+    <row r="3507"/>
+    <row r="3508"/>
+    <row r="3509"/>
+    <row r="3510"/>
+    <row r="3511"/>
+    <row r="3512"/>
+    <row r="3513"/>
+    <row r="3514"/>
+    <row r="3515"/>
+    <row r="3516"/>
+    <row r="3517"/>
+    <row r="3518"/>
+    <row r="3519"/>
+    <row r="3520"/>
+    <row r="3521"/>
+    <row r="3522"/>
+    <row r="3523"/>
+    <row r="3524"/>
+    <row r="3525"/>
+    <row r="3526"/>
+    <row r="3527"/>
+    <row r="3528"/>
+    <row r="3529"/>
+    <row r="3530"/>
+    <row r="3531"/>
+    <row r="3532"/>
+    <row r="3533"/>
+    <row r="3534"/>
+    <row r="3535"/>
+    <row r="3536"/>
+    <row r="3537"/>
+    <row r="3538"/>
+    <row r="3539"/>
+    <row r="3540"/>
+    <row r="3541"/>
+    <row r="3542"/>
+    <row r="3543"/>
+    <row r="3544"/>
+    <row r="3545"/>
+    <row r="3546"/>
+    <row r="3547"/>
+    <row r="3548"/>
+    <row r="3549"/>
+    <row r="3550"/>
+    <row r="3551"/>
+    <row r="3552"/>
+    <row r="3553"/>
+    <row r="3554"/>
+    <row r="3555"/>
+    <row r="3556"/>
+    <row r="3557"/>
+    <row r="3558"/>
+    <row r="3559"/>
+    <row r="3560"/>
+    <row r="3561"/>
+    <row r="3562"/>
+    <row r="3563"/>
+    <row r="3564"/>
+    <row r="3565"/>
+    <row r="3566"/>
+    <row r="3567"/>
+    <row r="3568"/>
+    <row r="3569"/>
+    <row r="3570"/>
+    <row r="3571"/>
+    <row r="3572"/>
+    <row r="3573"/>
+    <row r="3574"/>
+    <row r="3575"/>
+    <row r="3576"/>
+    <row r="3577"/>
+    <row r="3578"/>
+    <row r="3579"/>
+    <row r="3580"/>
+    <row r="3581"/>
+    <row r="3582"/>
+    <row r="3583"/>
+    <row r="3584"/>
+    <row r="3585"/>
+    <row r="3586"/>
+    <row r="3587"/>
+    <row r="3588"/>
+    <row r="3589"/>
+    <row r="3590"/>
+    <row r="3591"/>
+    <row r="3592"/>
+    <row r="3593"/>
+    <row r="3594"/>
+    <row r="3595"/>
+    <row r="3596"/>
+    <row r="3597"/>
+    <row r="3598"/>
+    <row r="3599"/>
+    <row r="3600"/>
+    <row r="3601"/>
+    <row r="3602"/>
+    <row r="3603"/>
+    <row r="3604"/>
+    <row r="3605"/>
+    <row r="3606"/>
+    <row r="3607"/>
+    <row r="3608"/>
+    <row r="3609"/>
+    <row r="3610"/>
+    <row r="3611"/>
+    <row r="3612"/>
+    <row r="3613"/>
+    <row r="3614"/>
+    <row r="3615"/>
+    <row r="3616"/>
+    <row r="3617"/>
+    <row r="3618"/>
+    <row r="3619"/>
+    <row r="3620"/>
+    <row r="3621"/>
+    <row r="3622"/>
+    <row r="3623"/>
+    <row r="3624"/>
+    <row r="3625"/>
+    <row r="3626"/>
+    <row r="3627"/>
+    <row r="3628"/>
+    <row r="3629"/>
+    <row r="3630"/>
+    <row r="3631"/>
+    <row r="3632"/>
+    <row r="3633"/>
+    <row r="3634"/>
+    <row r="3635"/>
+    <row r="3636"/>
+    <row r="3637"/>
+    <row r="3638"/>
+    <row r="3639"/>
+    <row r="3640"/>
+    <row r="3641"/>
+    <row r="3642"/>
+    <row r="3643"/>
+    <row r="3644"/>
+    <row r="3645"/>
+    <row r="3646"/>
+    <row r="3647"/>
+    <row r="3648"/>
+    <row r="3649"/>
+    <row r="3650"/>
+    <row r="3651"/>
+    <row r="3652"/>
+    <row r="3653"/>
+    <row r="3654"/>
+    <row r="3655"/>
+    <row r="3656"/>
+    <row r="3657"/>
+    <row r="3658"/>
+    <row r="3659"/>
+    <row r="3660"/>
+    <row r="3661"/>
+    <row r="3662"/>
+    <row r="3663"/>
+    <row r="3664"/>
+    <row r="3665"/>
+    <row r="3666"/>
+    <row r="3667"/>
+    <row r="3668"/>
+    <row r="3669"/>
+    <row r="3670"/>
+    <row r="3671"/>
+    <row r="3672"/>
+    <row r="3673"/>
+    <row r="3674"/>
+    <row r="3675"/>
+    <row r="3676"/>
+    <row r="3677"/>
+    <row r="3678"/>
+    <row r="3679"/>
+    <row r="3680"/>
+    <row r="3681"/>
+    <row r="3682"/>
+    <row r="3683"/>
+    <row r="3684"/>
+    <row r="3685"/>
+    <row r="3686"/>
+    <row r="3687"/>
+    <row r="3688"/>
+    <row r="3689"/>
+    <row r="3690"/>
+    <row r="3691"/>
+    <row r="3692"/>
+    <row r="3693"/>
+    <row r="3694"/>
+    <row r="3695"/>
+    <row r="3696"/>
+    <row r="3697"/>
+    <row r="3698"/>
+    <row r="3699"/>
+    <row r="3700"/>
+    <row r="3701"/>
+    <row r="3702"/>
+    <row r="3703"/>
+    <row r="3704"/>
+    <row r="3705"/>
+    <row r="3706"/>
+    <row r="3707"/>
+    <row r="3708"/>
+    <row r="3709"/>
+    <row r="3710"/>
+    <row r="3711"/>
+    <row r="3712"/>
+    <row r="3713"/>
+    <row r="3714"/>
+    <row r="3715"/>
+    <row r="3716"/>
+    <row r="3717"/>
+    <row r="3718"/>
+    <row r="3719"/>
+    <row r="3720"/>
+    <row r="3721"/>
+    <row r="3722"/>
+    <row r="3723"/>
+    <row r="3724"/>
+    <row r="3725"/>
+    <row r="3726"/>
+    <row r="3727"/>
+    <row r="3728"/>
+    <row r="3729"/>
+    <row r="3730"/>
+    <row r="3731"/>
+    <row r="3732"/>
+    <row r="3733"/>
+    <row r="3734"/>
+    <row r="3735"/>
+    <row r="3736"/>
+    <row r="3737"/>
+    <row r="3738"/>
+    <row r="3739"/>
+    <row r="3740"/>
+    <row r="3741"/>
+    <row r="3742"/>
+    <row r="3743"/>
+    <row r="3744"/>
+    <row r="3745"/>
+    <row r="3746"/>
+    <row r="3747"/>
+    <row r="3748"/>
+    <row r="3749"/>
+    <row r="3750"/>
+    <row r="3751"/>
+    <row r="3752"/>
+    <row r="3753"/>
+    <row r="3754"/>
+    <row r="3755"/>
+    <row r="3756"/>
+    <row r="3757"/>
+    <row r="3758"/>
+    <row r="3759"/>
+    <row r="3760"/>
+    <row r="3761"/>
+    <row r="3762"/>
+    <row r="3763"/>
+    <row r="3764"/>
+    <row r="3765"/>
+    <row r="3766"/>
+    <row r="3767"/>
+    <row r="3768"/>
+    <row r="3769"/>
+    <row r="3770"/>
+    <row r="3771"/>
+    <row r="3772"/>
+    <row r="3773"/>
+    <row r="3774"/>
+    <row r="3775"/>
+    <row r="3776"/>
+    <row r="3777"/>
+    <row r="3778"/>
+    <row r="3779"/>
+    <row r="3780"/>
+    <row r="3781"/>
+    <row r="3782"/>
+    <row r="3783"/>
+    <row r="3784"/>
+    <row r="3785"/>
+    <row r="3786"/>
+    <row r="3787"/>
+    <row r="3788"/>
+    <row r="3789"/>
+    <row r="3790"/>
+    <row r="3791"/>
+    <row r="3792"/>
+    <row r="3793"/>
+    <row r="3794"/>
+    <row r="3795"/>
+    <row r="3796"/>
+    <row r="3797"/>
+    <row r="3798"/>
+    <row r="3799"/>
+    <row r="3800"/>
+    <row r="3801"/>
+    <row r="3802"/>
+    <row r="3803"/>
+    <row r="3804"/>
+    <row r="3805"/>
+    <row r="3806"/>
+    <row r="3807"/>
+    <row r="3808"/>
+    <row r="3809"/>
+    <row r="3810"/>
+    <row r="3811"/>
+    <row r="3812"/>
+    <row r="3813"/>
+    <row r="3814"/>
+    <row r="3815"/>
+    <row r="3816"/>
+    <row r="3817"/>
+    <row r="3818"/>
+    <row r="3819"/>
+    <row r="3820"/>
+    <row r="3821"/>
+    <row r="3822"/>
+    <row r="3823"/>
+    <row r="3824"/>
+    <row r="3825"/>
+    <row r="3826"/>
+    <row r="3827"/>
+    <row r="3828"/>
+    <row r="3829"/>
+    <row r="3830"/>
+    <row r="3831"/>
+    <row r="3832"/>
+    <row r="3833"/>
+    <row r="3834"/>
+    <row r="3835"/>
+    <row r="3836"/>
+    <row r="3837"/>
+    <row r="3838"/>
+    <row r="3839"/>
+    <row r="3840"/>
+    <row r="3841"/>
+    <row r="3842"/>
+    <row r="3843"/>
+    <row r="3844"/>
+    <row r="3845"/>
+    <row r="3846"/>
+    <row r="3847"/>
+    <row r="3848"/>
+    <row r="3849"/>
+    <row r="3850"/>
+    <row r="3851"/>
+    <row r="3852"/>
+    <row r="3853"/>
+    <row r="3854"/>
+    <row r="3855"/>
+    <row r="3856"/>
+    <row r="3857"/>
+    <row r="3858"/>
+    <row r="3859"/>
+    <row r="3860"/>
+    <row r="3861"/>
+    <row r="3862"/>
+    <row r="3863"/>
+    <row r="3864"/>
+    <row r="3865"/>
+    <row r="3866"/>
+    <row r="3867"/>
+    <row r="3868"/>
+    <row r="3869"/>
+    <row r="3870"/>
+    <row r="3871"/>
+    <row r="3872"/>
+    <row r="3873"/>
+    <row r="3874"/>
+    <row r="3875"/>
+    <row r="3876"/>
+    <row r="3877"/>
+    <row r="3878"/>
+    <row r="3879"/>
+    <row r="3880"/>
+    <row r="3881"/>
+    <row r="3882"/>
+    <row r="3883"/>
+    <row r="3884"/>
+    <row r="3885"/>
+    <row r="3886"/>
+    <row r="3887"/>
+    <row r="3888"/>
+    <row r="3889"/>
+    <row r="3890"/>
+    <row r="3891"/>
+    <row r="3892"/>
+    <row r="3893"/>
+    <row r="3894"/>
+    <row r="3895"/>
+    <row r="3896"/>
+    <row r="3897"/>
+    <row r="3898"/>
+    <row r="3899"/>
+    <row r="3900"/>
+    <row r="3901"/>
+    <row r="3902"/>
+    <row r="3903"/>
+    <row r="3904"/>
+    <row r="3905"/>
+    <row r="3906"/>
+    <row r="3907"/>
+    <row r="3908"/>
+    <row r="3909"/>
+    <row r="3910"/>
+    <row r="3911"/>
+    <row r="3912"/>
+    <row r="3913"/>
+    <row r="3914"/>
+    <row r="3915"/>
+    <row r="3916"/>
+    <row r="3917"/>
+    <row r="3918"/>
+    <row r="3919"/>
+    <row r="3920"/>
+    <row r="3921"/>
+    <row r="3922"/>
+    <row r="3923"/>
+    <row r="3924"/>
+    <row r="3925"/>
+    <row r="3926"/>
+    <row r="3927"/>
+    <row r="3928"/>
+    <row r="3929"/>
+    <row r="3930"/>
+    <row r="3931"/>
+    <row r="3932"/>
+    <row r="3933"/>
+    <row r="3934"/>
+    <row r="3935"/>
+    <row r="3936"/>
+    <row r="3937"/>
+    <row r="3938"/>
+    <row r="3939"/>
+    <row r="3940"/>
+    <row r="3941"/>
+    <row r="3942"/>
+    <row r="3943"/>
+    <row r="3944"/>
+    <row r="3945"/>
+    <row r="3946"/>
+    <row r="3947"/>
+    <row r="3948"/>
+    <row r="3949"/>
+    <row r="3950"/>
+    <row r="3951"/>
+    <row r="3952"/>
+    <row r="3953"/>
+    <row r="3954"/>
+    <row r="3955"/>
+    <row r="3956"/>
+    <row r="3957"/>
+    <row r="3958"/>
+    <row r="3959"/>
+    <row r="3960"/>
+    <row r="3961"/>
+    <row r="3962"/>
+    <row r="3963"/>
+    <row r="3964"/>
+    <row r="3965"/>
+    <row r="3966"/>
+    <row r="3967"/>
+    <row r="3968"/>
+    <row r="3969"/>
+    <row r="3970"/>
+    <row r="3971"/>
+    <row r="3972"/>
+    <row r="3973"/>
+    <row r="3974"/>
+    <row r="3975"/>
+    <row r="3976"/>
+    <row r="3977"/>
+    <row r="3978"/>
+    <row r="3979"/>
+    <row r="3980"/>
+    <row r="3981"/>
+    <row r="3982"/>
+    <row r="3983"/>
+    <row r="3984"/>
+    <row r="3985"/>
+    <row r="3986"/>
+    <row r="3987"/>
+    <row r="3988"/>
+    <row r="3989"/>
+    <row r="3990"/>
+    <row r="3991"/>
+    <row r="3992"/>
+    <row r="3993"/>
+    <row r="3994"/>
+    <row r="3995"/>
+    <row r="3996"/>
+    <row r="3997"/>
+    <row r="3998"/>
+    <row r="3999"/>
+    <row r="4000"/>
+    <row r="4001"/>
+    <row r="4002"/>
+    <row r="4003"/>
+    <row r="4004"/>
+    <row r="4005"/>
+    <row r="4006"/>
+    <row r="4007"/>
+    <row r="4008"/>
+    <row r="4009"/>
+    <row r="4010"/>
+    <row r="4011"/>
+    <row r="4012"/>
+    <row r="4013"/>
+    <row r="4014"/>
+    <row r="4015"/>
+    <row r="4016"/>
+    <row r="4017"/>
+    <row r="4018"/>
+    <row r="4019"/>
+    <row r="4020"/>
+    <row r="4021"/>
+    <row r="4022"/>
+    <row r="4023"/>
+    <row r="4024"/>
+    <row r="4025"/>
+    <row r="4026"/>
+    <row r="4027"/>
+    <row r="4028"/>
+    <row r="4029"/>
+    <row r="4030"/>
+    <row r="4031"/>
+    <row r="4032"/>
+    <row r="4033"/>
+    <row r="4034"/>
+    <row r="4035"/>
+    <row r="4036"/>
+    <row r="4037"/>
+    <row r="4038"/>
+    <row r="4039"/>
+    <row r="4040"/>
+    <row r="4041"/>
+    <row r="4042"/>
+    <row r="4043"/>
+    <row r="4044"/>
+    <row r="4045"/>
+    <row r="4046"/>
+    <row r="4047"/>
+    <row r="4048"/>
+    <row r="4049"/>
+    <row r="4050"/>
+    <row r="4051"/>
+    <row r="4052"/>
+    <row r="4053"/>
+    <row r="4054"/>
+    <row r="4055"/>
+    <row r="4056"/>
+    <row r="4057"/>
+    <row r="4058"/>
+    <row r="4059"/>
+    <row r="4060"/>
+    <row r="4061"/>
+    <row r="4062"/>
+    <row r="4063"/>
+    <row r="4064"/>
+    <row r="4065"/>
+    <row r="4066"/>
+    <row r="4067"/>
+    <row r="4068"/>
+    <row r="4069"/>
+    <row r="4070"/>
+    <row r="4071"/>
+    <row r="4072"/>
+    <row r="4073"/>
+    <row r="4074"/>
+    <row r="4075"/>
+    <row r="4076"/>
+    <row r="4077"/>
+    <row r="4078"/>
+    <row r="4079"/>
+    <row r="4080"/>
+    <row r="4081"/>
+    <row r="4082"/>
+    <row r="4083"/>
+    <row r="4084"/>
+    <row r="4085"/>
+    <row r="4086"/>
+    <row r="4087"/>
+    <row r="4088"/>
+    <row r="4089"/>
+    <row r="4090"/>
+    <row r="4091"/>
+    <row r="4092"/>
+    <row r="4093"/>
+    <row r="4094"/>
+    <row r="4095"/>
+    <row r="4096"/>
+    <row r="4097"/>
+    <row r="4098"/>
+    <row r="4099"/>
+    <row r="4100"/>
+    <row r="4101"/>
+    <row r="4102"/>
+    <row r="4103"/>
+    <row r="4104"/>
+    <row r="4105"/>
+    <row r="4106"/>
+    <row r="4107"/>
+    <row r="4108"/>
+    <row r="4109"/>
+    <row r="4110"/>
+    <row r="4111"/>
+    <row r="4112"/>
+    <row r="4113"/>
+    <row r="4114"/>
+    <row r="4115"/>
+    <row r="4116"/>
+    <row r="4117"/>
+    <row r="4118"/>
+    <row r="4119"/>
+    <row r="4120"/>
+    <row r="4121"/>
+    <row r="4122"/>
+    <row r="4123"/>
+    <row r="4124"/>
+    <row r="4125"/>
+    <row r="4126"/>
+    <row r="4127"/>
+    <row r="4128"/>
+    <row r="4129"/>
+    <row r="4130"/>
+    <row r="4131"/>
+    <row r="4132"/>
+    <row r="4133"/>
+    <row r="4134"/>
+    <row r="4135"/>
+    <row r="4136"/>
+    <row r="4137"/>
+    <row r="4138"/>
+    <row r="4139"/>
+    <row r="4140"/>
+    <row r="4141"/>
+    <row r="4142"/>
+    <row r="4143"/>
+    <row r="4144"/>
+    <row r="4145"/>
+    <row r="4146"/>
+    <row r="4147"/>
+    <row r="4148"/>
+    <row r="4149"/>
+    <row r="4150"/>
+    <row r="4151"/>
+    <row r="4152"/>
+    <row r="4153"/>
+    <row r="4154"/>
+    <row r="4155"/>
+    <row r="4156"/>
+    <row r="4157"/>
+    <row r="4158"/>
+    <row r="4159"/>
+    <row r="4160"/>
+    <row r="4161"/>
+    <row r="4162"/>
+    <row r="4163"/>
+    <row r="4164"/>
+    <row r="4165"/>
+    <row r="4166"/>
+    <row r="4167"/>
+    <row r="4168"/>
+    <row r="4169"/>
+    <row r="4170"/>
+    <row r="4171"/>
+    <row r="4172"/>
+    <row r="4173"/>
+    <row r="4174"/>
+    <row r="4175"/>
+    <row r="4176"/>
+    <row r="4177"/>
+    <row r="4178"/>
+    <row r="4179"/>
+    <row r="4180"/>
+    <row r="4181"/>
+    <row r="4182"/>
+    <row r="4183"/>
+    <row r="4184"/>
+    <row r="4185"/>
+    <row r="4186"/>
+    <row r="4187"/>
+    <row r="4188"/>
+    <row r="4189"/>
+    <row r="4190"/>
+    <row r="4191"/>
+    <row r="4192"/>
+    <row r="4193"/>
+    <row r="4194"/>
+    <row r="4195"/>
+    <row r="4196"/>
+    <row r="4197"/>
+    <row r="4198"/>
+    <row r="4199"/>
+    <row r="4200"/>
+    <row r="4201"/>
+    <row r="4202"/>
+    <row r="4203"/>
+    <row r="4204"/>
+    <row r="4205"/>
+    <row r="4206"/>
+    <row r="4207"/>
+    <row r="4208"/>
+    <row r="4209"/>
+    <row r="4210"/>
+    <row r="4211"/>
+    <row r="4212"/>
+    <row r="4213"/>
+    <row r="4214"/>
+    <row r="4215"/>
+    <row r="4216"/>
+    <row r="4217"/>
+    <row r="4218"/>
+    <row r="4219"/>
+    <row r="4220"/>
+    <row r="4221"/>
+    <row r="4222"/>
+    <row r="4223"/>
+    <row r="4224"/>
+    <row r="4225"/>
+    <row r="4226"/>
+    <row r="4227"/>
+    <row r="4228"/>
+    <row r="4229"/>
+    <row r="4230"/>
+    <row r="4231"/>
+    <row r="4232"/>
+    <row r="4233"/>
+    <row r="4234"/>
+    <row r="4235"/>
+    <row r="4236"/>
+    <row r="4237"/>
+    <row r="4238"/>
+    <row r="4239"/>
+    <row r="4240"/>
+    <row r="4241"/>
+    <row r="4242"/>
+    <row r="4243"/>
+    <row r="4244"/>
+    <row r="4245"/>
+    <row r="4246"/>
+    <row r="4247"/>
+    <row r="4248"/>
+    <row r="4249"/>
+    <row r="4250"/>
+    <row r="4251"/>
+    <row r="4252"/>
+    <row r="4253"/>
+    <row r="4254"/>
+    <row r="4255"/>
+    <row r="4256"/>
+    <row r="4257"/>
+    <row r="4258"/>
+    <row r="4259"/>
+    <row r="4260"/>
+    <row r="4261"/>
+    <row r="4262"/>
+    <row r="4263"/>
+    <row r="4264"/>
+    <row r="4265"/>
+    <row r="4266"/>
+    <row r="4267"/>
+    <row r="4268"/>
+    <row r="4269"/>
+    <row r="4270"/>
+    <row r="4271"/>
+    <row r="4272"/>
+    <row r="4273"/>
+    <row r="4274"/>
+    <row r="4275"/>
+    <row r="4276"/>
+    <row r="4277"/>
+    <row r="4278"/>
+    <row r="4279"/>
+    <row r="4280"/>
+    <row r="4281"/>
+    <row r="4282"/>
+    <row r="4283"/>
+    <row r="4284"/>
+    <row r="4285"/>
+    <row r="4286"/>
+    <row r="4287"/>
+    <row r="4288"/>
+    <row r="4289"/>
+    <row r="4290"/>
+    <row r="4291"/>
+    <row r="4292"/>
+    <row r="4293"/>
+    <row r="4294"/>
+    <row r="4295"/>
+    <row r="4296"/>
+    <row r="4297"/>
+    <row r="4298"/>
+    <row r="4299"/>
+    <row r="4300"/>
+    <row r="4301"/>
+    <row r="4302"/>
+    <row r="4303"/>
+    <row r="4304"/>
+    <row r="4305"/>
+    <row r="4306"/>
+    <row r="4307"/>
+    <row r="4308"/>
+    <row r="4309"/>
+    <row r="4310"/>
+    <row r="4311"/>
+    <row r="4312"/>
+    <row r="4313"/>
+    <row r="4314"/>
+    <row r="4315"/>
+    <row r="4316"/>
+    <row r="4317"/>
+    <row r="4318"/>
+    <row r="4319"/>
+    <row r="4320"/>
+    <row r="4321"/>
+    <row r="4322"/>
+    <row r="4323"/>
+    <row r="4324"/>
+    <row r="4325"/>
+    <row r="4326"/>
+    <row r="4327"/>
+    <row r="4328"/>
+    <row r="4329"/>
+    <row r="4330"/>
+    <row r="4331"/>
+    <row r="4332"/>
+    <row r="4333"/>
+    <row r="4334"/>
+    <row r="4335"/>
+    <row r="4336"/>
+    <row r="4337"/>
+    <row r="4338"/>
+    <row r="4339"/>
+    <row r="4340"/>
+    <row r="4341"/>
+    <row r="4342"/>
+    <row r="4343"/>
+    <row r="4344"/>
+    <row r="4345"/>
+    <row r="4346"/>
+    <row r="4347"/>
+    <row r="4348"/>
+    <row r="4349"/>
+    <row r="4350"/>
+    <row r="4351"/>
+    <row r="4352"/>
+    <row r="4353"/>
+    <row r="4354"/>
+    <row r="4355"/>
+    <row r="4356"/>
+    <row r="4357"/>
+    <row r="4358"/>
+    <row r="4359"/>
+    <row r="4360"/>
+    <row r="4361"/>
+    <row r="4362"/>
+    <row r="4363"/>
+    <row r="4364"/>
+    <row r="4365"/>
+    <row r="4366"/>
+    <row r="4367"/>
+    <row r="4368"/>
+    <row r="4369"/>
+    <row r="4370"/>
+    <row r="4371"/>
+    <row r="4372"/>
+    <row r="4373"/>
+    <row r="4374"/>
+    <row r="4375"/>
+    <row r="4376"/>
+    <row r="4377"/>
+    <row r="4378"/>
+    <row r="4379"/>
+    <row r="4380"/>
+    <row r="4381"/>
+    <row r="4382"/>
+    <row r="4383"/>
+    <row r="4384"/>
+    <row r="4385"/>
+    <row r="4386"/>
+    <row r="4387"/>
+    <row r="4388"/>
+    <row r="4389"/>
+    <row r="4390"/>
+    <row r="4391"/>
+    <row r="4392"/>
+    <row r="4393"/>
+    <row r="4394"/>
+    <row r="4395"/>
+    <row r="4396"/>
+    <row r="4397"/>
+    <row r="4398"/>
+    <row r="4399"/>
+    <row r="4400"/>
+    <row r="4401"/>
+    <row r="4402"/>
+    <row r="4403"/>
+    <row r="4404"/>
+    <row r="4405"/>
+    <row r="4406"/>
+    <row r="4407"/>
+    <row r="4408"/>
+    <row r="4409"/>
+    <row r="4410"/>
+    <row r="4411"/>
+    <row r="4412"/>
+    <row r="4413"/>
+    <row r="4414"/>
+    <row r="4415"/>
+    <row r="4416"/>
+    <row r="4417"/>
+    <row r="4418"/>
+    <row r="4419"/>
+    <row r="4420"/>
+    <row r="4421"/>
+    <row r="4422"/>
+    <row r="4423"/>
+    <row r="4424"/>
+    <row r="4425"/>
+    <row r="4426"/>
+    <row r="4427"/>
+    <row r="4428"/>
+    <row r="4429"/>
+    <row r="4430"/>
+    <row r="4431"/>
+    <row r="4432"/>
+    <row r="4433"/>
+    <row r="4434"/>
+    <row r="4435"/>
+    <row r="4436"/>
+    <row r="4437"/>
+    <row r="4438"/>
+    <row r="4439"/>
+    <row r="4440"/>
+    <row r="4441"/>
+    <row r="4442"/>
+    <row r="4443"/>
+    <row r="4444"/>
+    <row r="4445"/>
+    <row r="4446"/>
+    <row r="4447"/>
+    <row r="4448"/>
+    <row r="4449"/>
+    <row r="4450"/>
+    <row r="4451"/>
+    <row r="4452"/>
+    <row r="4453"/>
+    <row r="4454"/>
+    <row r="4455"/>
+    <row r="4456"/>
+    <row r="4457"/>
+    <row r="4458"/>
+    <row r="4459"/>
+    <row r="4460"/>
+    <row r="4461"/>
+    <row r="4462"/>
+    <row r="4463"/>
+    <row r="4464"/>
+    <row r="4465"/>
+    <row r="4466"/>
+    <row r="4467"/>
+    <row r="4468"/>
+    <row r="4469"/>
+    <row r="4470"/>
+    <row r="4471"/>
+    <row r="4472"/>
+    <row r="4473"/>
+    <row r="4474"/>
+    <row r="4475"/>
+    <row r="4476"/>
+    <row r="4477"/>
+    <row r="4478"/>
+    <row r="4479"/>
+    <row r="4480"/>
+    <row r="4481"/>
+    <row r="4482"/>
+    <row r="4483"/>
+    <row r="4484"/>
+    <row r="4485"/>
+    <row r="4486"/>
+    <row r="4487"/>
+    <row r="4488"/>
+    <row r="4489"/>
+    <row r="4490"/>
+    <row r="4491"/>
+    <row r="4492"/>
+    <row r="4493"/>
+    <row r="4494"/>
+    <row r="4495"/>
+    <row r="4496"/>
+    <row r="4497"/>
+    <row r="4498"/>
+    <row r="4499"/>
+    <row r="4500"/>
+    <row r="4501"/>
+    <row r="4502"/>
+    <row r="4503"/>
+    <row r="4504"/>
+    <row r="4505"/>
+    <row r="4506"/>
+    <row r="4507"/>
+    <row r="4508"/>
+    <row r="4509"/>
+    <row r="4510"/>
+    <row r="4511"/>
+    <row r="4512"/>
+    <row r="4513"/>
+    <row r="4514"/>
+    <row r="4515"/>
+    <row r="4516"/>
+    <row r="4517"/>
+    <row r="4518"/>
+    <row r="4519"/>
+    <row r="4520"/>
+    <row r="4521"/>
+    <row r="4522"/>
+    <row r="4523"/>
+    <row r="4524"/>
+    <row r="4525"/>
+    <row r="4526"/>
+    <row r="4527"/>
+    <row r="4528"/>
+    <row r="4529"/>
+    <row r="4530"/>
+    <row r="4531"/>
+    <row r="4532"/>
+    <row r="4533"/>
+    <row r="4534"/>
+    <row r="4535"/>
+    <row r="4536"/>
+    <row r="4537"/>
+    <row r="4538"/>
+    <row r="4539"/>
+    <row r="4540"/>
+    <row r="4541"/>
+    <row r="4542"/>
+    <row r="4543"/>
+    <row r="4544"/>
+    <row r="4545"/>
+    <row r="4546"/>
+    <row r="4547"/>
+    <row r="4548"/>
+    <row r="4549"/>
+    <row r="4550"/>
+    <row r="4551"/>
+    <row r="4552"/>
+    <row r="4553"/>
+    <row r="4554"/>
+    <row r="4555"/>
+    <row r="4556"/>
+    <row r="4557"/>
+    <row r="4558"/>
+    <row r="4559"/>
+    <row r="4560"/>
+    <row r="4561"/>
+    <row r="4562"/>
+    <row r="4563"/>
+    <row r="4564"/>
+    <row r="4565"/>
+    <row r="4566"/>
+    <row r="4567"/>
+    <row r="4568"/>
+    <row r="4569"/>
+    <row r="4570"/>
+    <row r="4571"/>
+    <row r="4572"/>
+    <row r="4573"/>
+    <row r="4574"/>
+    <row r="4575"/>
+    <row r="4576"/>
+    <row r="4577"/>
+    <row r="4578"/>
+    <row r="4579"/>
+    <row r="4580"/>
+    <row r="4581"/>
+    <row r="4582"/>
+    <row r="4583"/>
+    <row r="4584"/>
+    <row r="4585"/>
+    <row r="4586"/>
+    <row r="4587"/>
+    <row r="4588"/>
+    <row r="4589"/>
+    <row r="4590"/>
+    <row r="4591"/>
+    <row r="4592"/>
+    <row r="4593"/>
+    <row r="4594"/>
+    <row r="4595"/>
+    <row r="4596"/>
+    <row r="4597"/>
+    <row r="4598"/>
+    <row r="4599"/>
+    <row r="4600"/>
+    <row r="4601"/>
+    <row r="4602"/>
+    <row r="4603"/>
+    <row r="4604"/>
+    <row r="4605"/>
+    <row r="4606"/>
+    <row r="4607"/>
+    <row r="4608"/>
+    <row r="4609"/>
+    <row r="4610"/>
+    <row r="4611"/>
+    <row r="4612"/>
+    <row r="4613"/>
+    <row r="4614"/>
+    <row r="4615"/>
+    <row r="4616"/>
+    <row r="4617"/>
+    <row r="4618"/>
+    <row r="4619"/>
+    <row r="4620"/>
+    <row r="4621"/>
+    <row r="4622"/>
+    <row r="4623"/>
+    <row r="4624"/>
+    <row r="4625"/>
+    <row r="4626"/>
+    <row r="4627"/>
+    <row r="4628"/>
+    <row r="4629"/>
+    <row r="4630"/>
+    <row r="4631"/>
+    <row r="4632"/>
+    <row r="4633"/>
+    <row r="4634"/>
+    <row r="4635"/>
+    <row r="4636"/>
+    <row r="4637"/>
+    <row r="4638"/>
+    <row r="4639"/>
+    <row r="4640"/>
+    <row r="4641"/>
+    <row r="4642"/>
+    <row r="4643"/>
+    <row r="4644"/>
+    <row r="4645"/>
+    <row r="4646"/>
+    <row r="4647"/>
+    <row r="4648"/>
+    <row r="4649"/>
+    <row r="4650"/>
+    <row r="4651"/>
+    <row r="4652"/>
+    <row r="4653"/>
+    <row r="4654"/>
+    <row r="4655"/>
+    <row r="4656"/>
+    <row r="4657"/>
+    <row r="4658"/>
+    <row r="4659"/>
+    <row r="4660"/>
+    <row r="4661"/>
+    <row r="4662"/>
+    <row r="4663"/>
+    <row r="4664"/>
+    <row r="4665"/>
+    <row r="4666"/>
+    <row r="4667"/>
+    <row r="4668"/>
+    <row r="4669"/>
+    <row r="4670"/>
+    <row r="4671"/>
+    <row r="4672"/>
+    <row r="4673"/>
+    <row r="4674"/>
+    <row r="4675"/>
+    <row r="4676"/>
+    <row r="4677"/>
+    <row r="4678"/>
+    <row r="4679"/>
+    <row r="4680"/>
+    <row r="4681"/>
+    <row r="4682"/>
+    <row r="4683"/>
+    <row r="4684"/>
+    <row r="4685"/>
+    <row r="4686"/>
+    <row r="4687"/>
+    <row r="4688"/>
+    <row r="4689"/>
+    <row r="4690"/>
+    <row r="4691"/>
+    <row r="4692"/>
+    <row r="4693"/>
+    <row r="4694"/>
+    <row r="4695"/>
+    <row r="4696"/>
+    <row r="4697"/>
+    <row r="4698"/>
+    <row r="4699"/>
+    <row r="4700"/>
+    <row r="4701"/>
+    <row r="4702"/>
+    <row r="4703"/>
+    <row r="4704"/>
+    <row r="4705"/>
+    <row r="4706"/>
+    <row r="4707"/>
+    <row r="4708"/>
+    <row r="4709"/>
+    <row r="4710"/>
+    <row r="4711"/>
+    <row r="4712"/>
+    <row r="4713"/>
+    <row r="4714"/>
+    <row r="4715"/>
+    <row r="4716"/>
+    <row r="4717"/>
+    <row r="4718"/>
+    <row r="4719"/>
+    <row r="4720"/>
+    <row r="4721"/>
+    <row r="4722"/>
+    <row r="4723"/>
+    <row r="4724"/>
+    <row r="4725"/>
+    <row r="4726"/>
+    <row r="4727"/>
+    <row r="4728"/>
+    <row r="4729"/>
+    <row r="4730"/>
+    <row r="4731"/>
+    <row r="4732"/>
+    <row r="4733"/>
+    <row r="4734"/>
+    <row r="4735"/>
+    <row r="4736"/>
+    <row r="4737"/>
+    <row r="4738"/>
+    <row r="4739"/>
+    <row r="4740"/>
+    <row r="4741"/>
+    <row r="4742"/>
+    <row r="4743"/>
+    <row r="4744"/>
+    <row r="4745"/>
+    <row r="4746"/>
+    <row r="4747"/>
+    <row r="4748"/>
+    <row r="4749"/>
+    <row r="4750"/>
+    <row r="4751"/>
+    <row r="4752"/>
+    <row r="4753"/>
+    <row r="4754"/>
+    <row r="4755"/>
+    <row r="4756"/>
+    <row r="4757"/>
+    <row r="4758"/>
+    <row r="4759"/>
+    <row r="4760"/>
+    <row r="4761"/>
+    <row r="4762"/>
+    <row r="4763"/>
+    <row r="4764"/>
+    <row r="4765"/>
+    <row r="4766"/>
+    <row r="4767"/>
+    <row r="4768"/>
+    <row r="4769"/>
+    <row r="4770"/>
+    <row r="4771"/>
+    <row r="4772"/>
+    <row r="4773"/>
+    <row r="4774"/>
+    <row r="4775"/>
+    <row r="4776"/>
+    <row r="4777"/>
+    <row r="4778"/>
+    <row r="4779"/>
+    <row r="4780"/>
+    <row r="4781"/>
+    <row r="4782"/>
+    <row r="4783"/>
+    <row r="4784"/>
+    <row r="4785"/>
+    <row r="4786"/>
+    <row r="4787"/>
+    <row r="4788"/>
+    <row r="4789"/>
+    <row r="4790"/>
+    <row r="4791"/>
+    <row r="4792"/>
+    <row r="4793"/>
+    <row r="4794"/>
+    <row r="4795"/>
+    <row r="4796"/>
+    <row r="4797"/>
+    <row r="4798"/>
+    <row r="4799"/>
+    <row r="4800"/>
+    <row r="4801"/>
+    <row r="4802"/>
+    <row r="4803"/>
+    <row r="4804"/>
+    <row r="4805"/>
+    <row r="4806"/>
+    <row r="4807"/>
+    <row r="4808"/>
+    <row r="4809"/>
+    <row r="4810"/>
+    <row r="4811"/>
+    <row r="4812"/>
+    <row r="4813"/>
+    <row r="4814"/>
+    <row r="4815"/>
+    <row r="4816"/>
+    <row r="4817"/>
+    <row r="4818"/>
+    <row r="4819"/>
+    <row r="4820"/>
+    <row r="4821"/>
+    <row r="4822"/>
+    <row r="4823"/>
+    <row r="4824"/>
+    <row r="4825"/>
+    <row r="4826"/>
+    <row r="4827"/>
+    <row r="4828"/>
+    <row r="4829"/>
+    <row r="4830"/>
+    <row r="4831"/>
+    <row r="4832"/>
+    <row r="4833"/>
+    <row r="4834"/>
+    <row r="4835"/>
+    <row r="4836"/>
+    <row r="4837"/>
+    <row r="4838"/>
+    <row r="4839"/>
+    <row r="4840"/>
+    <row r="4841"/>
+    <row r="4842"/>
+    <row r="4843"/>
+    <row r="4844"/>
+    <row r="4845"/>
+    <row r="4846"/>
+    <row r="4847"/>
+    <row r="4848"/>
+    <row r="4849"/>
+    <row r="4850"/>
+    <row r="4851"/>
+    <row r="4852"/>
+    <row r="4853"/>
+    <row r="4854"/>
+    <row r="4855"/>
+    <row r="4856"/>
+    <row r="4857"/>
+    <row r="4858"/>
+    <row r="4859"/>
+    <row r="4860"/>
+    <row r="4861"/>
+    <row r="4862"/>
+    <row r="4863"/>
+    <row r="4864"/>
+    <row r="4865"/>
+    <row r="4866"/>
+    <row r="4867"/>
+    <row r="4868"/>
+    <row r="4869"/>
+    <row r="4870"/>
+    <row r="4871"/>
+    <row r="4872"/>
+    <row r="4873"/>
+    <row r="4874"/>
+    <row r="4875"/>
+    <row r="4876"/>
+    <row r="4877"/>
+    <row r="4878"/>
+    <row r="4879"/>
+    <row r="4880"/>
+    <row r="4881"/>
+    <row r="4882"/>
+    <row r="4883"/>
+    <row r="4884"/>
+    <row r="4885"/>
+    <row r="4886"/>
+    <row r="4887"/>
+    <row r="4888"/>
+    <row r="4889"/>
+    <row r="4890"/>
+    <row r="4891"/>
+    <row r="4892"/>
+    <row r="4893"/>
+    <row r="4894"/>
+    <row r="4895"/>
+    <row r="4896"/>
+    <row r="4897"/>
+    <row r="4898"/>
+    <row r="4899"/>
+    <row r="4900"/>
+    <row r="4901"/>
+    <row r="4902"/>
+    <row r="4903"/>
+    <row r="4904"/>
+    <row r="4905"/>
+    <row r="4906"/>
+    <row r="4907"/>
+    <row r="4908"/>
+    <row r="4909"/>
+    <row r="4910"/>
+    <row r="4911"/>
+    <row r="4912"/>
+    <row r="4913"/>
+    <row r="4914"/>
+    <row r="4915"/>
+    <row r="4916"/>
+    <row r="4917"/>
+    <row r="4918"/>
+    <row r="4919"/>
+    <row r="4920"/>
+    <row r="4921"/>
+    <row r="4922"/>
+    <row r="4923"/>
+    <row r="4924"/>
+    <row r="4925"/>
+    <row r="4926"/>
+    <row r="4927"/>
+    <row r="4928"/>
+    <row r="4929"/>
+    <row r="4930"/>
+    <row r="4931"/>
+    <row r="4932"/>
+    <row r="4933"/>
+    <row r="4934"/>
+    <row r="4935"/>
+    <row r="4936"/>
+    <row r="4937"/>
+    <row r="4938"/>
+    <row r="4939"/>
+    <row r="4940"/>
+    <row r="4941"/>
+    <row r="4942"/>
+    <row r="4943"/>
+    <row r="4944"/>
+    <row r="4945"/>
+    <row r="4946"/>
+    <row r="4947"/>
+    <row r="4948"/>
+    <row r="4949"/>
+    <row r="4950"/>
+    <row r="4951"/>
+    <row r="4952"/>
+    <row r="4953"/>
+    <row r="4954"/>
+    <row r="4955"/>
+    <row r="4956"/>
+    <row r="4957"/>
+    <row r="4958"/>
+    <row r="4959"/>
+    <row r="4960"/>
+    <row r="4961"/>
+    <row r="4962"/>
+    <row r="4963"/>
+    <row r="4964"/>
+    <row r="4965"/>
+    <row r="4966"/>
+    <row r="4967"/>
+    <row r="4968"/>
+    <row r="4969"/>
+    <row r="4970"/>
+    <row r="4971"/>
+    <row r="4972"/>
+    <row r="4973"/>
+    <row r="4974"/>
+    <row r="4975"/>
+    <row r="4976"/>
+    <row r="4977"/>
+    <row r="4978"/>
+    <row r="4979"/>
+    <row r="4980"/>
+    <row r="4981"/>
+    <row r="4982"/>
+    <row r="4983"/>
+    <row r="4984"/>
+    <row r="4985"/>
+    <row r="4986"/>
+    <row r="4987"/>
+    <row r="4988"/>
+    <row r="4989"/>
+    <row r="4990"/>
+    <row r="4991"/>
+    <row r="4992"/>
+    <row r="4993"/>
+    <row r="4994"/>
+    <row r="4995"/>
+    <row r="4996"/>
+    <row r="4997"/>
+    <row r="4998"/>
+    <row r="4999"/>
+    <row r="5000"/>
+    <row r="5001"/>
+    <row r="5002"/>
+    <row r="5003"/>
+    <row r="5004"/>
+    <row r="5005"/>
+    <row r="5006"/>
+    <row r="5007"/>
+    <row r="5008"/>
+    <row r="5009"/>
+    <row r="5010"/>
+    <row r="5011"/>
+    <row r="5012"/>
+    <row r="5013"/>
+    <row r="5014"/>
+    <row r="5015"/>
+    <row r="5016"/>
+    <row r="5017"/>
+    <row r="5018"/>
+    <row r="5019"/>
+    <row r="5020"/>
+    <row r="5021"/>
+    <row r="5022"/>
+    <row r="5023"/>
+    <row r="5024"/>
+    <row r="5025"/>
+    <row r="5026"/>
+    <row r="5027"/>
+    <row r="5028"/>
+    <row r="5029"/>
+    <row r="5030"/>
+    <row r="5031"/>
+    <row r="5032"/>
+    <row r="5033"/>
+    <row r="5034"/>
+    <row r="5035"/>
+    <row r="5036"/>
+    <row r="5037"/>
+    <row r="5038"/>
+    <row r="5039"/>
+    <row r="5040"/>
+    <row r="5041"/>
+    <row r="5042"/>
+    <row r="5043"/>
+    <row r="5044"/>
+    <row r="5045"/>
+    <row r="5046"/>
+    <row r="5047"/>
+    <row r="5048"/>
+    <row r="5049"/>
+    <row r="5050"/>
+    <row r="5051"/>
+    <row r="5052"/>
+    <row r="5053"/>
+    <row r="5054"/>
+    <row r="5055"/>
+    <row r="5056"/>
+    <row r="5057"/>
+    <row r="5058"/>
+    <row r="5059"/>
+    <row r="5060"/>
+    <row r="5061"/>
+    <row r="5062"/>
+    <row r="5063"/>
+    <row r="5064"/>
+    <row r="5065"/>
+    <row r="5066"/>
+    <row r="5067"/>
+    <row r="5068"/>
+    <row r="5069"/>
+    <row r="5070"/>
+    <row r="5071"/>
+    <row r="5072"/>
+    <row r="5073"/>
+    <row r="5074"/>
+    <row r="5075"/>
+    <row r="5076"/>
+    <row r="5077"/>
+    <row r="5078"/>
+    <row r="5079"/>
+    <row r="5080"/>
+    <row r="5081"/>
+    <row r="5082"/>
+    <row r="5083"/>
+    <row r="5084"/>
+    <row r="5085"/>
+    <row r="5086"/>
+    <row r="5087"/>
+    <row r="5088"/>
+    <row r="5089"/>
+    <row r="5090"/>
+    <row r="5091"/>
+    <row r="5092"/>
+    <row r="5093"/>
+    <row r="5094"/>
+    <row r="5095"/>
+    <row r="5096"/>
+    <row r="5097"/>
+    <row r="5098"/>
+    <row r="5099"/>
+    <row r="5100"/>
+    <row r="5101"/>
+    <row r="5102"/>
+    <row r="5103"/>
+    <row r="5104"/>
+    <row r="5105"/>
+    <row r="5106"/>
+    <row r="5107"/>
+    <row r="5108"/>
+    <row r="5109"/>
+    <row r="5110"/>
+    <row r="5111"/>
+    <row r="5112"/>
+    <row r="5113"/>
+    <row r="5114"/>
+    <row r="5115"/>
+    <row r="5116"/>
+    <row r="5117"/>
+    <row r="5118"/>
+    <row r="5119"/>
+    <row r="5120"/>
+    <row r="5121"/>
+    <row r="5122"/>
+    <row r="5123"/>
+    <row r="5124"/>
+    <row r="5125"/>
+    <row r="5126"/>
+    <row r="5127"/>
+    <row r="5128"/>
+    <row r="5129"/>
+    <row r="5130"/>
+    <row r="5131"/>
+    <row r="5132"/>
+    <row r="5133"/>
+    <row r="5134"/>
+    <row r="5135"/>
+    <row r="5136"/>
+    <row r="5137"/>
+    <row r="5138"/>
+    <row r="5139"/>
+    <row r="5140"/>
+    <row r="5141"/>
+    <row r="5142"/>
+    <row r="5143"/>
+    <row r="5144"/>
+    <row r="5145"/>
+    <row r="5146"/>
+    <row r="5147"/>
+    <row r="5148"/>
+    <row r="5149"/>
+    <row r="5150"/>
+    <row r="5151"/>
+    <row r="5152"/>
+    <row r="5153"/>
+    <row r="5154"/>
+    <row r="5155"/>
+    <row r="5156"/>
+    <row r="5157"/>
+    <row r="5158"/>
+    <row r="5159"/>
+    <row r="5160"/>
+    <row r="5161"/>
+    <row r="5162"/>
+    <row r="5163"/>
+    <row r="5164"/>
+    <row r="5165"/>
+    <row r="5166"/>
+    <row r="5167"/>
+    <row r="5168"/>
+    <row r="5169"/>
+    <row r="5170"/>
+    <row r="5171"/>
+    <row r="5172"/>
+    <row r="5173"/>
+    <row r="5174"/>
+    <row r="5175"/>
+    <row r="5176"/>
+    <row r="5177"/>
+    <row r="5178"/>
+    <row r="5179"/>
+    <row r="5180"/>
+    <row r="5181"/>
+    <row r="5182"/>
+    <row r="5183"/>
+    <row r="5184"/>
+    <row r="5185"/>
+    <row r="5186"/>
+    <row r="5187"/>
+    <row r="5188"/>
+    <row r="5189"/>
+    <row r="5190"/>
+    <row r="5191"/>
+    <row r="5192"/>
+    <row r="5193"/>
+    <row r="5194"/>
+    <row r="5195"/>
+    <row r="5196"/>
+    <row r="5197"/>
+    <row r="5198"/>
+    <row r="5199"/>
+    <row r="5200"/>
+    <row r="5201"/>
+    <row r="5202"/>
+    <row r="5203"/>
+    <row r="5204"/>
+    <row r="5205"/>
+    <row r="5206"/>
+    <row r="5207"/>
+    <row r="5208"/>
+    <row r="5209"/>
+    <row r="5210"/>
+    <row r="5211"/>
+    <row r="5212"/>
+    <row r="5213"/>
+    <row r="5214"/>
+    <row r="5215"/>
+    <row r="5216"/>
+    <row r="5217"/>
+    <row r="5218"/>
+    <row r="5219"/>
+    <row r="5220"/>
+    <row r="5221"/>
+    <row r="5222"/>
+    <row r="5223"/>
+    <row r="5224"/>
+    <row r="5225"/>
+    <row r="5226"/>
+    <row r="5227"/>
+    <row r="5228"/>
+    <row r="5229"/>
+    <row r="5230"/>
+    <row r="5231"/>
+    <row r="5232"/>
+    <row r="5233"/>
+    <row r="5234"/>
+    <row r="5235"/>
+    <row r="5236"/>
+    <row r="5237"/>
+    <row r="5238"/>
+    <row r="5239"/>
+    <row r="5240"/>
+    <row r="5241"/>
+    <row r="5242"/>
+    <row r="5243"/>
+    <row r="5244"/>
+    <row r="5245"/>
+    <row r="5246"/>
+    <row r="5247"/>
+    <row r="5248"/>
+    <row r="5249"/>
+    <row r="5250"/>
+    <row r="5251"/>
+    <row r="5252"/>
+    <row r="5253"/>
+    <row r="5254"/>
+    <row r="5255"/>
+    <row r="5256"/>
+    <row r="5257"/>
+    <row r="5258"/>
+    <row r="5259"/>
+    <row r="5260"/>
+    <row r="5261"/>
+    <row r="5262"/>
+    <row r="5263"/>
+    <row r="5264"/>
+    <row r="5265"/>
+    <row r="5266"/>
+    <row r="5267"/>
+    <row r="5268"/>
+    <row r="5269"/>
+    <row r="5270"/>
+    <row r="5271"/>
+    <row r="5272"/>
+    <row r="5273"/>
+    <row r="5274"/>
+    <row r="5275"/>
+    <row r="5276"/>
+    <row r="5277"/>
+    <row r="5278"/>
+    <row r="5279"/>
+    <row r="5280"/>
+    <row r="5281"/>
+    <row r="5282"/>
+    <row r="5283"/>
+    <row r="5284"/>
+    <row r="5285"/>
+    <row r="5286"/>
+    <row r="5287"/>
+    <row r="5288"/>
+    <row r="5289"/>
+    <row r="5290"/>
+    <row r="5291"/>
+    <row r="5292"/>
+    <row r="5293"/>
+    <row r="5294"/>
+    <row r="5295"/>
+    <row r="5296"/>
+    <row r="5297"/>
+    <row r="5298"/>
+    <row r="5299"/>
+    <row r="5300"/>
+    <row r="5301"/>
+    <row r="5302"/>
+    <row r="5303"/>
+    <row r="5304"/>
+    <row r="5305"/>
+    <row r="5306"/>
+    <row r="5307"/>
+    <row r="5308"/>
+    <row r="5309"/>
+    <row r="5310"/>
+    <row r="5311"/>
+    <row r="5312"/>
+    <row r="5313"/>
+    <row r="5314"/>
+    <row r="5315"/>
+    <row r="5316"/>
+    <row r="5317"/>
+    <row r="5318"/>
+    <row r="5319"/>
+    <row r="5320"/>
+    <row r="5321"/>
+    <row r="5322"/>
+    <row r="5323"/>
+    <row r="5324"/>
+    <row r="5325"/>
+    <row r="5326"/>
+    <row r="5327"/>
+    <row r="5328"/>
+    <row r="5329"/>
+    <row r="5330"/>
+    <row r="5331"/>
+    <row r="5332"/>
+    <row r="5333"/>
+    <row r="5334"/>
+    <row r="5335"/>
+    <row r="5336"/>
+    <row r="5337"/>
+    <row r="5338"/>
+    <row r="5339"/>
+    <row r="5340"/>
+    <row r="5341"/>
+    <row r="5342"/>
+    <row r="5343"/>
+    <row r="5344"/>
+    <row r="5345"/>
+    <row r="5346"/>
+    <row r="5347"/>
+    <row r="5348"/>
+    <row r="5349"/>
+    <row r="5350"/>
+    <row r="5351"/>
+    <row r="5352"/>
+    <row r="5353"/>
+    <row r="5354"/>
+    <row r="5355"/>
+    <row r="5356"/>
+    <row r="5357"/>
+    <row r="5358"/>
+    <row r="5359"/>
+    <row r="5360"/>
+    <row r="5361"/>
+    <row r="5362"/>
+    <row r="5363"/>
+    <row r="5364"/>
+    <row r="5365"/>
+    <row r="5366"/>
+    <row r="5367"/>
+    <row r="5368"/>
+    <row r="5369"/>
+    <row r="5370"/>
+    <row r="5371"/>
+    <row r="5372"/>
+    <row r="5373"/>
+    <row r="5374"/>
+    <row r="5375"/>
+    <row r="5376"/>
+    <row r="5377"/>
+    <row r="5378"/>
+    <row r="5379"/>
+    <row r="5380"/>
+    <row r="5381"/>
+    <row r="5382"/>
+    <row r="5383"/>
+    <row r="5384"/>
+    <row r="5385"/>
+    <row r="5386"/>
+    <row r="5387"/>
+    <row r="5388"/>
+    <row r="5389"/>
+    <row r="5390"/>
+    <row r="5391"/>
+    <row r="5392"/>
+    <row r="5393"/>
+    <row r="5394"/>
+    <row r="5395"/>
+    <row r="5396"/>
+    <row r="5397"/>
+    <row r="5398"/>
+    <row r="5399"/>
+    <row r="5400"/>
+    <row r="5401"/>
+    <row r="5402"/>
+    <row r="5403"/>
+    <row r="5404"/>
+    <row r="5405"/>
+    <row r="5406"/>
+    <row r="5407"/>
+    <row r="5408"/>
+    <row r="5409"/>
+    <row r="5410"/>
+    <row r="5411"/>
+    <row r="5412"/>
+    <row r="5413"/>
+    <row r="5414"/>
+    <row r="5415"/>
+    <row r="5416"/>
+    <row r="5417"/>
+    <row r="5418"/>
+    <row r="5419"/>
+    <row r="5420"/>
+    <row r="5421"/>
+    <row r="5422"/>
+    <row r="5423"/>
+    <row r="5424"/>
+    <row r="5425"/>
+    <row r="5426"/>
+    <row r="5427"/>
+    <row r="5428"/>
+    <row r="5429"/>
+    <row r="5430"/>
+    <row r="5431"/>
+    <row r="5432"/>
+    <row r="5433"/>
+    <row r="5434"/>
+    <row r="5435"/>
+    <row r="5436"/>
+    <row r="5437"/>
+    <row r="5438"/>
+    <row r="5439"/>
+    <row r="5440"/>
+    <row r="5441"/>
+    <row r="5442"/>
+    <row r="5443"/>
+    <row r="5444"/>
+    <row r="5445"/>
+    <row r="5446"/>
+    <row r="5447"/>
+    <row r="5448"/>
+    <row r="5449"/>
+    <row r="5450"/>
+    <row r="5451"/>
+    <row r="5452"/>
+    <row r="5453"/>
+    <row r="5454"/>
+    <row r="5455"/>
+    <row r="5456"/>
+    <row r="5457"/>
+    <row r="5458"/>
+    <row r="5459"/>
+    <row r="5460"/>
+    <row r="5461"/>
+    <row r="5462"/>
+    <row r="5463"/>
+    <row r="5464"/>
+    <row r="5465"/>
+    <row r="5466"/>
+    <row r="5467"/>
+    <row r="5468"/>
+    <row r="5469"/>
+    <row r="5470"/>
+    <row r="5471"/>
+    <row r="5472"/>
+    <row r="5473"/>
+    <row r="5474"/>
+    <row r="5475"/>
+    <row r="5476"/>
+    <row r="5477"/>
+    <row r="5478"/>
+    <row r="5479"/>
+    <row r="5480"/>
+    <row r="5481"/>
+    <row r="5482"/>
+    <row r="5483"/>
+    <row r="5484"/>
+    <row r="5485"/>
+    <row r="5486"/>
+    <row r="5487"/>
+    <row r="5488"/>
+    <row r="5489"/>
+    <row r="5490"/>
+    <row r="5491"/>
+    <row r="5492"/>
+    <row r="5493"/>
+    <row r="5494"/>
+    <row r="5495"/>
+    <row r="5496"/>
+    <row r="5497"/>
+    <row r="5498"/>
+    <row r="5499"/>
+    <row r="5500"/>
+    <row r="5501"/>
+    <row r="5502"/>
+    <row r="5503"/>
+    <row r="5504"/>
+    <row r="5505"/>
+    <row r="5506"/>
+    <row r="5507"/>
+    <row r="5508"/>
+    <row r="5509"/>
+    <row r="5510"/>
+    <row r="5511"/>
+    <row r="5512"/>
+    <row r="5513"/>
+    <row r="5514"/>
+    <row r="5515"/>
+    <row r="5516"/>
+    <row r="5517"/>
+    <row r="5518"/>
+    <row r="5519"/>
+    <row r="5520"/>
+    <row r="5521"/>
+    <row r="5522"/>
+    <row r="5523"/>
+    <row r="5524"/>
+    <row r="5525"/>
+    <row r="5526"/>
+    <row r="5527"/>
+    <row r="5528"/>
+    <row r="5529"/>
+    <row r="5530"/>
+    <row r="5531"/>
+    <row r="5532"/>
+    <row r="5533"/>
+    <row r="5534"/>
+    <row r="5535"/>
+    <row r="5536"/>
+    <row r="5537"/>
+    <row r="5538"/>
+    <row r="5539"/>
+    <row r="5540"/>
+    <row r="5541"/>
+    <row r="5542"/>
+    <row r="5543"/>
+    <row r="5544"/>
+    <row r="5545"/>
+    <row r="5546"/>
+    <row r="5547"/>
+    <row r="5548"/>
+    <row r="5549"/>
+    <row r="5550"/>
+    <row r="5551"/>
+    <row r="5552"/>
+    <row r="5553"/>
+    <row r="5554"/>
+    <row r="5555"/>
+    <row r="5556"/>
+    <row r="5557"/>
+    <row r="5558"/>
+    <row r="5559"/>
+    <row r="5560"/>
+    <row r="5561"/>
+    <row r="5562"/>
+    <row r="5563"/>
+    <row r="5564"/>
+    <row r="5565"/>
+    <row r="5566"/>
+    <row r="5567"/>
+    <row r="5568"/>
+    <row r="5569"/>
+    <row r="5570"/>
+    <row r="5571"/>
+    <row r="5572"/>
+    <row r="5573"/>
+    <row r="5574"/>
+    <row r="5575"/>
+    <row r="5576"/>
+    <row r="5577"/>
+    <row r="5578"/>
+    <row r="5579"/>
+    <row r="5580"/>
+    <row r="5581"/>
+    <row r="5582"/>
+    <row r="5583"/>
+    <row r="5584"/>
+    <row r="5585"/>
+    <row r="5586"/>
+    <row r="5587"/>
+    <row r="5588"/>
+    <row r="5589"/>
+    <row r="5590"/>
+    <row r="5591"/>
+    <row r="5592"/>
+    <row r="5593"/>
+    <row r="5594"/>
+    <row r="5595"/>
+    <row r="5596"/>
+    <row r="5597"/>
+    <row r="5598"/>
+    <row r="5599"/>
+    <row r="5600"/>
+    <row r="5601"/>
+    <row r="5602"/>
+    <row r="5603"/>
+    <row r="5604"/>
+    <row r="5605"/>
+    <row r="5606"/>
+    <row r="5607"/>
+    <row r="5608"/>
+    <row r="5609"/>
+    <row r="5610"/>
+    <row r="5611"/>
+    <row r="5612"/>
+    <row r="5613"/>
+    <row r="5614"/>
+    <row r="5615"/>
+    <row r="5616"/>
+    <row r="5617"/>
+    <row r="5618"/>
+    <row r="5619"/>
+    <row r="5620"/>
+    <row r="5621"/>
+    <row r="5622"/>
+    <row r="5623"/>
+    <row r="5624"/>
+    <row r="5625"/>
+    <row r="5626"/>
+    <row r="5627"/>
+    <row r="5628"/>
+    <row r="5629"/>
+    <row r="5630"/>
+    <row r="5631"/>
+    <row r="5632"/>
+    <row r="5633"/>
+    <row r="5634"/>
+    <row r="5635"/>
+    <row r="5636"/>
+    <row r="5637"/>
+    <row r="5638"/>
+    <row r="5639"/>
+    <row r="5640"/>
+    <row r="5641"/>
+    <row r="5642"/>
+    <row r="5643"/>
+    <row r="5644"/>
+    <row r="5645"/>
+    <row r="5646"/>
+    <row r="5647"/>
+    <row r="5648"/>
+    <row r="5649"/>
+    <row r="5650"/>
+    <row r="5651"/>
+    <row r="5652"/>
+    <row r="5653"/>
+    <row r="5654"/>
+    <row r="5655"/>
+    <row r="5656"/>
+    <row r="5657"/>
+    <row r="5658"/>
+    <row r="5659"/>
+    <row r="5660"/>
+    <row r="5661"/>
+    <row r="5662"/>
+    <row r="5663"/>
+    <row r="5664"/>
+    <row r="5665"/>
+    <row r="5666"/>
+    <row r="5667"/>
+    <row r="5668"/>
+    <row r="5669"/>
+    <row r="5670"/>
+    <row r="5671"/>
+    <row r="5672"/>
+    <row r="5673"/>
+    <row r="5674"/>
+    <row r="5675"/>
+    <row r="5676"/>
+    <row r="5677"/>
+    <row r="5678"/>
+    <row r="5679"/>
+    <row r="5680"/>
+    <row r="5681"/>
+    <row r="5682"/>
+    <row r="5683"/>
+    <row r="5684"/>
+    <row r="5685"/>
+    <row r="5686"/>
+    <row r="5687"/>
+    <row r="5688"/>
+    <row r="5689"/>
+    <row r="5690"/>
+    <row r="5691"/>
+    <row r="5692"/>
+    <row r="5693"/>
+    <row r="5694"/>
+    <row r="5695"/>
+    <row r="5696"/>
+    <row r="5697"/>
+    <row r="5698"/>
+    <row r="5699"/>
+    <row r="5700"/>
+    <row r="5701"/>
+    <row r="5702"/>
+    <row r="5703"/>
+    <row r="5704"/>
+    <row r="5705"/>
+    <row r="5706"/>
+    <row r="5707"/>
+    <row r="5708"/>
+    <row r="5709"/>
+    <row r="5710"/>
+    <row r="5711"/>
+    <row r="5712"/>
+    <row r="5713"/>
+    <row r="5714"/>
+    <row r="5715"/>
+    <row r="5716"/>
+    <row r="5717"/>
+    <row r="5718"/>
+    <row r="5719"/>
+    <row r="5720"/>
+    <row r="5721"/>
+    <row r="5722"/>
+    <row r="5723"/>
+    <row r="5724"/>
+    <row r="5725"/>
+    <row r="5726"/>
+    <row r="5727"/>
+    <row r="5728"/>
+    <row r="5729"/>
+    <row r="5730"/>
+    <row r="5731"/>
+    <row r="5732"/>
+    <row r="5733"/>
+    <row r="5734"/>
+    <row r="5735"/>
+    <row r="5736"/>
+    <row r="5737"/>
+    <row r="5738"/>
+    <row r="5739"/>
+    <row r="5740"/>
+    <row r="5741"/>
+    <row r="5742"/>
+    <row r="5743"/>
+    <row r="5744"/>
+    <row r="5745"/>
+    <row r="5746"/>
+    <row r="5747"/>
+    <row r="5748"/>
+    <row r="5749"/>
+    <row r="5750"/>
+    <row r="5751"/>
+    <row r="5752"/>
+    <row r="5753"/>
+    <row r="5754"/>
+    <row r="5755"/>
+    <row r="5756"/>
+    <row r="5757"/>
+    <row r="5758"/>
+    <row r="5759"/>
+    <row r="5760"/>
+    <row r="5761"/>
+    <row r="5762"/>
+    <row r="5763"/>
+    <row r="5764"/>
+    <row r="5765"/>
+    <row r="5766"/>
+    <row r="5767"/>
+    <row r="5768"/>
+    <row r="5769"/>
+    <row r="5770"/>
+    <row r="5771"/>
+    <row r="5772"/>
+    <row r="5773"/>
+    <row r="5774"/>
+    <row r="5775"/>
+    <row r="5776"/>
+    <row r="5777"/>
+    <row r="5778"/>
+    <row r="5779"/>
+    <row r="5780"/>
+    <row r="5781"/>
+    <row r="5782"/>
+    <row r="5783"/>
+    <row r="5784"/>
+    <row r="5785"/>
+    <row r="5786"/>
+    <row r="5787"/>
+    <row r="5788"/>
+    <row r="5789"/>
+    <row r="5790"/>
+    <row r="5791"/>
+    <row r="5792"/>
+    <row r="5793"/>
+    <row r="5794"/>
+    <row r="5795"/>
+    <row r="5796"/>
+    <row r="5797"/>
+    <row r="5798"/>
+    <row r="5799"/>
+    <row r="5800"/>
+    <row r="5801"/>
+    <row r="5802"/>
+    <row r="5803"/>
+    <row r="5804"/>
+    <row r="5805"/>
+    <row r="5806"/>
+    <row r="5807"/>
+    <row r="5808"/>
+    <row r="5809"/>
+    <row r="5810"/>
+    <row r="5811"/>
+    <row r="5812"/>
+    <row r="5813"/>
+    <row r="5814"/>
+    <row r="5815"/>
+    <row r="5816"/>
+    <row r="5817"/>
+    <row r="5818"/>
+    <row r="5819"/>
+    <row r="5820"/>
+    <row r="5821"/>
+    <row r="5822"/>
+    <row r="5823"/>
+    <row r="5824"/>
+    <row r="5825"/>
+    <row r="5826"/>
+    <row r="5827"/>
+    <row r="5828"/>
+    <row r="5829"/>
+    <row r="5830"/>
+    <row r="5831"/>
+    <row r="5832"/>
+    <row r="5833"/>
+    <row r="5834"/>
+    <row r="5835"/>
+    <row r="5836"/>
+    <row r="5837"/>
+    <row r="5838"/>
+    <row r="5839"/>
+    <row r="5840"/>
+    <row r="5841"/>
+    <row r="5842"/>
+    <row r="5843"/>
+    <row r="5844"/>
+    <row r="5845"/>
+    <row r="5846"/>
+    <row r="5847"/>
+    <row r="5848"/>
+    <row r="5849"/>
+    <row r="5850"/>
+    <row r="5851"/>
+    <row r="5852"/>
+    <row r="5853"/>
+    <row r="5854"/>
+    <row r="5855"/>
+    <row r="5856"/>
+    <row r="5857"/>
+    <row r="5858"/>
+    <row r="5859"/>
+    <row r="5860"/>
+    <row r="5861"/>
+    <row r="5862"/>
+    <row r="5863"/>
+    <row r="5864"/>
+    <row r="5865"/>
+    <row r="5866"/>
+    <row r="5867"/>
+    <row r="5868"/>
+    <row r="5869"/>
+    <row r="5870"/>
+    <row r="5871"/>
+    <row r="5872"/>
+    <row r="5873"/>
+    <row r="5874"/>
+    <row r="5875"/>
+    <row r="5876"/>
+    <row r="5877"/>
+    <row r="5878"/>
+    <row r="5879"/>
+    <row r="5880"/>
+    <row r="5881"/>
+    <row r="5882"/>
+    <row r="5883"/>
+    <row r="5884"/>
+    <row r="5885"/>
+    <row r="5886"/>
+    <row r="5887"/>
+    <row r="5888"/>
+    <row r="5889"/>
+    <row r="5890"/>
+    <row r="5891"/>
+    <row r="5892"/>
+    <row r="5893"/>
+    <row r="5894"/>
+    <row r="5895"/>
+    <row r="5896"/>
+    <row r="5897"/>
+    <row r="5898"/>
+    <row r="5899"/>
+    <row r="5900"/>
+    <row r="5901"/>
+    <row r="5902"/>
+    <row r="5903"/>
+    <row r="5904"/>
+    <row r="5905"/>
+    <row r="5906"/>
+    <row r="5907"/>
+    <row r="5908"/>
+    <row r="5909"/>
+    <row r="5910"/>
+    <row r="5911"/>
+    <row r="5912"/>
+    <row r="5913"/>
+    <row r="5914"/>
+    <row r="5915"/>
+    <row r="5916"/>
+    <row r="5917"/>
+    <row r="5918"/>
+    <row r="5919"/>
+    <row r="5920"/>
+    <row r="5921"/>
+    <row r="5922"/>
+    <row r="5923"/>
+    <row r="5924"/>
+    <row r="5925"/>
+    <row r="5926"/>
+    <row r="5927"/>
+    <row r="5928"/>
+    <row r="5929"/>
+    <row r="5930"/>
+    <row r="5931"/>
+    <row r="5932"/>
+    <row r="5933"/>
+    <row r="5934"/>
+    <row r="5935"/>
+    <row r="5936"/>
+    <row r="5937"/>
+    <row r="5938"/>
+    <row r="5939"/>
+    <row r="5940"/>
+    <row r="5941"/>
+    <row r="5942"/>
+    <row r="5943"/>
+    <row r="5944"/>
+    <row r="5945"/>
+    <row r="5946"/>
+    <row r="5947"/>
+    <row r="5948"/>
+    <row r="5949"/>
+    <row r="5950"/>
+    <row r="5951"/>
+    <row r="5952"/>
+    <row r="5953"/>
+    <row r="5954"/>
+    <row r="5955"/>
+    <row r="5956"/>
+    <row r="5957"/>
+    <row r="5958"/>
+    <row r="5959"/>
+    <row r="5960"/>
+    <row r="5961"/>
+    <row r="5962"/>
+    <row r="5963"/>
+    <row r="5964"/>
+    <row r="5965"/>
+    <row r="5966"/>
+    <row r="5967"/>
+    <row r="5968"/>
+    <row r="5969"/>
+    <row r="5970"/>
+    <row r="5971"/>
+    <row r="5972"/>
+    <row r="5973"/>
+    <row r="5974"/>
+    <row r="5975"/>
+    <row r="5976"/>
+    <row r="5977"/>
+    <row r="5978"/>
+    <row r="5979"/>
+    <row r="5980"/>
+    <row r="5981"/>
+    <row r="5982"/>
+    <row r="5983"/>
+    <row r="5984"/>
+    <row r="5985"/>
+    <row r="5986"/>
+    <row r="5987"/>
+    <row r="5988"/>
+    <row r="5989"/>
+    <row r="5990"/>
+    <row r="5991"/>
+    <row r="5992"/>
+    <row r="5993"/>
+    <row r="5994"/>
+    <row r="5995"/>
+    <row r="5996"/>
+    <row r="5997"/>
+    <row r="5998"/>
+    <row r="5999"/>
+    <row r="6000"/>
+    <row r="6001"/>
+    <row r="6002"/>
+    <row r="6003"/>
+    <row r="6004"/>
+    <row r="6005"/>
+    <row r="6006"/>
+    <row r="6007"/>
+    <row r="6008"/>
+    <row r="6009"/>
+    <row r="6010"/>
+    <row r="6011"/>
+    <row r="6012"/>
+    <row r="6013"/>
+    <row r="6014"/>
+    <row r="6015"/>
+    <row r="6016"/>
+    <row r="6017"/>
+    <row r="6018"/>
+    <row r="6019"/>
+    <row r="6020"/>
+    <row r="6021"/>
+    <row r="6022"/>
+    <row r="6023"/>
+    <row r="6024"/>
+    <row r="6025"/>
+    <row r="6026"/>
+    <row r="6027"/>
+    <row r="6028"/>
+    <row r="6029"/>
+    <row r="6030"/>
+    <row r="6031"/>
+    <row r="6032"/>
+    <row r="6033"/>
+    <row r="6034"/>
+    <row r="6035"/>
+    <row r="6036"/>
+    <row r="6037"/>
+    <row r="6038"/>
+    <row r="6039"/>
+    <row r="6040"/>
+    <row r="6041"/>
+    <row r="6042"/>
+    <row r="6043"/>
+    <row r="6044"/>
+    <row r="6045"/>
+    <row r="6046"/>
+    <row r="6047"/>
+    <row r="6048"/>
+    <row r="6049"/>
+    <row r="6050"/>
+    <row r="6051"/>
+    <row r="6052"/>
+    <row r="6053"/>
+    <row r="6054"/>
+    <row r="6055"/>
+    <row r="6056"/>
+    <row r="6057"/>
+    <row r="6058"/>
+    <row r="6059"/>
+    <row r="6060"/>
+    <row r="6061"/>
+    <row r="6062"/>
+    <row r="6063"/>
+    <row r="6064"/>
+    <row r="6065"/>
+    <row r="6066"/>
+    <row r="6067"/>
+    <row r="6068"/>
+    <row r="6069"/>
+    <row r="6070"/>
+    <row r="6071"/>
+    <row r="6072"/>
+    <row r="6073"/>
+    <row r="6074"/>
+    <row r="6075"/>
+    <row r="6076"/>
+    <row r="6077"/>
+    <row r="6078"/>
+    <row r="6079"/>
+    <row r="6080"/>
+    <row r="6081"/>
+    <row r="6082"/>
+    <row r="6083"/>
+    <row r="6084"/>
+    <row r="6085"/>
+    <row r="6086"/>
+    <row r="6087"/>
+    <row r="6088"/>
+    <row r="6089"/>
+    <row r="6090"/>
+    <row r="6091"/>
+    <row r="6092"/>
+    <row r="6093"/>
+    <row r="6094"/>
+    <row r="6095"/>
+    <row r="6096"/>
+    <row r="6097"/>
+    <row r="6098"/>
+    <row r="6099"/>
+    <row r="6100"/>
+    <row r="6101"/>
+    <row r="6102"/>
+    <row r="6103"/>
+    <row r="6104"/>
+    <row r="6105"/>
+    <row r="6106"/>
+    <row r="6107"/>
+    <row r="6108"/>
+    <row r="6109"/>
+    <row r="6110"/>
+    <row r="6111"/>
+    <row r="6112"/>
+    <row r="6113"/>
+    <row r="6114"/>
+    <row r="6115"/>
+    <row r="6116"/>
+    <row r="6117"/>
+    <row r="6118"/>
+    <row r="6119"/>
+    <row r="6120"/>
+    <row r="6121"/>
+    <row r="6122"/>
+    <row r="6123"/>
+    <row r="6124"/>
+    <row r="6125"/>
+    <row r="6126"/>
+    <row r="6127"/>
+    <row r="6128"/>
+    <row r="6129"/>
+    <row r="6130"/>
+    <row r="6131"/>
+    <row r="6132"/>
+    <row r="6133"/>
+    <row r="6134"/>
+    <row r="6135"/>
+    <row r="6136"/>
+    <row r="6137"/>
+    <row r="6138"/>
+    <row r="6139"/>
+    <row r="6140"/>
+    <row r="6141"/>
+    <row r="6142"/>
+    <row r="6143"/>
+    <row r="6144"/>
+    <row r="6145"/>
+    <row r="6146"/>
+    <row r="6147"/>
+    <row r="6148"/>
+    <row r="6149"/>
+    <row r="6150"/>
+    <row r="6151"/>
+    <row r="6152"/>
+    <row r="6153"/>
+    <row r="6154"/>
+    <row r="6155"/>
+    <row r="6156"/>
+    <row r="6157"/>
+    <row r="6158"/>
+    <row r="6159"/>
+    <row r="6160"/>
+    <row r="6161"/>
+    <row r="6162"/>
+    <row r="6163"/>
+    <row r="6164"/>
+    <row r="6165"/>
+    <row r="6166"/>
+    <row r="6167"/>
+    <row r="6168"/>
+    <row r="6169"/>
+    <row r="6170"/>
+    <row r="6171"/>
+    <row r="6172"/>
+    <row r="6173"/>
+    <row r="6174"/>
+    <row r="6175"/>
+    <row r="6176"/>
+    <row r="6177"/>
+    <row r="6178"/>
+    <row r="6179"/>
+    <row r="6180"/>
+    <row r="6181"/>
+    <row r="6182"/>
+    <row r="6183"/>
+    <row r="6184"/>
+    <row r="6185"/>
+    <row r="6186"/>
+    <row r="6187"/>
+    <row r="6188"/>
+    <row r="6189"/>
+    <row r="6190"/>
+    <row r="6191"/>
+    <row r="6192"/>
+    <row r="6193"/>
+    <row r="6194"/>
+    <row r="6195"/>
+    <row r="6196"/>
+    <row r="6197"/>
+    <row r="6198"/>
+    <row r="6199"/>
+    <row r="6200"/>
+    <row r="6201"/>
+    <row r="6202"/>
+    <row r="6203"/>
+    <row r="6204"/>
+    <row r="6205"/>
+    <row r="6206"/>
+    <row r="6207"/>
+    <row r="6208"/>
+    <row r="6209"/>
+    <row r="6210"/>
+    <row r="6211"/>
+    <row r="6212"/>
+    <row r="6213"/>
+    <row r="6214"/>
+    <row r="6215"/>
+    <row r="6216"/>
+    <row r="6217"/>
+    <row r="6218"/>
+    <row r="6219"/>
+    <row r="6220"/>
+    <row r="6221"/>
+    <row r="6222"/>
+    <row r="6223"/>
+    <row r="6224"/>
+    <row r="6225"/>
+    <row r="6226"/>
+    <row r="6227"/>
+    <row r="6228"/>
+    <row r="6229"/>
+    <row r="6230"/>
+    <row r="6231"/>
+    <row r="6232"/>
+    <row r="6233"/>
+    <row r="6234"/>
+    <row r="6235"/>
+    <row r="6236"/>
+    <row r="6237"/>
+    <row r="6238"/>
+    <row r="6239"/>
+    <row r="6240"/>
+    <row r="6241"/>
+    <row r="6242"/>
+    <row r="6243"/>
+    <row r="6244"/>
+    <row r="6245"/>
+    <row r="6246"/>
+    <row r="6247"/>
+    <row r="6248"/>
+    <row r="6249"/>
+    <row r="6250"/>
+    <row r="6251"/>
+    <row r="6252"/>
+    <row r="6253"/>
+    <row r="6254"/>
+    <row r="6255"/>
+    <row r="6256"/>
+    <row r="6257"/>
+    <row r="6258"/>
+    <row r="6259"/>
+    <row r="6260"/>
+    <row r="6261"/>
+    <row r="6262"/>
+    <row r="6263"/>
+    <row r="6264"/>
+    <row r="6265"/>
+    <row r="6266"/>
+    <row r="6267"/>
+    <row r="6268"/>
+    <row r="6269"/>
+    <row r="6270"/>
+    <row r="6271"/>
+    <row r="6272"/>
+    <row r="6273"/>
+    <row r="6274"/>
+    <row r="6275"/>
+    <row r="6276"/>
+    <row r="6277"/>
+    <row r="6278"/>
+    <row r="6279"/>
+    <row r="6280"/>
+    <row r="6281"/>
+    <row r="6282"/>
+    <row r="6283"/>
+    <row r="6284"/>
+    <row r="6285"/>
+    <row r="6286"/>
+    <row r="6287"/>
+    <row r="6288"/>
+    <row r="6289"/>
+    <row r="6290"/>
+    <row r="6291"/>
+    <row r="6292"/>
+    <row r="6293"/>
+    <row r="6294"/>
+    <row r="6295"/>
+    <row r="6296"/>
+    <row r="6297"/>
+    <row r="6298"/>
+    <row r="6299"/>
+    <row r="6300"/>
+    <row r="6301"/>
+    <row r="6302"/>
+    <row r="6303"/>
+    <row r="6304"/>
+    <row r="6305"/>
+    <row r="6306"/>
+    <row r="6307"/>
+    <row r="6308"/>
+    <row r="6309"/>
+    <row r="6310"/>
+    <row r="6311"/>
+    <row r="6312"/>
+    <row r="6313"/>
+    <row r="6314"/>
+    <row r="6315"/>
+    <row r="6316"/>
+    <row r="6317"/>
+    <row r="6318"/>
+    <row r="6319"/>
+    <row r="6320"/>
+    <row r="6321"/>
+    <row r="6322"/>
+    <row r="6323"/>
+    <row r="6324"/>
+    <row r="6325"/>
+    <row r="6326"/>
+    <row r="6327"/>
+    <row r="6328"/>
+    <row r="6329"/>
+    <row r="6330"/>
+    <row r="6331"/>
+    <row r="6332"/>
+    <row r="6333"/>
+    <row r="6334"/>
+    <row r="6335"/>
+    <row r="6336"/>
+    <row r="6337"/>
+    <row r="6338"/>
+    <row r="6339"/>
+    <row r="6340"/>
+    <row r="6341"/>
+    <row r="6342"/>
+    <row r="6343"/>
+    <row r="6344"/>
+    <row r="6345"/>
+    <row r="6346"/>
+    <row r="6347"/>
+    <row r="6348"/>
+    <row r="6349"/>
+    <row r="6350"/>
+    <row r="6351"/>
+    <row r="6352"/>
+    <row r="6353"/>
+    <row r="6354"/>
+    <row r="6355"/>
+    <row r="6356"/>
+    <row r="6357"/>
+    <row r="6358"/>
+    <row r="6359"/>
+    <row r="6360"/>
+    <row r="6361"/>
+    <row r="6362"/>
+    <row r="6363"/>
+    <row r="6364"/>
+    <row r="6365"/>
+    <row r="6366"/>
+    <row r="6367"/>
+    <row r="6368"/>
+    <row r="6369"/>
+    <row r="6370"/>
+    <row r="6371"/>
+    <row r="6372"/>
+    <row r="6373"/>
+    <row r="6374"/>
+    <row r="6375"/>
+    <row r="6376"/>
+    <row r="6377"/>
+    <row r="6378"/>
+    <row r="6379"/>
+    <row r="6380"/>
+    <row r="6381"/>
+    <row r="6382"/>
+    <row r="6383"/>
+    <row r="6384"/>
+    <row r="6385"/>
+    <row r="6386"/>
+    <row r="6387"/>
+    <row r="6388"/>
+    <row r="6389"/>
+    <row r="6390"/>
+    <row r="6391"/>
+    <row r="6392"/>
+    <row r="6393"/>
+    <row r="6394"/>
+    <row r="6395"/>
+    <row r="6396"/>
+    <row r="6397"/>
+    <row r="6398"/>
+    <row r="6399"/>
+    <row r="6400"/>
+    <row r="6401"/>
+    <row r="6402"/>
+    <row r="6403"/>
+    <row r="6404"/>
+    <row r="6405"/>
+    <row r="6406"/>
+    <row r="6407"/>
+    <row r="6408"/>
+    <row r="6409"/>
+    <row r="6410"/>
+    <row r="6411"/>
+    <row r="6412"/>
+    <row r="6413"/>
+    <row r="6414"/>
+    <row r="6415"/>
+    <row r="6416"/>
+    <row r="6417"/>
+    <row r="6418"/>
+    <row r="6419"/>
+    <row r="6420"/>
+    <row r="6421"/>
+    <row r="6422"/>
+    <row r="6423"/>
+    <row r="6424"/>
+    <row r="6425"/>
+    <row r="6426"/>
+    <row r="6427"/>
+    <row r="6428"/>
+    <row r="6429"/>
+    <row r="6430"/>
+    <row r="6431"/>
+    <row r="6432"/>
+    <row r="6433"/>
+    <row r="6434"/>
+    <row r="6435"/>
+    <row r="6436"/>
+    <row r="6437"/>
+    <row r="6438"/>
+    <row r="6439"/>
+    <row r="6440"/>
+    <row r="6441"/>
+    <row r="6442"/>
+    <row r="6443"/>
+    <row r="6444"/>
+    <row r="6445"/>
+    <row r="6446"/>
+    <row r="6447"/>
+    <row r="6448"/>
+    <row r="6449"/>
+    <row r="6450"/>
+    <row r="6451"/>
+    <row r="6452"/>
+    <row r="6453"/>
+    <row r="6454"/>
+    <row r="6455"/>
+    <row r="6456"/>
+    <row r="6457"/>
+    <row r="6458"/>
+    <row r="6459"/>
+    <row r="6460"/>
+    <row r="6461"/>
+    <row r="6462"/>
+    <row r="6463"/>
+    <row r="6464"/>
+    <row r="6465"/>
+    <row r="6466"/>
+    <row r="6467"/>
+    <row r="6468"/>
+    <row r="6469"/>
+    <row r="6470"/>
+    <row r="6471"/>
+    <row r="6472"/>
+    <row r="6473"/>
+    <row r="6474"/>
+    <row r="6475"/>
+    <row r="6476"/>
+    <row r="6477"/>
+    <row r="6478"/>
+    <row r="6479"/>
+    <row r="6480"/>
+    <row r="6481"/>
+    <row r="6482"/>
+    <row r="6483"/>
+    <row r="6484"/>
+    <row r="6485"/>
+    <row r="6486"/>
+    <row r="6487"/>
+    <row r="6488"/>
+    <row r="6489"/>
+    <row r="6490"/>
+    <row r="6491"/>
+    <row r="6492"/>
+    <row r="6493"/>
+    <row r="6494"/>
+    <row r="6495"/>
+    <row r="6496"/>
+    <row r="6497"/>
+    <row r="6498"/>
+    <row r="6499"/>
+    <row r="6500"/>
+    <row r="6501"/>
+    <row r="6502"/>
+    <row r="6503"/>
+    <row r="6504"/>
+    <row r="6505"/>
+    <row r="6506"/>
+    <row r="6507"/>
+    <row r="6508"/>
+    <row r="6509"/>
+    <row r="6510"/>
+    <row r="6511"/>
+    <row r="6512"/>
+    <row r="6513"/>
+    <row r="6514"/>
+    <row r="6515"/>
+    <row r="6516"/>
+    <row r="6517"/>
+    <row r="6518"/>
+    <row r="6519"/>
+    <row r="6520"/>
+    <row r="6521"/>
+    <row r="6522"/>
+    <row r="6523"/>
+    <row r="6524"/>
+    <row r="6525"/>
+    <row r="6526"/>
+    <row r="6527"/>
+    <row r="6528"/>
+    <row r="6529"/>
+    <row r="6530"/>
+    <row r="6531"/>
+    <row r="6532"/>
+    <row r="6533"/>
+    <row r="6534"/>
+    <row r="6535"/>
+    <row r="6536"/>
+    <row r="6537"/>
+    <row r="6538"/>
+    <row r="6539"/>
+    <row r="6540"/>
+    <row r="6541"/>
+    <row r="6542"/>
+    <row r="6543"/>
+    <row r="6544"/>
+    <row r="6545"/>
+    <row r="6546"/>
+    <row r="6547"/>
+    <row r="6548"/>
+    <row r="6549"/>
+    <row r="6550"/>
+    <row r="6551"/>
+    <row r="6552"/>
+    <row r="6553"/>
+    <row r="6554"/>
+    <row r="6555"/>
+    <row r="6556"/>
+    <row r="6557"/>
+    <row r="6558"/>
+    <row r="6559"/>
+    <row r="6560"/>
+    <row r="6561"/>
+    <row r="6562"/>
+    <row r="6563"/>
+    <row r="6564"/>
+    <row r="6565"/>
+    <row r="6566"/>
+    <row r="6567"/>
+    <row r="6568"/>
+    <row r="6569"/>
+    <row r="6570"/>
+    <row r="6571"/>
+    <row r="6572"/>
+    <row r="6573"/>
+    <row r="6574"/>
+    <row r="6575"/>
+    <row r="6576"/>
+    <row r="6577"/>
+    <row r="6578"/>
+    <row r="6579"/>
+    <row r="6580"/>
+    <row r="6581"/>
+    <row r="6582"/>
+    <row r="6583"/>
+    <row r="6584"/>
+    <row r="6585"/>
+    <row r="6586"/>
+    <row r="6587"/>
+    <row r="6588"/>
+    <row r="6589"/>
+    <row r="6590"/>
+    <row r="6591"/>
+    <row r="6592"/>
+    <row r="6593"/>
+    <row r="6594"/>
+    <row r="6595"/>
+    <row r="6596"/>
+    <row r="6597"/>
+    <row r="6598"/>
+    <row r="6599"/>
+    <row r="6600"/>
+    <row r="6601"/>
+    <row r="6602"/>
+    <row r="6603"/>
+    <row r="6604"/>
+    <row r="6605"/>
+    <row r="6606"/>
+    <row r="6607"/>
+    <row r="6608"/>
+    <row r="6609"/>
+    <row r="6610"/>
+    <row r="6611"/>
+    <row r="6612"/>
+    <row r="6613"/>
+    <row r="6614"/>
+    <row r="6615"/>
+    <row r="6616"/>
+    <row r="6617"/>
+    <row r="6618"/>
+    <row r="6619"/>
+    <row r="6620"/>
+    <row r="6621"/>
+    <row r="6622"/>
+    <row r="6623"/>
+    <row r="6624"/>
+    <row r="6625"/>
+    <row r="6626"/>
+    <row r="6627"/>
+    <row r="6628"/>
+    <row r="6629"/>
+    <row r="6630"/>
+    <row r="6631"/>
+    <row r="6632"/>
+    <row r="6633"/>
+    <row r="6634"/>
+    <row r="6635"/>
+    <row r="6636"/>
+    <row r="6637"/>
+    <row r="6638"/>
+    <row r="6639"/>
+    <row r="6640"/>
+    <row r="6641"/>
+    <row r="6642"/>
+    <row r="6643"/>
+    <row r="6644"/>
+    <row r="6645"/>
+    <row r="6646"/>
+    <row r="6647"/>
+    <row r="6648"/>
+    <row r="6649"/>
+    <row r="6650"/>
+    <row r="6651"/>
+    <row r="6652"/>
+    <row r="6653"/>
+    <row r="6654"/>
+    <row r="6655"/>
+    <row r="6656"/>
+    <row r="6657"/>
+    <row r="6658"/>
+    <row r="6659"/>
+    <row r="6660"/>
+    <row r="6661"/>
+    <row r="6662"/>
+    <row r="6663"/>
+    <row r="6664"/>
+    <row r="6665"/>
+    <row r="6666"/>
+    <row r="6667"/>
+    <row r="6668"/>
+    <row r="6669"/>
+    <row r="6670"/>
+    <row r="6671"/>
+    <row r="6672"/>
+    <row r="6673"/>
+    <row r="6674"/>
+    <row r="6675"/>
+    <row r="6676"/>
+    <row r="6677"/>
+    <row r="6678"/>
+    <row r="6679"/>
+    <row r="6680"/>
+    <row r="6681"/>
+    <row r="6682"/>
+    <row r="6683"/>
+    <row r="6684"/>
+    <row r="6685"/>
+    <row r="6686"/>
+    <row r="6687"/>
+    <row r="6688"/>
+    <row r="6689"/>
+    <row r="6690"/>
+    <row r="6691"/>
+    <row r="6692"/>
+    <row r="6693"/>
+    <row r="6694"/>
+    <row r="6695"/>
+    <row r="6696"/>
+    <row r="6697"/>
+    <row r="6698"/>
+    <row r="6699"/>
+    <row r="6700"/>
+    <row r="6701"/>
+    <row r="6702"/>
+    <row r="6703"/>
+    <row r="6704"/>
+    <row r="6705"/>
+    <row r="6706"/>
+    <row r="6707"/>
+    <row r="6708"/>
+    <row r="6709"/>
+    <row r="6710"/>
+    <row r="6711"/>
+    <row r="6712"/>
+    <row r="6713"/>
+    <row r="6714"/>
+    <row r="6715"/>
+    <row r="6716"/>
+    <row r="6717"/>
+    <row r="6718"/>
+    <row r="6719"/>
+    <row r="6720"/>
+    <row r="6721"/>
+    <row r="6722"/>
+    <row r="6723"/>
+    <row r="6724"/>
+    <row r="6725"/>
+    <row r="6726"/>
+    <row r="6727"/>
+    <row r="6728"/>
+    <row r="6729"/>
+    <row r="6730"/>
+    <row r="6731"/>
+    <row r="6732"/>
+    <row r="6733"/>
+    <row r="6734"/>
+    <row r="6735"/>
+    <row r="6736"/>
+    <row r="6737"/>
+    <row r="6738"/>
+    <row r="6739"/>
+    <row r="6740"/>
+    <row r="6741"/>
+    <row r="6742"/>
+    <row r="6743"/>
+    <row r="6744"/>
+    <row r="6745"/>
+    <row r="6746"/>
+    <row r="6747"/>
+    <row r="6748"/>
+    <row r="6749"/>
+    <row r="6750"/>
+    <row r="6751"/>
+    <row r="6752"/>
+    <row r="6753"/>
+    <row r="6754"/>
+    <row r="6755"/>
+    <row r="6756"/>
+    <row r="6757"/>
+    <row r="6758"/>
+    <row r="6759"/>
+    <row r="6760"/>
+    <row r="6761"/>
+    <row r="6762"/>
+    <row r="6763"/>
+    <row r="6764"/>
+    <row r="6765"/>
+    <row r="6766"/>
+    <row r="6767"/>
+    <row r="6768"/>
+    <row r="6769"/>
+    <row r="6770"/>
+    <row r="6771"/>
+    <row r="6772"/>
+    <row r="6773"/>
+    <row r="6774"/>
+    <row r="6775"/>
+    <row r="6776"/>
+    <row r="6777"/>
+    <row r="6778"/>
+    <row r="6779"/>
+    <row r="6780"/>
+    <row r="6781"/>
+    <row r="6782"/>
+    <row r="6783"/>
+    <row r="6784"/>
+    <row r="6785"/>
+    <row r="6786"/>
+    <row r="6787"/>
+    <row r="6788"/>
+    <row r="6789"/>
+    <row r="6790"/>
+    <row r="6791"/>
+    <row r="6792"/>
+    <row r="6793"/>
+    <row r="6794"/>
+    <row r="6795"/>
+    <row r="6796"/>
+    <row r="6797"/>
+    <row r="6798"/>
+    <row r="6799"/>
+    <row r="6800"/>
+    <row r="6801"/>
+    <row r="6802"/>
+    <row r="6803"/>
+    <row r="6804"/>
+    <row r="6805"/>
+    <row r="6806"/>
+    <row r="6807"/>
+    <row r="6808"/>
+    <row r="6809"/>
+    <row r="6810"/>
+    <row r="6811"/>
+    <row r="6812"/>
+    <row r="6813"/>
+    <row r="6814"/>
+    <row r="6815"/>
+    <row r="6816"/>
+    <row r="6817"/>
+    <row r="6818"/>
+    <row r="6819"/>
+    <row r="6820"/>
+    <row r="6821"/>
+    <row r="6822"/>
+    <row r="6823"/>
+    <row r="6824"/>
+    <row r="6825"/>
+    <row r="6826"/>
+    <row r="6827"/>
+    <row r="6828"/>
+    <row r="6829"/>
+    <row r="6830"/>
+    <row r="6831"/>
+    <row r="6832"/>
+    <row r="6833"/>
+    <row r="6834"/>
+    <row r="6835"/>
+    <row r="6836"/>
+    <row r="6837"/>
+    <row r="6838"/>
+    <row r="6839"/>
+    <row r="6840"/>
+    <row r="6841"/>
+    <row r="6842"/>
+    <row r="6843"/>
+    <row r="6844"/>
+    <row r="6845"/>
+    <row r="6846"/>
+    <row r="6847"/>
+    <row r="6848"/>
+    <row r="6849"/>
+    <row r="6850"/>
+    <row r="6851"/>
+    <row r="6852"/>
+    <row r="6853"/>
+    <row r="6854"/>
+    <row r="6855"/>
+    <row r="6856"/>
+    <row r="6857"/>
+    <row r="6858"/>
+    <row r="6859"/>
+    <row r="6860"/>
+    <row r="6861"/>
+    <row r="6862"/>
+    <row r="6863"/>
+    <row r="6864"/>
+    <row r="6865"/>
+    <row r="6866"/>
+    <row r="6867"/>
+    <row r="6868"/>
+    <row r="6869"/>
+    <row r="6870"/>
+    <row r="6871"/>
+    <row r="6872"/>
+    <row r="6873"/>
+    <row r="6874"/>
+    <row r="6875"/>
+    <row r="6876"/>
+    <row r="6877"/>
+    <row r="6878"/>
+    <row r="6879"/>
+    <row r="6880"/>
+    <row r="6881"/>
+    <row r="6882"/>
+    <row r="6883"/>
+    <row r="6884"/>
+    <row r="6885"/>
+    <row r="6886"/>
+    <row r="6887"/>
+    <row r="6888"/>
+    <row r="6889"/>
+    <row r="6890"/>
+    <row r="6891"/>
+    <row r="6892"/>
+    <row r="6893"/>
+    <row r="6894"/>
+    <row r="6895"/>
+    <row r="6896"/>
+    <row r="6897"/>
+    <row r="6898"/>
+    <row r="6899"/>
+    <row r="6900"/>
+    <row r="6901"/>
+    <row r="6902"/>
+    <row r="6903"/>
+    <row r="6904"/>
+    <row r="6905"/>
+    <row r="6906"/>
+    <row r="6907"/>
+    <row r="6908"/>
+    <row r="6909"/>
+    <row r="6910"/>
+    <row r="6911"/>
+    <row r="6912"/>
+    <row r="6913"/>
+    <row r="6914"/>
+    <row r="6915"/>
+    <row r="6916"/>
+    <row r="6917"/>
+    <row r="6918"/>
+    <row r="6919"/>
+    <row r="6920"/>
+    <row r="6921"/>
+    <row r="6922"/>
+    <row r="6923"/>
+    <row r="6924"/>
+    <row r="6925"/>
+    <row r="6926"/>
+    <row r="6927"/>
+    <row r="6928"/>
+    <row r="6929"/>
+    <row r="6930"/>
+    <row r="6931"/>
+    <row r="6932"/>
+    <row r="6933"/>
+    <row r="6934"/>
+    <row r="6935"/>
+    <row r="6936"/>
+    <row r="6937"/>
+    <row r="6938"/>
+    <row r="6939"/>
+    <row r="6940"/>
+    <row r="6941"/>
+    <row r="6942"/>
+    <row r="6943"/>
+    <row r="6944"/>
+    <row r="6945"/>
+    <row r="6946"/>
+    <row r="6947"/>
+    <row r="6948"/>
+    <row r="6949"/>
+    <row r="6950"/>
+    <row r="6951"/>
+    <row r="6952"/>
+    <row r="6953"/>
+    <row r="6954"/>
+    <row r="6955"/>
+    <row r="6956"/>
+    <row r="6957"/>
+    <row r="6958"/>
+    <row r="6959"/>
+    <row r="6960"/>
+    <row r="6961"/>
+    <row r="6962"/>
+    <row r="6963"/>
+    <row r="6964"/>
+    <row r="6965"/>
+    <row r="6966"/>
+    <row r="6967"/>
+    <row r="6968"/>
+    <row r="6969"/>
+    <row r="6970"/>
+    <row r="6971"/>
+    <row r="6972"/>
+    <row r="6973"/>
+    <row r="6974"/>
+    <row r="6975"/>
+    <row r="6976"/>
+    <row r="6977"/>
+    <row r="6978"/>
+    <row r="6979"/>
+    <row r="6980"/>
+    <row r="6981"/>
+    <row r="6982"/>
+    <row r="6983"/>
+    <row r="6984"/>
+    <row r="6985"/>
+    <row r="6986"/>
+    <row r="6987"/>
+    <row r="6988"/>
+    <row r="6989"/>
+    <row r="6990"/>
+    <row r="6991"/>
+    <row r="6992"/>
+    <row r="6993"/>
+    <row r="6994"/>
+    <row r="6995"/>
+    <row r="6996"/>
+    <row r="6997"/>
+    <row r="6998"/>
+    <row r="6999"/>
+    <row r="7000"/>
+    <row r="7001"/>
+    <row r="7002"/>
+    <row r="7003"/>
+    <row r="7004"/>
+    <row r="7005"/>
+    <row r="7006"/>
+    <row r="7007"/>
+    <row r="7008"/>
+    <row r="7009"/>
+    <row r="7010"/>
+    <row r="7011"/>
+    <row r="7012"/>
+    <row r="7013"/>
+    <row r="7014"/>
+    <row r="7015"/>
+    <row r="7016"/>
+    <row r="7017"/>
+    <row r="7018"/>
+    <row r="7019"/>
+    <row r="7020"/>
+    <row r="7021"/>
+    <row r="7022"/>
+    <row r="7023"/>
+    <row r="7024"/>
+    <row r="7025"/>
+    <row r="7026"/>
+    <row r="7027"/>
+    <row r="7028"/>
+    <row r="7029"/>
+    <row r="7030"/>
+    <row r="7031"/>
+    <row r="7032"/>
+    <row r="7033"/>
+    <row r="7034"/>
+    <row r="7035"/>
+    <row r="7036"/>
+    <row r="7037"/>
+    <row r="7038"/>
+    <row r="7039"/>
+    <row r="7040"/>
+    <row r="7041"/>
+    <row r="7042"/>
+    <row r="7043"/>
+    <row r="7044"/>
+    <row r="7045"/>
+    <row r="7046"/>
+    <row r="7047"/>
+    <row r="7048"/>
+    <row r="7049"/>
+    <row r="7050"/>
+    <row r="7051"/>
+    <row r="7052"/>
+    <row r="7053"/>
+    <row r="7054"/>
+    <row r="7055"/>
+    <row r="7056"/>
+    <row r="7057"/>
+    <row r="7058"/>
+    <row r="7059"/>
+    <row r="7060"/>
+    <row r="7061"/>
+    <row r="7062"/>
+    <row r="7063"/>
+    <row r="7064"/>
+    <row r="7065"/>
+    <row r="7066"/>
+    <row r="7067"/>
+    <row r="7068"/>
+    <row r="7069"/>
+    <row r="7070"/>
+    <row r="7071"/>
+    <row r="7072"/>
+    <row r="7073"/>
+    <row r="7074"/>
+    <row r="7075"/>
+    <row r="7076"/>
+    <row r="7077"/>
+    <row r="7078"/>
+    <row r="7079"/>
+    <row r="7080"/>
+    <row r="7081"/>
+    <row r="7082"/>
+    <row r="7083"/>
+    <row r="7084"/>
+    <row r="7085"/>
+    <row r="7086"/>
+    <row r="7087"/>
+    <row r="7088"/>
+    <row r="7089"/>
+    <row r="7090"/>
+    <row r="7091"/>
+    <row r="7092"/>
+    <row r="7093"/>
+    <row r="7094"/>
+    <row r="7095"/>
+    <row r="7096"/>
+    <row r="7097"/>
+    <row r="7098"/>
+    <row r="7099"/>
+    <row r="7100"/>
+    <row r="7101"/>
+    <row r="7102"/>
+    <row r="7103"/>
+    <row r="7104"/>
+    <row r="7105"/>
+    <row r="7106"/>
+    <row r="7107"/>
+    <row r="7108"/>
+    <row r="7109"/>
+    <row r="7110"/>
+    <row r="7111"/>
+    <row r="7112"/>
+    <row r="7113"/>
+    <row r="7114"/>
+    <row r="7115"/>
+    <row r="7116"/>
+    <row r="7117"/>
+    <row r="7118"/>
+    <row r="7119"/>
+    <row r="7120"/>
+    <row r="7121"/>
+    <row r="7122"/>
+    <row r="7123"/>
+    <row r="7124"/>
+    <row r="7125"/>
+    <row r="7126"/>
+    <row r="7127"/>
+    <row r="7128"/>
+    <row r="7129"/>
+    <row r="7130"/>
+    <row r="7131"/>
+    <row r="7132"/>
+    <row r="7133"/>
+    <row r="7134"/>
+    <row r="7135"/>
+    <row r="7136"/>
+    <row r="7137"/>
+    <row r="7138"/>
+    <row r="7139"/>
+    <row r="7140"/>
+    <row r="7141"/>
+    <row r="7142"/>
+    <row r="7143"/>
+    <row r="7144"/>
+    <row r="7145"/>
+    <row r="7146"/>
+    <row r="7147"/>
+    <row r="7148"/>
+    <row r="7149"/>
+    <row r="7150"/>
+    <row r="7151"/>
+    <row r="7152"/>
+    <row r="7153"/>
+    <row r="7154"/>
+    <row r="7155"/>
+    <row r="7156"/>
+    <row r="7157"/>
+    <row r="7158"/>
+    <row r="7159"/>
+    <row r="7160"/>
+    <row r="7161"/>
+    <row r="7162"/>
+    <row r="7163"/>
+    <row r="7164"/>
+    <row r="7165"/>
+    <row r="7166"/>
+    <row r="7167"/>
+    <row r="7168"/>
+    <row r="7169"/>
+    <row r="7170"/>
+    <row r="7171"/>
+    <row r="7172"/>
+    <row r="7173"/>
+    <row r="7174"/>
+    <row r="7175"/>
+    <row r="7176"/>
+    <row r="7177"/>
+    <row r="7178"/>
+    <row r="7179"/>
+    <row r="7180"/>
+    <row r="7181"/>
+    <row r="7182"/>
+    <row r="7183"/>
+    <row r="7184"/>
+    <row r="7185"/>
+    <row r="7186"/>
+    <row r="7187"/>
+    <row r="7188"/>
+    <row r="7189"/>
+    <row r="7190"/>
+    <row r="7191"/>
+    <row r="7192"/>
+    <row r="7193"/>
+    <row r="7194"/>
+    <row r="7195"/>
+    <row r="7196"/>
+    <row r="7197"/>
+    <row r="7198"/>
+    <row r="7199"/>
+    <row r="7200"/>
+    <row r="7201"/>
+    <row r="7202"/>
+    <row r="7203"/>
+    <row r="7204"/>
+    <row r="7205"/>
+    <row r="7206"/>
+    <row r="7207"/>
+    <row r="7208"/>
+    <row r="7209"/>
+    <row r="7210"/>
+    <row r="7211"/>
+    <row r="7212"/>
+    <row r="7213"/>
+    <row r="7214"/>
+    <row r="7215"/>
+    <row r="7216"/>
+    <row r="7217"/>
+    <row r="7218"/>
+    <row r="7219"/>
+    <row r="7220"/>
+    <row r="7221"/>
+    <row r="7222"/>
+    <row r="7223"/>
+    <row r="7224"/>
+    <row r="7225"/>
+    <row r="7226"/>
+    <row r="7227"/>
+    <row r="7228"/>
+    <row r="7229"/>
+    <row r="7230"/>
+    <row r="7231"/>
+    <row r="7232"/>
+    <row r="7233"/>
+    <row r="7234"/>
+    <row r="7235"/>
+    <row r="7236"/>
+    <row r="7237"/>
+    <row r="7238"/>
+    <row r="7239"/>
+    <row r="7240"/>
+    <row r="7241"/>
+    <row r="7242"/>
+    <row r="7243"/>
+    <row r="7244"/>
+    <row r="7245"/>
+    <row r="7246"/>
+    <row r="7247"/>
+    <row r="7248"/>
+    <row r="7249"/>
+    <row r="7250"/>
+    <row r="7251"/>
+    <row r="7252"/>
+    <row r="7253"/>
+    <row r="7254"/>
+    <row r="7255"/>
+    <row r="7256"/>
+    <row r="7257"/>
+    <row r="7258"/>
+    <row r="7259"/>
+    <row r="7260"/>
+    <row r="7261"/>
+    <row r="7262"/>
+    <row r="7263"/>
+    <row r="7264"/>
+    <row r="7265"/>
+    <row r="7266"/>
+    <row r="7267"/>
+    <row r="7268"/>
+    <row r="7269"/>
+    <row r="7270"/>
+    <row r="7271"/>
+    <row r="7272"/>
+    <row r="7273"/>
+    <row r="7274"/>
+    <row r="7275"/>
+    <row r="7276"/>
+    <row r="7277"/>
+    <row r="7278"/>
+    <row r="7279"/>
+    <row r="7280"/>
+    <row r="7281"/>
+    <row r="7282"/>
+    <row r="7283"/>
+    <row r="7284"/>
+    <row r="7285"/>
+    <row r="7286"/>
+    <row r="7287"/>
+    <row r="7288"/>
+    <row r="7289"/>
+    <row r="7290"/>
+    <row r="7291"/>
+    <row r="7292"/>
+    <row r="7293"/>
+    <row r="7294"/>
+    <row r="7295"/>
+    <row r="7296"/>
+    <row r="7297"/>
+    <row r="7298"/>
+    <row r="7299"/>
+    <row r="7300"/>
+    <row r="7301"/>
+    <row r="7302"/>
+    <row r="7303"/>
+    <row r="7304"/>
+    <row r="7305"/>
+    <row r="7306"/>
+    <row r="7307"/>
+    <row r="7308"/>
+    <row r="7309"/>
+    <row r="7310"/>
+    <row r="7311"/>
+    <row r="7312"/>
+    <row r="7313"/>
+    <row r="7314"/>
+    <row r="7315"/>
+    <row r="7316"/>
+    <row r="7317"/>
+    <row r="7318"/>
+    <row r="7319"/>
+    <row r="7320"/>
+    <row r="7321"/>
+    <row r="7322"/>
+    <row r="7323"/>
+    <row r="7324"/>
+    <row r="7325"/>
+    <row r="7326"/>
+    <row r="7327"/>
+    <row r="7328"/>
+    <row r="7329"/>
+    <row r="7330"/>
+    <row r="7331"/>
+    <row r="7332"/>
+    <row r="7333"/>
+    <row r="7334"/>
+    <row r="7335"/>
+    <row r="7336"/>
+    <row r="7337"/>
+    <row r="7338"/>
+    <row r="7339"/>
+    <row r="7340"/>
+    <row r="7341"/>
+    <row r="7342"/>
+    <row r="7343"/>
+    <row r="7344"/>
+    <row r="7345"/>
+    <row r="7346"/>
+    <row r="7347"/>
+    <row r="7348"/>
+    <row r="7349"/>
+    <row r="7350"/>
+    <row r="7351"/>
+    <row r="7352"/>
+    <row r="7353"/>
+    <row r="7354"/>
+    <row r="7355"/>
+    <row r="7356"/>
+    <row r="7357"/>
+    <row r="7358"/>
+    <row r="7359"/>
+    <row r="7360"/>
+    <row r="7361"/>
+    <row r="7362"/>
+    <row r="7363"/>
+    <row r="7364"/>
+    <row r="7365"/>
+    <row r="7366"/>
+    <row r="7367"/>
+    <row r="7368"/>
+    <row r="7369"/>
+    <row r="7370"/>
+    <row r="7371"/>
+    <row r="7372"/>
+    <row r="7373"/>
+    <row r="7374"/>
+    <row r="7375"/>
+    <row r="7376"/>
+    <row r="7377"/>
+    <row r="7378"/>
+    <row r="7379"/>
+    <row r="7380"/>
+    <row r="7381"/>
+    <row r="7382"/>
+    <row r="7383"/>
+    <row r="7384"/>
+    <row r="7385"/>
+    <row r="7386"/>
+    <row r="7387"/>
+    <row r="7388"/>
+    <row r="7389"/>
+    <row r="7390"/>
+    <row r="7391"/>
+    <row r="7392"/>
+    <row r="7393"/>
+    <row r="7394"/>
+    <row r="7395"/>
+    <row r="7396"/>
+    <row r="7397"/>
+    <row r="7398"/>
+    <row r="7399"/>
+    <row r="7400"/>
+    <row r="7401"/>
+    <row r="7402"/>
+    <row r="7403"/>
+    <row r="7404"/>
+    <row r="7405"/>
+    <row r="7406"/>
+    <row r="7407"/>
+    <row r="7408"/>
+    <row r="7409"/>
+    <row r="7410"/>
+    <row r="7411"/>
+    <row r="7412"/>
+    <row r="7413"/>
+    <row r="7414"/>
+    <row r="7415"/>
+    <row r="7416"/>
+    <row r="7417"/>
+    <row r="7418"/>
+    <row r="7419"/>
+    <row r="7420"/>
+    <row r="7421"/>
+    <row r="7422"/>
+    <row r="7423"/>
+    <row r="7424"/>
+    <row r="7425"/>
+    <row r="7426"/>
+    <row r="7427"/>
+    <row r="7428"/>
+    <row r="7429"/>
+    <row r="7430"/>
+    <row r="7431"/>
+    <row r="7432"/>
+    <row r="7433"/>
+    <row r="7434"/>
+    <row r="7435"/>
+    <row r="7436"/>
+    <row r="7437"/>
+    <row r="7438"/>
+    <row r="7439"/>
+    <row r="7440"/>
+    <row r="7441"/>
+    <row r="7442"/>
+    <row r="7443"/>
+    <row r="7444"/>
+    <row r="7445"/>
+    <row r="7446"/>
+    <row r="7447"/>
+    <row r="7448"/>
+    <row r="7449"/>
+    <row r="7450"/>
+    <row r="7451"/>
+    <row r="7452"/>
+    <row r="7453"/>
+    <row r="7454"/>
+    <row r="7455"/>
+    <row r="7456"/>
+    <row r="7457"/>
+    <row r="7458"/>
+    <row r="7459"/>
+    <row r="7460"/>
+    <row r="7461"/>
+    <row r="7462"/>
+    <row r="7463"/>
+    <row r="7464"/>
+    <row r="7465"/>
+    <row r="7466"/>
+    <row r="7467"/>
+    <row r="7468"/>
+    <row r="7469"/>
+    <row r="7470"/>
+    <row r="7471"/>
+    <row r="7472"/>
+    <row r="7473"/>
+    <row r="7474"/>
+    <row r="7475"/>
+    <row r="7476"/>
+    <row r="7477"/>
+    <row r="7478"/>
+    <row r="7479"/>
+    <row r="7480"/>
+    <row r="7481"/>
+    <row r="7482"/>
+    <row r="7483"/>
+    <row r="7484"/>
+    <row r="7485"/>
+    <row r="7486"/>
+    <row r="7487"/>
+    <row r="7488"/>
+    <row r="7489"/>
+    <row r="7490"/>
+    <row r="7491"/>
+    <row r="7492"/>
+    <row r="7493"/>
+    <row r="7494"/>
+    <row r="7495"/>
+    <row r="7496"/>
+    <row r="7497"/>
+    <row r="7498"/>
+    <row r="7499"/>
+    <row r="7500"/>
+    <row r="7501"/>
+    <row r="7502"/>
+    <row r="7503"/>
+    <row r="7504"/>
+    <row r="7505"/>
+    <row r="7506"/>
+    <row r="7507"/>
+    <row r="7508"/>
+    <row r="7509"/>
+    <row r="7510"/>
+    <row r="7511"/>
+    <row r="7512"/>
+    <row r="7513"/>
+    <row r="7514"/>
+    <row r="7515"/>
+    <row r="7516"/>
+    <row r="7517"/>
+    <row r="7518"/>
+    <row r="7519"/>
+    <row r="7520"/>
+    <row r="7521"/>
+    <row r="7522"/>
+    <row r="7523"/>
+    <row r="7524"/>
+    <row r="7525"/>
+    <row r="7526"/>
+    <row r="7527"/>
+    <row r="7528"/>
+    <row r="7529"/>
+    <row r="7530"/>
+    <row r="7531"/>
+    <row r="7532"/>
+    <row r="7533"/>
+    <row r="7534"/>
+    <row r="7535"/>
+    <row r="7536"/>
+    <row r="7537"/>
+    <row r="7538"/>
+    <row r="7539"/>
+    <row r="7540"/>
+    <row r="7541"/>
+    <row r="7542"/>
+    <row r="7543"/>
+    <row r="7544"/>
+    <row r="7545"/>
+    <row r="7546"/>
+    <row r="7547"/>
+    <row r="7548"/>
+    <row r="7549"/>
+    <row r="7550"/>
+    <row r="7551"/>
+    <row r="7552"/>
+    <row r="7553"/>
+    <row r="7554"/>
+    <row r="7555"/>
+    <row r="7556"/>
+    <row r="7557"/>
+    <row r="7558"/>
+    <row r="7559"/>
+    <row r="7560"/>
+    <row r="7561"/>
+    <row r="7562"/>
+    <row r="7563"/>
+    <row r="7564"/>
+    <row r="7565"/>
+    <row r="7566"/>
+    <row r="7567"/>
+    <row r="7568"/>
+    <row r="7569"/>
+    <row r="7570"/>
+    <row r="7571"/>
+    <row r="7572"/>
+    <row r="7573"/>
+    <row r="7574"/>
+    <row r="7575"/>
+    <row r="7576"/>
+    <row r="7577"/>
+    <row r="7578"/>
+    <row r="7579"/>
+    <row r="7580"/>
+    <row r="7581"/>
+    <row r="7582"/>
+    <row r="7583"/>
+    <row r="7584"/>
+    <row r="7585"/>
+    <row r="7586"/>
+    <row r="7587"/>
+    <row r="7588"/>
+    <row r="7589"/>
+    <row r="7590"/>
+    <row r="7591"/>
+    <row r="7592"/>
+    <row r="7593"/>
+    <row r="7594"/>
+    <row r="7595"/>
+    <row r="7596"/>
+    <row r="7597"/>
+    <row r="7598"/>
+    <row r="7599"/>
+    <row r="7600"/>
+    <row r="7601"/>
+    <row r="7602"/>
+    <row r="7603"/>
+    <row r="7604"/>
+    <row r="7605"/>
+    <row r="7606"/>
+    <row r="7607"/>
+    <row r="7608"/>
+    <row r="7609"/>
+    <row r="7610"/>
+    <row r="7611"/>
+    <row r="7612"/>
+    <row r="7613"/>
+    <row r="7614"/>
+    <row r="7615"/>
+    <row r="7616"/>
+    <row r="7617"/>
+    <row r="7618"/>
+    <row r="7619"/>
+    <row r="7620"/>
+    <row r="7621"/>
+    <row r="7622"/>
+    <row r="7623"/>
+    <row r="7624"/>
+    <row r="7625"/>
+    <row r="7626"/>
+    <row r="7627"/>
+    <row r="7628"/>
+    <row r="7629"/>
+    <row r="7630"/>
+    <row r="7631"/>
+    <row r="7632"/>
+    <row r="7633"/>
+    <row r="7634"/>
+    <row r="7635"/>
+    <row r="7636"/>
+    <row r="7637"/>
+    <row r="7638"/>
+    <row r="7639"/>
+    <row r="7640"/>
+    <row r="7641"/>
+    <row r="7642"/>
+    <row r="7643"/>
+    <row r="7644"/>
+    <row r="7645"/>
+    <row r="7646"/>
+    <row r="7647"/>
+    <row r="7648"/>
+    <row r="7649"/>
+    <row r="7650"/>
+    <row r="7651"/>
+    <row r="7652"/>
+    <row r="7653"/>
+    <row r="7654"/>
+    <row r="7655"/>
+    <row r="7656"/>
+    <row r="7657"/>
+    <row r="7658"/>
+    <row r="7659"/>
+    <row r="7660"/>
+    <row r="7661"/>
+    <row r="7662"/>
+    <row r="7663"/>
+    <row r="7664"/>
+    <row r="7665"/>
+    <row r="7666"/>
+    <row r="7667"/>
+    <row r="7668"/>
+    <row r="7669"/>
+    <row r="7670"/>
+    <row r="7671"/>
+    <row r="7672"/>
+    <row r="7673"/>
+    <row r="7674"/>
+    <row r="7675"/>
+    <row r="7676"/>
+    <row r="7677"/>
+    <row r="7678"/>
+    <row r="7679"/>
+    <row r="7680"/>
+    <row r="7681"/>
+    <row r="7682"/>
+    <row r="7683"/>
+    <row r="7684"/>
+    <row r="7685"/>
+    <row r="7686"/>
+    <row r="7687"/>
+    <row r="7688"/>
+    <row r="7689"/>
+    <row r="7690"/>
+    <row r="7691"/>
+    <row r="7692"/>
+    <row r="7693"/>
+    <row r="7694"/>
+    <row r="7695"/>
+    <row r="7696"/>
+    <row r="7697"/>
+    <row r="7698"/>
+    <row r="7699"/>
+    <row r="7700"/>
+    <row r="7701"/>
+    <row r="7702"/>
+    <row r="7703"/>
+    <row r="7704"/>
+    <row r="7705"/>
+    <row r="7706"/>
+    <row r="7707"/>
+    <row r="7708"/>
+    <row r="7709"/>
+    <row r="7710"/>
+    <row r="7711"/>
+    <row r="7712"/>
+    <row r="7713"/>
+    <row r="7714"/>
+    <row r="7715"/>
+    <row r="7716"/>
+    <row r="7717"/>
+    <row r="7718"/>
+    <row r="7719"/>
+    <row r="7720"/>
+    <row r="7721"/>
+    <row r="7722"/>
+    <row r="7723"/>
+    <row r="7724"/>
+    <row r="7725"/>
+    <row r="7726"/>
+    <row r="7727"/>
+    <row r="7728"/>
+    <row r="7729"/>
+    <row r="7730"/>
+    <row r="7731"/>
+    <row r="7732"/>
+    <row r="7733"/>
+    <row r="7734"/>
+    <row r="7735"/>
+    <row r="7736"/>
+    <row r="7737"/>
+    <row r="7738"/>
+    <row r="7739"/>
+    <row r="7740"/>
+    <row r="7741"/>
+    <row r="7742"/>
+    <row r="7743"/>
+    <row r="7744"/>
+    <row r="7745"/>
+    <row r="7746"/>
+    <row r="7747"/>
+    <row r="7748"/>
+    <row r="7749"/>
+    <row r="7750"/>
+    <row r="7751"/>
+    <row r="7752"/>
+    <row r="7753"/>
+    <row r="7754"/>
+    <row r="7755"/>
+    <row r="7756"/>
+    <row r="7757"/>
+    <row r="7758"/>
+    <row r="7759"/>
+    <row r="7760"/>
+    <row r="7761"/>
+    <row r="7762"/>
+    <row r="7763"/>
+    <row r="7764"/>
+    <row r="7765"/>
+    <row r="7766"/>
+    <row r="7767"/>
+    <row r="7768"/>
+    <row r="7769"/>
+    <row r="7770"/>
+    <row r="7771"/>
+    <row r="7772"/>
+    <row r="7773"/>
+    <row r="7774"/>
+    <row r="7775"/>
+    <row r="7776"/>
+    <row r="7777"/>
+    <row r="7778"/>
+    <row r="7779"/>
+    <row r="7780"/>
+    <row r="7781"/>
+    <row r="7782"/>
+    <row r="7783"/>
+    <row r="7784"/>
+    <row r="7785"/>
+    <row r="7786"/>
+    <row r="7787"/>
+    <row r="7788"/>
+    <row r="7789"/>
+    <row r="7790"/>
+    <row r="7791"/>
+    <row r="7792"/>
+    <row r="7793"/>
+    <row r="7794"/>
+    <row r="7795"/>
+    <row r="7796"/>
+    <row r="7797"/>
+    <row r="7798"/>
+    <row r="7799"/>
+    <row r="7800"/>
+    <row r="7801"/>
+    <row r="7802"/>
+    <row r="7803"/>
+    <row r="7804"/>
+    <row r="7805"/>
+    <row r="7806"/>
+    <row r="7807"/>
+    <row r="7808"/>
+    <row r="7809"/>
+    <row r="7810"/>
+    <row r="7811"/>
+    <row r="7812"/>
+    <row r="7813"/>
+    <row r="7814"/>
+    <row r="7815"/>
+    <row r="7816"/>
+    <row r="7817"/>
+    <row r="7818"/>
+    <row r="7819"/>
+    <row r="7820"/>
+    <row r="7821"/>
+    <row r="7822"/>
+    <row r="7823"/>
+    <row r="7824"/>
+    <row r="7825"/>
+    <row r="7826"/>
+    <row r="7827"/>
+    <row r="7828"/>
+    <row r="7829"/>
+    <row r="7830"/>
+    <row r="7831"/>
+    <row r="7832"/>
+    <row r="7833"/>
+    <row r="7834"/>
+    <row r="7835"/>
+    <row r="7836"/>
+    <row r="7837"/>
+    <row r="7838"/>
+    <row r="7839"/>
+    <row r="7840"/>
+    <row r="7841"/>
+    <row r="7842"/>
+    <row r="7843"/>
+    <row r="7844"/>
+    <row r="7845"/>
+    <row r="7846"/>
+    <row r="7847"/>
+    <row r="7848"/>
+    <row r="7849"/>
+    <row r="7850"/>
+    <row r="7851"/>
+    <row r="7852"/>
+    <row r="7853"/>
+    <row r="7854"/>
+    <row r="7855"/>
+    <row r="7856"/>
+    <row r="7857"/>
+    <row r="7858"/>
+    <row r="7859"/>
+    <row r="7860"/>
+    <row r="7861"/>
+    <row r="7862"/>
+    <row r="7863"/>
+    <row r="7864"/>
+    <row r="7865"/>
+    <row r="7866"/>
+    <row r="7867"/>
+    <row r="7868"/>
+    <row r="7869"/>
+    <row r="7870"/>
+    <row r="7871"/>
+    <row r="7872"/>
+    <row r="7873"/>
+    <row r="7874"/>
+    <row r="7875"/>
+    <row r="7876"/>
+    <row r="7877"/>
+    <row r="7878"/>
+    <row r="7879"/>
+    <row r="7880"/>
+    <row r="7881"/>
+    <row r="7882"/>
+    <row r="7883"/>
+    <row r="7884"/>
+    <row r="7885"/>
+    <row r="7886"/>
+    <row r="7887"/>
+    <row r="7888"/>
+    <row r="7889"/>
+    <row r="7890"/>
+    <row r="7891"/>
+    <row r="7892"/>
+    <row r="7893"/>
+    <row r="7894"/>
+    <row r="7895"/>
+    <row r="7896"/>
+    <row r="7897"/>
+    <row r="7898"/>
+    <row r="7899"/>
+    <row r="7900"/>
+    <row r="7901"/>
+    <row r="7902"/>
+    <row r="7903"/>
+    <row r="7904"/>
+    <row r="7905"/>
+    <row r="7906"/>
+    <row r="7907"/>
+    <row r="7908"/>
+    <row r="7909"/>
+    <row r="7910"/>
+    <row r="7911"/>
+    <row r="7912"/>
+    <row r="7913"/>
+    <row r="7914"/>
+    <row r="7915"/>
+    <row r="7916"/>
+    <row r="7917"/>
+    <row r="7918"/>
+    <row r="7919"/>
+    <row r="7920"/>
+    <row r="7921"/>
+    <row r="7922"/>
+    <row r="7923"/>
+    <row r="7924"/>
+    <row r="7925"/>
+    <row r="7926"/>
+    <row r="7927"/>
+    <row r="7928"/>
+    <row r="7929"/>
+    <row r="7930"/>
+    <row r="7931"/>
+    <row r="7932"/>
+    <row r="7933"/>
+    <row r="7934"/>
+    <row r="7935"/>
+    <row r="7936"/>
+    <row r="7937"/>
+    <row r="7938"/>
+    <row r="7939"/>
+    <row r="7940"/>
+    <row r="7941"/>
+    <row r="7942"/>
+    <row r="7943"/>
+    <row r="7944"/>
+    <row r="7945"/>
+    <row r="7946"/>
+    <row r="7947"/>
+    <row r="7948"/>
+    <row r="7949"/>
+    <row r="7950"/>
+    <row r="7951"/>
+    <row r="7952"/>
+    <row r="7953"/>
+    <row r="7954"/>
+    <row r="7955"/>
+    <row r="7956"/>
+    <row r="7957"/>
+    <row r="7958"/>
+    <row r="7959"/>
+    <row r="7960"/>
+    <row r="7961"/>
+    <row r="7962"/>
+    <row r="7963"/>
+    <row r="7964"/>
+    <row r="7965"/>
+    <row r="7966"/>
+    <row r="7967"/>
+    <row r="7968"/>
+    <row r="7969"/>
+    <row r="7970"/>
+    <row r="7971"/>
+    <row r="7972"/>
+    <row r="7973"/>
+    <row r="7974"/>
+    <row r="7975"/>
+    <row r="7976"/>
+    <row r="7977"/>
+    <row r="7978"/>
+    <row r="7979"/>
+    <row r="7980"/>
+    <row r="7981"/>
+    <row r="7982"/>
+    <row r="7983"/>
+    <row r="7984"/>
+    <row r="7985"/>
+    <row r="7986"/>
+    <row r="7987"/>
+    <row r="7988"/>
+    <row r="7989"/>
+    <row r="7990"/>
+    <row r="7991"/>
+    <row r="7992"/>
+    <row r="7993"/>
+    <row r="7994"/>
+    <row r="7995"/>
+    <row r="7996"/>
+    <row r="7997"/>
+    <row r="7998"/>
+    <row r="7999"/>
+    <row r="8000"/>
+    <row r="8001"/>
+    <row r="8002"/>
+    <row r="8003"/>
+    <row r="8004"/>
+    <row r="8005"/>
+    <row r="8006"/>
+    <row r="8007"/>
+    <row r="8008"/>
+    <row r="8009"/>
+    <row r="8010"/>
+    <row r="8011"/>
+    <row r="8012"/>
+    <row r="8013"/>
+    <row r="8014"/>
+    <row r="8015"/>
+    <row r="8016"/>
+    <row r="8017"/>
+    <row r="8018"/>
+    <row r="8019"/>
+    <row r="8020"/>
+    <row r="8021"/>
+    <row r="8022"/>
+    <row r="8023"/>
+    <row r="8024"/>
+    <row r="8025"/>
+    <row r="8026"/>
+    <row r="8027"/>
+    <row r="8028"/>
+    <row r="8029"/>
+    <row r="8030"/>
+    <row r="8031"/>
+    <row r="8032"/>
+    <row r="8033"/>
+    <row r="8034"/>
+    <row r="8035"/>
+    <row r="8036"/>
+    <row r="8037"/>
+    <row r="8038"/>
+    <row r="8039"/>
+    <row r="8040"/>
+    <row r="8041"/>
+    <row r="8042"/>
+    <row r="8043"/>
+    <row r="8044"/>
+    <row r="8045"/>
+    <row r="8046"/>
+    <row r="8047"/>
+    <row r="8048"/>
+    <row r="8049"/>
+    <row r="8050"/>
+    <row r="8051"/>
+    <row r="8052"/>
+    <row r="8053"/>
+    <row r="8054"/>
+    <row r="8055"/>
+    <row r="8056"/>
+    <row r="8057"/>
+    <row r="8058"/>
+    <row r="8059"/>
+    <row r="8060"/>
+    <row r="8061"/>
+    <row r="8062"/>
+    <row r="8063"/>
+    <row r="8064"/>
+    <row r="8065"/>
+    <row r="8066"/>
+    <row r="8067"/>
+    <row r="8068"/>
+    <row r="8069"/>
+    <row r="8070"/>
+    <row r="8071"/>
+    <row r="8072"/>
+    <row r="8073"/>
+    <row r="8074"/>
+    <row r="8075"/>
+    <row r="8076"/>
+    <row r="8077"/>
+    <row r="8078"/>
+    <row r="8079"/>
+    <row r="8080"/>
+    <row r="8081"/>
+    <row r="8082"/>
+    <row r="8083"/>
+    <row r="8084"/>
+    <row r="8085"/>
+    <row r="8086"/>
+    <row r="8087"/>
+    <row r="8088"/>
+    <row r="8089"/>
+    <row r="8090"/>
+    <row r="8091"/>
+    <row r="8092"/>
+    <row r="8093"/>
+    <row r="8094"/>
+    <row r="8095"/>
+    <row r="8096"/>
+    <row r="8097"/>
+    <row r="8098"/>
+    <row r="8099"/>
+    <row r="8100"/>
+    <row r="8101"/>
+    <row r="8102"/>
+    <row r="8103"/>
+    <row r="8104"/>
+    <row r="8105"/>
+    <row r="8106"/>
+    <row r="8107"/>
+    <row r="8108"/>
+    <row r="8109"/>
+    <row r="8110"/>
+    <row r="8111"/>
+    <row r="8112"/>
+    <row r="8113"/>
+    <row r="8114"/>
+    <row r="8115"/>
+    <row r="8116"/>
+    <row r="8117"/>
+    <row r="8118"/>
+    <row r="8119"/>
+    <row r="8120"/>
+    <row r="8121"/>
+    <row r="8122"/>
+    <row r="8123"/>
+    <row r="8124"/>
+    <row r="8125"/>
+    <row r="8126"/>
+    <row r="8127"/>
+    <row r="8128"/>
+    <row r="8129"/>
+    <row r="8130"/>
+    <row r="8131"/>
+    <row r="8132"/>
+    <row r="8133"/>
+    <row r="8134"/>
+    <row r="8135"/>
+    <row r="8136"/>
+    <row r="8137"/>
+    <row r="8138"/>
+    <row r="8139"/>
+    <row r="8140"/>
+    <row r="8141"/>
+    <row r="8142"/>
+    <row r="8143"/>
+    <row r="8144"/>
+    <row r="8145"/>
+    <row r="8146"/>
+    <row r="8147"/>
+    <row r="8148"/>
+    <row r="8149"/>
+    <row r="8150"/>
+    <row r="8151"/>
+    <row r="8152"/>
+    <row r="8153"/>
+    <row r="8154"/>
+    <row r="8155"/>
+    <row r="8156"/>
+    <row r="8157"/>
+    <row r="8158"/>
+    <row r="8159"/>
+    <row r="8160"/>
+    <row r="8161"/>
+    <row r="8162"/>
+    <row r="8163"/>
+    <row r="8164"/>
+    <row r="8165"/>
+    <row r="8166"/>
+    <row r="8167"/>
+    <row r="8168"/>
+    <row r="8169"/>
+    <row r="8170"/>
+    <row r="8171"/>
+    <row r="8172"/>
+    <row r="8173"/>
+    <row r="8174"/>
+    <row r="8175"/>
+    <row r="8176"/>
+    <row r="8177"/>
+    <row r="8178"/>
+    <row r="8179"/>
+    <row r="8180"/>
+    <row r="8181"/>
+    <row r="8182"/>
+    <row r="8183"/>
+    <row r="8184"/>
+    <row r="8185"/>
+    <row r="8186"/>
+    <row r="8187"/>
+    <row r="8188"/>
+    <row r="8189"/>
+    <row r="8190"/>
+    <row r="8191"/>
+    <row r="8192"/>
+    <row r="8193"/>
+    <row r="8194"/>
+    <row r="8195"/>
+    <row r="8196"/>
+    <row r="8197"/>
+    <row r="8198"/>
+    <row r="8199"/>
+    <row r="8200"/>
+    <row r="8201"/>
+    <row r="8202"/>
+    <row r="8203"/>
+    <row r="8204"/>
+    <row r="8205"/>
+    <row r="8206"/>
+    <row r="8207"/>
+    <row r="8208"/>
+    <row r="8209"/>
+    <row r="8210"/>
+    <row r="8211"/>
+    <row r="8212"/>
+    <row r="8213"/>
+    <row r="8214"/>
+    <row r="8215"/>
+    <row r="8216"/>
+    <row r="8217"/>
+    <row r="8218"/>
+    <row r="8219"/>
+    <row r="8220"/>
+    <row r="8221"/>
+    <row r="8222"/>
+    <row r="8223"/>
+    <row r="8224"/>
+    <row r="8225"/>
+    <row r="8226"/>
+    <row r="8227"/>
+    <row r="8228"/>
+    <row r="8229"/>
+    <row r="8230"/>
+    <row r="8231"/>
+    <row r="8232"/>
+    <row r="8233"/>
+    <row r="8234"/>
+    <row r="8235"/>
+    <row r="8236"/>
+    <row r="8237"/>
+    <row r="8238"/>
+    <row r="8239"/>
+    <row r="8240"/>
+    <row r="8241"/>
+    <row r="8242"/>
+    <row r="8243"/>
+    <row r="8244"/>
+    <row r="8245"/>
+    <row r="8246"/>
+    <row r="8247"/>
+    <row r="8248"/>
+    <row r="8249"/>
+    <row r="8250"/>
+    <row r="8251"/>
+    <row r="8252"/>
+    <row r="8253"/>
+    <row r="8254"/>
+    <row r="8255"/>
+    <row r="8256"/>
+    <row r="8257"/>
+    <row r="8258"/>
+    <row r="8259"/>
+    <row r="8260"/>
+    <row r="8261"/>
+    <row r="8262"/>
+    <row r="8263"/>
+    <row r="8264"/>
+    <row r="8265"/>
+    <row r="8266"/>
+    <row r="8267"/>
+    <row r="8268"/>
+    <row r="8269"/>
+    <row r="8270"/>
+    <row r="8271"/>
+    <row r="8272"/>
+    <row r="8273"/>
+    <row r="8274"/>
+    <row r="8275"/>
+    <row r="8276"/>
+    <row r="8277"/>
+    <row r="8278"/>
+    <row r="8279"/>
+    <row r="8280"/>
+    <row r="8281"/>
+    <row r="8282"/>
+    <row r="8283"/>
+    <row r="8284"/>
+    <row r="8285"/>
+    <row r="8286"/>
+    <row r="8287"/>
+    <row r="8288"/>
+    <row r="8289"/>
+    <row r="8290"/>
+    <row r="8291"/>
+    <row r="8292"/>
+    <row r="8293"/>
+    <row r="8294"/>
+    <row r="8295"/>
+    <row r="8296"/>
+    <row r="8297"/>
+    <row r="8298"/>
+    <row r="8299"/>
+    <row r="8300"/>
+    <row r="8301"/>
+    <row r="8302"/>
+    <row r="8303"/>
+    <row r="8304"/>
+    <row r="8305"/>
+    <row r="8306"/>
+    <row r="8307"/>
+    <row r="8308"/>
+    <row r="8309"/>
+    <row r="8310"/>
+    <row r="8311"/>
+    <row r="8312"/>
+    <row r="8313"/>
+    <row r="8314"/>
+    <row r="8315"/>
+    <row r="8316"/>
+    <row r="8317"/>
+    <row r="8318"/>
+    <row r="8319"/>
+    <row r="8320"/>
+    <row r="8321"/>
+    <row r="8322"/>
+    <row r="8323"/>
+    <row r="8324"/>
+    <row r="8325"/>
+    <row r="8326"/>
+    <row r="8327"/>
+    <row r="8328"/>
+    <row r="8329"/>
+    <row r="8330"/>
+    <row r="8331"/>
+    <row r="8332"/>
+    <row r="8333"/>
+    <row r="8334"/>
+    <row r="8335"/>
+    <row r="8336"/>
+    <row r="8337"/>
+    <row r="8338"/>
+    <row r="8339"/>
+    <row r="8340"/>
+    <row r="8341"/>
+    <row r="8342"/>
+    <row r="8343"/>
+    <row r="8344"/>
+    <row r="8345"/>
+    <row r="8346"/>
+    <row r="8347"/>
+    <row r="8348"/>
+    <row r="8349"/>
+    <row r="8350"/>
+    <row r="8351"/>
+    <row r="8352"/>
+    <row r="8353"/>
+    <row r="8354"/>
+    <row r="8355"/>
+    <row r="8356"/>
+    <row r="8357"/>
+    <row r="8358"/>
+    <row r="8359"/>
+    <row r="8360"/>
+    <row r="8361"/>
+    <row r="8362"/>
+    <row r="8363"/>
+    <row r="8364"/>
+    <row r="8365"/>
+    <row r="8366"/>
+    <row r="8367"/>
+    <row r="8368"/>
+    <row r="8369"/>
+    <row r="8370"/>
+    <row r="8371"/>
+    <row r="8372"/>
+    <row r="8373"/>
+    <row r="8374"/>
+    <row r="8375"/>
+    <row r="8376"/>
+    <row r="8377"/>
+    <row r="8378"/>
+    <row r="8379"/>
+    <row r="8380"/>
+    <row r="8381"/>
+    <row r="8382"/>
+    <row r="8383"/>
+    <row r="8384"/>
+    <row r="8385"/>
+    <row r="8386"/>
+    <row r="8387"/>
+    <row r="8388"/>
+    <row r="8389"/>
+    <row r="8390"/>
+    <row r="8391"/>
+    <row r="8392"/>
+    <row r="8393"/>
+    <row r="8394"/>
+    <row r="8395"/>
+    <row r="8396"/>
+    <row r="8397"/>
+    <row r="8398"/>
+    <row r="8399"/>
+    <row r="8400"/>
+    <row r="8401"/>
+    <row r="8402"/>
+    <row r="8403"/>
+    <row r="8404"/>
+    <row r="8405"/>
+    <row r="8406"/>
+    <row r="8407"/>
+    <row r="8408"/>
+    <row r="8409"/>
+    <row r="8410"/>
+    <row r="8411"/>
+    <row r="8412"/>
+    <row r="8413"/>
+    <row r="8414"/>
+    <row r="8415"/>
+    <row r="8416"/>
+    <row r="8417"/>
+    <row r="8418"/>
+    <row r="8419"/>
+    <row r="8420"/>
+    <row r="8421"/>
+    <row r="8422"/>
+    <row r="8423"/>
+    <row r="8424"/>
+    <row r="8425"/>
+    <row r="8426"/>
+    <row r="8427"/>
+    <row r="8428"/>
+    <row r="8429"/>
+    <row r="8430"/>
+    <row r="8431"/>
+    <row r="8432"/>
+    <row r="8433"/>
+    <row r="8434"/>
+    <row r="8435"/>
+    <row r="8436"/>
+    <row r="8437"/>
+    <row r="8438"/>
+    <row r="8439"/>
+    <row r="8440"/>
+    <row r="8441"/>
+    <row r="8442"/>
+    <row r="8443"/>
+    <row r="8444"/>
+    <row r="8445"/>
+    <row r="8446"/>
+    <row r="8447"/>
+    <row r="8448"/>
+    <row r="8449"/>
+    <row r="8450"/>
+    <row r="8451"/>
+    <row r="8452"/>
+    <row r="8453"/>
+    <row r="8454"/>
+    <row r="8455"/>
+    <row r="8456"/>
+    <row r="8457"/>
+    <row r="8458"/>
+    <row r="8459"/>
+    <row r="8460"/>
+    <row r="8461"/>
+    <row r="8462"/>
+    <row r="8463"/>
+    <row r="8464"/>
+    <row r="8465"/>
+    <row r="8466"/>
+    <row r="8467"/>
+    <row r="8468"/>
+    <row r="8469"/>
+    <row r="8470"/>
+    <row r="8471"/>
+    <row r="8472"/>
+    <row r="8473"/>
+    <row r="8474"/>
+    <row r="8475"/>
+    <row r="8476"/>
+    <row r="8477"/>
+    <row r="8478"/>
+    <row r="8479"/>
+    <row r="8480"/>
+    <row r="8481"/>
+    <row r="8482"/>
+    <row r="8483"/>
+    <row r="8484"/>
+    <row r="8485"/>
+    <row r="8486"/>
+    <row r="8487"/>
+    <row r="8488"/>
+    <row r="8489"/>
+    <row r="8490"/>
+    <row r="8491"/>
+    <row r="8492"/>
+    <row r="8493"/>
+    <row r="8494"/>
+    <row r="8495"/>
+    <row r="8496"/>
+    <row r="8497"/>
+    <row r="8498"/>
+    <row r="8499"/>
+    <row r="8500"/>
+    <row r="8501"/>
+    <row r="8502"/>
+    <row r="8503"/>
+    <row r="8504"/>
+    <row r="8505"/>
+    <row r="8506"/>
+    <row r="8507"/>
+    <row r="8508"/>
+    <row r="8509"/>
+    <row r="8510"/>
+    <row r="8511"/>
+    <row r="8512"/>
+    <row r="8513"/>
+    <row r="8514"/>
+    <row r="8515"/>
+    <row r="8516"/>
+    <row r="8517"/>
+    <row r="8518"/>
+    <row r="8519"/>
+    <row r="8520"/>
+    <row r="8521"/>
+    <row r="8522"/>
+    <row r="8523"/>
+    <row r="8524"/>
+    <row r="8525"/>
+    <row r="8526"/>
+    <row r="8527"/>
+    <row r="8528"/>
+    <row r="8529"/>
+    <row r="8530"/>
+    <row r="8531"/>
+    <row r="8532"/>
+    <row r="8533"/>
+    <row r="8534"/>
+    <row r="8535"/>
+    <row r="8536"/>
+    <row r="8537"/>
+    <row r="8538"/>
+    <row r="8539"/>
+    <row r="8540"/>
+    <row r="8541"/>
+    <row r="8542"/>
+    <row r="8543"/>
+    <row r="8544"/>
+    <row r="8545"/>
+    <row r="8546"/>
+    <row r="8547"/>
+    <row r="8548"/>
+    <row r="8549"/>
+    <row r="8550"/>
+    <row r="8551"/>
+    <row r="8552"/>
+    <row r="8553"/>
+    <row r="8554"/>
+    <row r="8555"/>
+    <row r="8556"/>
+    <row r="8557"/>
+    <row r="8558"/>
+    <row r="8559"/>
+    <row r="8560"/>
+    <row r="8561"/>
+    <row r="8562"/>
+    <row r="8563"/>
+    <row r="8564"/>
+    <row r="8565"/>
+    <row r="8566"/>
+    <row r="8567"/>
+    <row r="8568"/>
+    <row r="8569"/>
+    <row r="8570"/>
+    <row r="8571"/>
+    <row r="8572"/>
+    <row r="8573"/>
+    <row r="8574"/>
+    <row r="8575"/>
+    <row r="8576"/>
+    <row r="8577"/>
+    <row r="8578"/>
+    <row r="8579"/>
+    <row r="8580"/>
+    <row r="8581"/>
+    <row r="8582"/>
+    <row r="8583"/>
+    <row r="8584"/>
+    <row r="8585"/>
+    <row r="8586"/>
+    <row r="8587"/>
+    <row r="8588"/>
+    <row r="8589"/>
+    <row r="8590"/>
+    <row r="8591"/>
+    <row r="8592"/>
+    <row r="8593"/>
+    <row r="8594"/>
+    <row r="8595"/>
+    <row r="8596"/>
+    <row r="8597"/>
+    <row r="8598"/>
+    <row r="8599"/>
+    <row r="8600"/>
+    <row r="8601"/>
+    <row r="8602"/>
+    <row r="8603"/>
+    <row r="8604"/>
+    <row r="8605"/>
+    <row r="8606"/>
+    <row r="8607"/>
+    <row r="8608"/>
+    <row r="8609"/>
+    <row r="8610"/>
+    <row r="8611"/>
+    <row r="8612"/>
+    <row r="8613"/>
+    <row r="8614"/>
+    <row r="8615"/>
+    <row r="8616"/>
+    <row r="8617"/>
+    <row r="8618"/>
+    <row r="8619"/>
+    <row r="8620"/>
+    <row r="8621"/>
+    <row r="8622"/>
+    <row r="8623"/>
+    <row r="8624"/>
+    <row r="8625"/>
+    <row r="8626"/>
+    <row r="8627"/>
+    <row r="8628"/>
+    <row r="8629"/>
+    <row r="8630"/>
+    <row r="8631"/>
+    <row r="8632"/>
+    <row r="8633"/>
+    <row r="8634"/>
+    <row r="8635"/>
+    <row r="8636"/>
+    <row r="8637"/>
+    <row r="8638"/>
+    <row r="8639"/>
+    <row r="8640"/>
+    <row r="8641"/>
+    <row r="8642"/>
+    <row r="8643"/>
+    <row r="8644"/>
+    <row r="8645"/>
+    <row r="8646"/>
+    <row r="8647"/>
+    <row r="8648"/>
+    <row r="8649"/>
+    <row r="8650"/>
+    <row r="8651"/>
+    <row r="8652"/>
+    <row r="8653"/>
+    <row r="8654"/>
+    <row r="8655"/>
+    <row r="8656"/>
+    <row r="8657"/>
+    <row r="8658"/>
+    <row r="8659"/>
+    <row r="8660"/>
+    <row r="8661"/>
+    <row r="8662"/>
+    <row r="8663"/>
+    <row r="8664"/>
+    <row r="8665"/>
+    <row r="8666"/>
+    <row r="8667"/>
+    <row r="8668"/>
+    <row r="8669"/>
+    <row r="8670"/>
+    <row r="8671"/>
+    <row r="8672"/>
+    <row r="8673"/>
+    <row r="8674"/>
+    <row r="8675"/>
+    <row r="8676"/>
+    <row r="8677"/>
+    <row r="8678"/>
+    <row r="8679"/>
+    <row r="8680"/>
+    <row r="8681"/>
+    <row r="8682"/>
+    <row r="8683"/>
+    <row r="8684"/>
+    <row r="8685"/>
+    <row r="8686"/>
+    <row r="8687"/>
+    <row r="8688"/>
+    <row r="8689"/>
+    <row r="8690"/>
+    <row r="8691"/>
+    <row r="8692"/>
+    <row r="8693"/>
+    <row r="8694"/>
+    <row r="8695"/>
+    <row r="8696"/>
+    <row r="8697"/>
+    <row r="8698"/>
+    <row r="8699"/>
+    <row r="8700"/>
+    <row r="8701"/>
+    <row r="8702"/>
+    <row r="8703"/>
+    <row r="8704"/>
+    <row r="8705"/>
+    <row r="8706"/>
+    <row r="8707"/>
+    <row r="8708"/>
+    <row r="8709"/>
+    <row r="8710"/>
+    <row r="8711"/>
+    <row r="8712"/>
+    <row r="8713"/>
+    <row r="8714"/>
+    <row r="8715"/>
+    <row r="8716"/>
+    <row r="8717"/>
+    <row r="8718"/>
+    <row r="8719"/>
+    <row r="8720"/>
+    <row r="8721"/>
+    <row r="8722"/>
+    <row r="8723"/>
+    <row r="8724"/>
+    <row r="8725"/>
+    <row r="8726"/>
+    <row r="8727"/>
+    <row r="8728"/>
+    <row r="8729"/>
+    <row r="8730"/>
+    <row r="8731"/>
+    <row r="8732"/>
+    <row r="8733"/>
+    <row r="8734"/>
+    <row r="8735"/>
+    <row r="8736"/>
+    <row r="8737"/>
+    <row r="8738"/>
+    <row r="8739"/>
+    <row r="8740"/>
+    <row r="8741"/>
+    <row r="8742"/>
+    <row r="8743"/>
+    <row r="8744"/>
+    <row r="8745"/>
+    <row r="8746"/>
+    <row r="8747"/>
+    <row r="8748"/>
+    <row r="8749"/>
+    <row r="8750"/>
+    <row r="8751"/>
+    <row r="8752"/>
+    <row r="8753"/>
+    <row r="8754"/>
+    <row r="8755"/>
+    <row r="8756"/>
+    <row r="8757"/>
+    <row r="8758"/>
+    <row r="8759"/>
+    <row r="8760"/>
+    <row r="8761"/>
+    <row r="8762"/>
+    <row r="8763"/>
+    <row r="8764"/>
+    <row r="8765"/>
+    <row r="8766"/>
+    <row r="8767"/>
+    <row r="8768"/>
+    <row r="8769"/>
+    <row r="8770"/>
+    <row r="8771"/>
+    <row r="8772"/>
+    <row r="8773"/>
+    <row r="8774"/>
+    <row r="8775"/>
+    <row r="8776"/>
+    <row r="8777"/>
+    <row r="8778"/>
+    <row r="8779"/>
+    <row r="8780"/>
+    <row r="8781"/>
+    <row r="8782"/>
+    <row r="8783"/>
+    <row r="8784"/>
+    <row r="8785"/>
+    <row r="8786"/>
+    <row r="8787"/>
+    <row r="8788"/>
+    <row r="8789"/>
+    <row r="8790"/>
+    <row r="8791"/>
+    <row r="8792"/>
+    <row r="8793"/>
+    <row r="8794"/>
+    <row r="8795"/>
+    <row r="8796"/>
+    <row r="8797"/>
+    <row r="8798"/>
+    <row r="8799"/>
+    <row r="8800"/>
+    <row r="8801"/>
+    <row r="8802"/>
+    <row r="8803"/>
+    <row r="8804"/>
+    <row r="8805"/>
+    <row r="8806"/>
+    <row r="8807"/>
+    <row r="8808"/>
+    <row r="8809"/>
+    <row r="8810"/>
+    <row r="8811"/>
+    <row r="8812"/>
+    <row r="8813"/>
+    <row r="8814"/>
+    <row r="8815"/>
+    <row r="8816"/>
+    <row r="8817"/>
+    <row r="8818"/>
+    <row r="8819"/>
+    <row r="8820"/>
+    <row r="8821"/>
+    <row r="8822"/>
+    <row r="8823"/>
+    <row r="8824"/>
+    <row r="8825"/>
+    <row r="8826"/>
+    <row r="8827"/>
+    <row r="8828"/>
+    <row r="8829"/>
+    <row r="8830"/>
+    <row r="8831"/>
+    <row r="8832"/>
+    <row r="8833"/>
+    <row r="8834"/>
+    <row r="8835"/>
+    <row r="8836"/>
+    <row r="8837"/>
+    <row r="8838"/>
+    <row r="8839"/>
+    <row r="8840"/>
+    <row r="8841"/>
+    <row r="8842"/>
+    <row r="8843"/>
+    <row r="8844"/>
+    <row r="8845"/>
+    <row r="8846"/>
+    <row r="8847"/>
+    <row r="8848"/>
+    <row r="8849"/>
+    <row r="8850"/>
+    <row r="8851"/>
+    <row r="8852"/>
+    <row r="8853"/>
+    <row r="8854"/>
+    <row r="8855"/>
+    <row r="8856"/>
+    <row r="8857"/>
+    <row r="8858"/>
+    <row r="8859"/>
+    <row r="8860"/>
+    <row r="8861"/>
+    <row r="8862"/>
+    <row r="8863"/>
+    <row r="8864"/>
+    <row r="8865"/>
+    <row r="8866"/>
+    <row r="8867"/>
+    <row r="8868"/>
+    <row r="8869"/>
+    <row r="8870"/>
+    <row r="8871"/>
+    <row r="8872"/>
+    <row r="8873"/>
+    <row r="8874"/>
+    <row r="8875"/>
+    <row r="8876"/>
+    <row r="8877"/>
+    <row r="8878"/>
+    <row r="8879"/>
+    <row r="8880"/>
+    <row r="8881"/>
+    <row r="8882"/>
+    <row r="8883"/>
+    <row r="8884"/>
+    <row r="8885"/>
+    <row r="8886"/>
+    <row r="8887"/>
+    <row r="8888"/>
+    <row r="8889"/>
+    <row r="8890"/>
+    <row r="8891"/>
+    <row r="8892"/>
+    <row r="8893"/>
+    <row r="8894"/>
+    <row r="8895"/>
+    <row r="8896"/>
+    <row r="8897"/>
+    <row r="8898"/>
+    <row r="8899"/>
+    <row r="8900"/>
+    <row r="8901"/>
+    <row r="8902"/>
+    <row r="8903"/>
+    <row r="8904"/>
+    <row r="8905"/>
+    <row r="8906"/>
+    <row r="8907"/>
+    <row r="8908"/>
+    <row r="8909"/>
+    <row r="8910"/>
+    <row r="8911"/>
+    <row r="8912"/>
+    <row r="8913"/>
+    <row r="8914"/>
+    <row r="8915"/>
+    <row r="8916"/>
+    <row r="8917"/>
+    <row r="8918"/>
+    <row r="8919"/>
+    <row r="8920"/>
+    <row r="8921"/>
+    <row r="8922"/>
+    <row r="8923"/>
+    <row r="8924"/>
+    <row r="8925"/>
+    <row r="8926"/>
+    <row r="8927"/>
+    <row r="8928"/>
+    <row r="8929"/>
+    <row r="8930"/>
+    <row r="8931"/>
+    <row r="8932"/>
+    <row r="8933"/>
+    <row r="8934"/>
+    <row r="8935"/>
+    <row r="8936"/>
+    <row r="8937"/>
+    <row r="8938"/>
+    <row r="8939"/>
+    <row r="8940"/>
+    <row r="8941"/>
+    <row r="8942"/>
+    <row r="8943"/>
+    <row r="8944"/>
+    <row r="8945"/>
+    <row r="8946"/>
+    <row r="8947"/>
+    <row r="8948"/>
+    <row r="8949"/>
+    <row r="8950"/>
+    <row r="8951"/>
+    <row r="8952"/>
+    <row r="8953"/>
+    <row r="8954"/>
+    <row r="8955"/>
+    <row r="8956"/>
+    <row r="8957"/>
+    <row r="8958"/>
+    <row r="8959"/>
+    <row r="8960"/>
+    <row r="8961"/>
+    <row r="8962"/>
+    <row r="8963"/>
+    <row r="8964"/>
+    <row r="8965"/>
+    <row r="8966"/>
+    <row r="8967"/>
+    <row r="8968"/>
+    <row r="8969"/>
+    <row r="8970"/>
+    <row r="8971"/>
+    <row r="8972"/>
+    <row r="8973"/>
+    <row r="8974"/>
+    <row r="8975"/>
+    <row r="8976"/>
+    <row r="8977"/>
+    <row r="8978"/>
+    <row r="8979"/>
+    <row r="8980"/>
+    <row r="8981"/>
+    <row r="8982"/>
+    <row r="8983"/>
+    <row r="8984"/>
+    <row r="8985"/>
+    <row r="8986"/>
+    <row r="8987"/>
+    <row r="8988"/>
+    <row r="8989"/>
+    <row r="8990"/>
+    <row r="8991"/>
+    <row r="8992"/>
+    <row r="8993"/>
+    <row r="8994"/>
+    <row r="8995"/>
+    <row r="8996"/>
+    <row r="8997"/>
+    <row r="8998"/>
+    <row r="8999"/>
+    <row r="9000"/>
+    <row r="9001"/>
+    <row r="9002"/>
+    <row r="9003"/>
+    <row r="9004"/>
+    <row r="9005"/>
+    <row r="9006"/>
+    <row r="9007"/>
+    <row r="9008"/>
+    <row r="9009"/>
+    <row r="9010"/>
+    <row r="9011"/>
+    <row r="9012"/>
+    <row r="9013"/>
+    <row r="9014"/>
+    <row r="9015"/>
+    <row r="9016"/>
+    <row r="9017"/>
+    <row r="9018"/>
+    <row r="9019"/>
+    <row r="9020"/>
+    <row r="9021"/>
+    <row r="9022"/>
+    <row r="9023"/>
+    <row r="9024"/>
+    <row r="9025"/>
+    <row r="9026"/>
+    <row r="9027"/>
+    <row r="9028"/>
+    <row r="9029"/>
+    <row r="9030"/>
+    <row r="9031"/>
+    <row r="9032"/>
+    <row r="9033"/>
+    <row r="9034"/>
+    <row r="9035"/>
+    <row r="9036"/>
+    <row r="9037"/>
+    <row r="9038"/>
+    <row r="9039"/>
+    <row r="9040"/>
+    <row r="9041"/>
+    <row r="9042"/>
+    <row r="9043"/>
+    <row r="9044"/>
+    <row r="9045"/>
+    <row r="9046"/>
+    <row r="9047"/>
+    <row r="9048"/>
+    <row r="9049"/>
+    <row r="9050"/>
+    <row r="9051"/>
+    <row r="9052"/>
+    <row r="9053"/>
+    <row r="9054"/>
+    <row r="9055"/>
+    <row r="9056"/>
+    <row r="9057"/>
+    <row r="9058"/>
+    <row r="9059"/>
+    <row r="9060"/>
+    <row r="9061"/>
+    <row r="9062"/>
+    <row r="9063"/>
+    <row r="9064"/>
+    <row r="9065"/>
+    <row r="9066"/>
+    <row r="9067"/>
+    <row r="9068"/>
+    <row r="9069"/>
+    <row r="9070"/>
+    <row r="9071"/>
+    <row r="9072"/>
+    <row r="9073"/>
+    <row r="9074"/>
+    <row r="9075"/>
+    <row r="9076"/>
+    <row r="9077"/>
+    <row r="9078"/>
+    <row r="9079"/>
+    <row r="9080"/>
+    <row r="9081"/>
+    <row r="9082"/>
+    <row r="9083"/>
+    <row r="9084"/>
+    <row r="9085"/>
+    <row r="9086"/>
+    <row r="9087"/>
+    <row r="9088"/>
+    <row r="9089"/>
+    <row r="9090"/>
+    <row r="9091"/>
+    <row r="9092"/>
+    <row r="9093"/>
+    <row r="9094"/>
+    <row r="9095"/>
+    <row r="9096"/>
+    <row r="9097"/>
+    <row r="9098"/>
+    <row r="9099"/>
+    <row r="9100"/>
+    <row r="9101"/>
+    <row r="9102"/>
+    <row r="9103"/>
+    <row r="9104"/>
+    <row r="9105"/>
+    <row r="9106"/>
+    <row r="9107"/>
+    <row r="9108"/>
+    <row r="9109"/>
+    <row r="9110"/>
+    <row r="9111"/>
+    <row r="9112"/>
+    <row r="9113"/>
+    <row r="9114"/>
+    <row r="9115"/>
+    <row r="9116"/>
+    <row r="9117"/>
+    <row r="9118"/>
+    <row r="9119"/>
+    <row r="9120"/>
+    <row r="9121"/>
+    <row r="9122"/>
+    <row r="9123"/>
+    <row r="9124"/>
+    <row r="9125"/>
+    <row r="9126"/>
+    <row r="9127"/>
+    <row r="9128"/>
+    <row r="9129"/>
+    <row r="9130"/>
+    <row r="9131"/>
+    <row r="9132"/>
+    <row r="9133"/>
+    <row r="9134"/>
+    <row r="9135"/>
+    <row r="9136"/>
+    <row r="9137"/>
+    <row r="9138"/>
+    <row r="9139"/>
+    <row r="9140"/>
+    <row r="9141"/>
+    <row r="9142"/>
+    <row r="9143"/>
+    <row r="9144"/>
+    <row r="9145"/>
+    <row r="9146"/>
+    <row r="9147"/>
+    <row r="9148"/>
+    <row r="9149"/>
+    <row r="9150"/>
+    <row r="9151"/>
+    <row r="9152"/>
+    <row r="9153"/>
+    <row r="9154"/>
+    <row r="9155"/>
+    <row r="9156"/>
+    <row r="9157"/>
+    <row r="9158"/>
+    <row r="9159"/>
+    <row r="9160"/>
+    <row r="9161"/>
+    <row r="9162"/>
+    <row r="9163"/>
+    <row r="9164"/>
+    <row r="9165"/>
+    <row r="9166"/>
+    <row r="9167"/>
+    <row r="9168"/>
+    <row r="9169"/>
+    <row r="9170"/>
+    <row r="9171"/>
+    <row r="9172"/>
+    <row r="9173"/>
+    <row r="9174"/>
+    <row r="9175"/>
+    <row r="9176"/>
+    <row r="9177"/>
+    <row r="9178"/>
+    <row r="9179"/>
+    <row r="9180"/>
+    <row r="9181"/>
+    <row r="9182"/>
+    <row r="9183"/>
+    <row r="9184"/>
+    <row r="9185"/>
+    <row r="9186"/>
+    <row r="9187"/>
+    <row r="9188"/>
+    <row r="9189"/>
+    <row r="9190"/>
+    <row r="9191"/>
+    <row r="9192"/>
+    <row r="9193"/>
+    <row r="9194"/>
+    <row r="9195"/>
+    <row r="9196"/>
+    <row r="9197"/>
+    <row r="9198"/>
+    <row r="9199"/>
+    <row r="9200"/>
+    <row r="9201"/>
+    <row r="9202"/>
+    <row r="9203"/>
+    <row r="9204"/>
+    <row r="9205"/>
+    <row r="9206"/>
+    <row r="9207"/>
+    <row r="9208"/>
+    <row r="9209"/>
+    <row r="9210"/>
+    <row r="9211"/>
+    <row r="9212"/>
+    <row r="9213"/>
+    <row r="9214"/>
+    <row r="9215"/>
+    <row r="9216"/>
+    <row r="9217"/>
+    <row r="9218"/>
+    <row r="9219"/>
+    <row r="9220"/>
+    <row r="9221"/>
+    <row r="9222"/>
+    <row r="9223"/>
+    <row r="9224"/>
+    <row r="9225"/>
+    <row r="9226"/>
+    <row r="9227"/>
+    <row r="9228"/>
+    <row r="9229"/>
+    <row r="9230"/>
+    <row r="9231"/>
+    <row r="9232"/>
+    <row r="9233"/>
+    <row r="9234"/>
+    <row r="9235"/>
+    <row r="9236"/>
+    <row r="9237"/>
+    <row r="9238"/>
+    <row r="9239"/>
+    <row r="9240"/>
+    <row r="9241"/>
+    <row r="9242"/>
+    <row r="9243"/>
+    <row r="9244"/>
+    <row r="9245"/>
+    <row r="9246"/>
+    <row r="9247"/>
+    <row r="9248"/>
+    <row r="9249"/>
+    <row r="9250"/>
+    <row r="9251"/>
+    <row r="9252"/>
+    <row r="9253"/>
+    <row r="9254"/>
+    <row r="9255"/>
+    <row r="9256"/>
+    <row r="9257"/>
+    <row r="9258"/>
+    <row r="9259"/>
+    <row r="9260"/>
+    <row r="9261"/>
+    <row r="9262"/>
+    <row r="9263"/>
+    <row r="9264"/>
+    <row r="9265"/>
+    <row r="9266"/>
+    <row r="9267"/>
+    <row r="9268"/>
+    <row r="9269"/>
+    <row r="9270"/>
+    <row r="9271"/>
+    <row r="9272"/>
+    <row r="9273"/>
+    <row r="9274"/>
+    <row r="9275"/>
+    <row r="9276"/>
+    <row r="9277"/>
+    <row r="9278"/>
+    <row r="9279"/>
+    <row r="9280"/>
+    <row r="9281"/>
+    <row r="9282"/>
+    <row r="9283"/>
+    <row r="9284"/>
+    <row r="9285"/>
+    <row r="9286"/>
+    <row r="9287"/>
+    <row r="9288"/>
+    <row r="9289"/>
+    <row r="9290"/>
+    <row r="9291"/>
+    <row r="9292"/>
+    <row r="9293"/>
+    <row r="9294"/>
+    <row r="9295"/>
+    <row r="9296"/>
+    <row r="9297"/>
+    <row r="9298"/>
+    <row r="9299"/>
+    <row r="9300"/>
+    <row r="9301"/>
+    <row r="9302"/>
+    <row r="9303"/>
+    <row r="9304"/>
+    <row r="9305"/>
+    <row r="9306"/>
+    <row r="9307"/>
+    <row r="9308"/>
+    <row r="9309"/>
+    <row r="9310"/>
+    <row r="9311"/>
+    <row r="9312"/>
+    <row r="9313"/>
+    <row r="9314"/>
+    <row r="9315"/>
+    <row r="9316"/>
+    <row r="9317"/>
+    <row r="9318"/>
+    <row r="9319"/>
+    <row r="9320"/>
+    <row r="9321"/>
+    <row r="9322"/>
+    <row r="9323"/>
+    <row r="9324"/>
+    <row r="9325"/>
+    <row r="9326"/>
+    <row r="9327"/>
+    <row r="9328"/>
+    <row r="9329"/>
+    <row r="9330"/>
+    <row r="9331"/>
+    <row r="9332"/>
+    <row r="9333"/>
+    <row r="9334"/>
+    <row r="9335"/>
+    <row r="9336"/>
+    <row r="9337"/>
+    <row r="9338"/>
+    <row r="9339"/>
+    <row r="9340"/>
+    <row r="9341"/>
+    <row r="9342"/>
+    <row r="9343"/>
+    <row r="9344"/>
+    <row r="9345"/>
+    <row r="9346"/>
+    <row r="9347"/>
+    <row r="9348"/>
+    <row r="9349"/>
+    <row r="9350"/>
+    <row r="9351"/>
+    <row r="9352"/>
+    <row r="9353"/>
+    <row r="9354"/>
+    <row r="9355"/>
+    <row r="9356"/>
+    <row r="9357"/>
+    <row r="9358"/>
+    <row r="9359"/>
+    <row r="9360"/>
+    <row r="9361"/>
+    <row r="9362"/>
+    <row r="9363"/>
+    <row r="9364"/>
+    <row r="9365"/>
+    <row r="9366"/>
+    <row r="9367"/>
+    <row r="9368"/>
+    <row r="9369"/>
+    <row r="9370"/>
+    <row r="9371"/>
+    <row r="9372"/>
+    <row r="9373"/>
+    <row r="9374"/>
+    <row r="9375"/>
+    <row r="9376"/>
+    <row r="9377"/>
+    <row r="9378"/>
+    <row r="9379"/>
+    <row r="9380"/>
+    <row r="9381"/>
+    <row r="9382"/>
+    <row r="9383"/>
+    <row r="9384"/>
+    <row r="9385"/>
+    <row r="9386"/>
+    <row r="9387"/>
+    <row r="9388"/>
+    <row r="9389"/>
+    <row r="9390"/>
+    <row r="9391"/>
+    <row r="9392"/>
+    <row r="9393"/>
+    <row r="9394"/>
+    <row r="9395"/>
+    <row r="9396"/>
+    <row r="9397"/>
+    <row r="9398"/>
+    <row r="9399"/>
+    <row r="9400"/>
+    <row r="9401"/>
+    <row r="9402"/>
+    <row r="9403"/>
+    <row r="9404"/>
+    <row r="9405"/>
+    <row r="9406"/>
+    <row r="9407"/>
+    <row r="9408"/>
+    <row r="9409"/>
+    <row r="9410"/>
+    <row r="9411"/>
+    <row r="9412"/>
+    <row r="9413"/>
+    <row r="9414"/>
+    <row r="9415"/>
+    <row r="9416"/>
+    <row r="9417"/>
+    <row r="9418"/>
+    <row r="9419"/>
+    <row r="9420"/>
+    <row r="9421"/>
+    <row r="9422"/>
+    <row r="9423"/>
+    <row r="9424"/>
+    <row r="9425"/>
+    <row r="9426"/>
+    <row r="9427"/>
+    <row r="9428"/>
+    <row r="9429"/>
+    <row r="9430"/>
+    <row r="9431"/>
+    <row r="9432"/>
+    <row r="9433"/>
+    <row r="9434"/>
+    <row r="9435"/>
+    <row r="9436"/>
+    <row r="9437"/>
+    <row r="9438"/>
+    <row r="9439"/>
+    <row r="9440"/>
+    <row r="9441"/>
+    <row r="9442"/>
+    <row r="9443"/>
+    <row r="9444"/>
+    <row r="9445"/>
+    <row r="9446"/>
+    <row r="9447"/>
+    <row r="9448"/>
+    <row r="9449"/>
+    <row r="9450"/>
+    <row r="9451"/>
+    <row r="9452"/>
+    <row r="9453"/>
+    <row r="9454"/>
+    <row r="9455"/>
+    <row r="9456"/>
+    <row r="9457"/>
+    <row r="9458"/>
+    <row r="9459"/>
+    <row r="9460"/>
+    <row r="9461"/>
+    <row r="9462"/>
+    <row r="9463"/>
+    <row r="9464"/>
+    <row r="9465"/>
+    <row r="9466"/>
+    <row r="9467"/>
+    <row r="9468"/>
+    <row r="9469"/>
+    <row r="9470"/>
+    <row r="9471"/>
+    <row r="9472"/>
+    <row r="9473"/>
+    <row r="9474"/>
+    <row r="9475"/>
+    <row r="9476"/>
+    <row r="9477"/>
+    <row r="9478"/>
+    <row r="9479"/>
+    <row r="9480"/>
+    <row r="9481"/>
+    <row r="9482"/>
+    <row r="9483"/>
+    <row r="9484"/>
+    <row r="9485"/>
+    <row r="9486"/>
+    <row r="9487"/>
+    <row r="9488"/>
+    <row r="9489"/>
+    <row r="9490"/>
+    <row r="9491"/>
+    <row r="9492"/>
+    <row r="9493"/>
+    <row r="9494"/>
+    <row r="9495"/>
+    <row r="9496"/>
+    <row r="9497"/>
+    <row r="9498"/>
+    <row r="9499"/>
+    <row r="9500"/>
+    <row r="9501"/>
+    <row r="9502"/>
+    <row r="9503"/>
+    <row r="9504"/>
+    <row r="9505"/>
+    <row r="9506"/>
+    <row r="9507"/>
+    <row r="9508"/>
+    <row r="9509"/>
+    <row r="9510"/>
+    <row r="9511"/>
+    <row r="9512"/>
+    <row r="9513"/>
+    <row r="9514"/>
+    <row r="9515"/>
+    <row r="9516"/>
+    <row r="9517"/>
+    <row r="9518"/>
+    <row r="9519"/>
+    <row r="9520"/>
+    <row r="9521"/>
+    <row r="9522"/>
+    <row r="9523"/>
+    <row r="9524"/>
+    <row r="9525"/>
+    <row r="9526"/>
+    <row r="9527"/>
+    <row r="9528"/>
+    <row r="9529"/>
+    <row r="9530"/>
+    <row r="9531"/>
+    <row r="9532"/>
+    <row r="9533"/>
+    <row r="9534"/>
+    <row r="9535"/>
+    <row r="9536"/>
+    <row r="9537"/>
+    <row r="9538"/>
+    <row r="9539"/>
+    <row r="9540"/>
+    <row r="9541"/>
+    <row r="9542"/>
+    <row r="9543"/>
+    <row r="9544"/>
+    <row r="9545"/>
+    <row r="9546"/>
+    <row r="9547"/>
+    <row r="9548"/>
+    <row r="9549"/>
+    <row r="9550"/>
+    <row r="9551"/>
+    <row r="9552"/>
+    <row r="9553"/>
+    <row r="9554"/>
+    <row r="9555"/>
+    <row r="9556"/>
+    <row r="9557"/>
+    <row r="9558"/>
+    <row r="9559"/>
+    <row r="9560"/>
+    <row r="9561"/>
+    <row r="9562"/>
+    <row r="9563"/>
+    <row r="9564"/>
+    <row r="9565"/>
+    <row r="9566"/>
+    <row r="9567"/>
+    <row r="9568"/>
+    <row r="9569"/>
+    <row r="9570"/>
+    <row r="9571"/>
+    <row r="9572"/>
+    <row r="9573"/>
+    <row r="9574"/>
+    <row r="9575"/>
+    <row r="9576"/>
+    <row r="9577"/>
+    <row r="9578"/>
+    <row r="9579"/>
+    <row r="9580"/>
+    <row r="9581"/>
+    <row r="9582"/>
+    <row r="9583"/>
+    <row r="9584"/>
+    <row r="9585"/>
+    <row r="9586"/>
+    <row r="9587"/>
+    <row r="9588"/>
+    <row r="9589"/>
+    <row r="9590"/>
+    <row r="9591"/>
+    <row r="9592"/>
+    <row r="9593"/>
+    <row r="9594"/>
+    <row r="9595"/>
+    <row r="9596"/>
+    <row r="9597"/>
+    <row r="9598"/>
+    <row r="9599"/>
+    <row r="9600"/>
+    <row r="9601"/>
+    <row r="9602"/>
+    <row r="9603"/>
+    <row r="9604"/>
+    <row r="9605"/>
+    <row r="9606"/>
+    <row r="9607"/>
+    <row r="9608"/>
+    <row r="9609"/>
+    <row r="9610"/>
+    <row r="9611"/>
+    <row r="9612"/>
+    <row r="9613"/>
+    <row r="9614"/>
+    <row r="9615"/>
+    <row r="9616"/>
+    <row r="9617"/>
+    <row r="9618"/>
+    <row r="9619"/>
+    <row r="9620"/>
+    <row r="9621"/>
+    <row r="9622"/>
+    <row r="9623"/>
+    <row r="9624"/>
+    <row r="9625"/>
+    <row r="9626"/>
+    <row r="9627"/>
+    <row r="9628"/>
+    <row r="9629"/>
+    <row r="9630"/>
+    <row r="9631"/>
+    <row r="9632"/>
+    <row r="9633"/>
+    <row r="9634"/>
+    <row r="9635"/>
+    <row r="9636"/>
+    <row r="9637"/>
+    <row r="9638"/>
+    <row r="9639"/>
+    <row r="9640"/>
+    <row r="9641"/>
+    <row r="9642"/>
+    <row r="9643"/>
+    <row r="9644"/>
+    <row r="9645"/>
+    <row r="9646"/>
+    <row r="9647"/>
+    <row r="9648"/>
+    <row r="9649"/>
+    <row r="9650"/>
+    <row r="9651"/>
+    <row r="9652"/>
+    <row r="9653"/>
+    <row r="9654"/>
+    <row r="9655"/>
+    <row r="9656"/>
+    <row r="9657"/>
+    <row r="9658"/>
+    <row r="9659"/>
+    <row r="9660"/>
+    <row r="9661"/>
+    <row r="9662"/>
+    <row r="9663"/>
+    <row r="9664"/>
+    <row r="9665"/>
+    <row r="9666"/>
+    <row r="9667"/>
+    <row r="9668"/>
+    <row r="9669"/>
+    <row r="9670"/>
+    <row r="9671"/>
+    <row r="9672"/>
+    <row r="9673"/>
+    <row r="9674"/>
+    <row r="9675"/>
+    <row r="9676"/>
+    <row r="9677"/>
+    <row r="9678"/>
+    <row r="9679"/>
+    <row r="9680"/>
+    <row r="9681"/>
+    <row r="9682"/>
+    <row r="9683"/>
+    <row r="9684"/>
+    <row r="9685"/>
+    <row r="9686"/>
+    <row r="9687"/>
+    <row r="9688"/>
+    <row r="9689"/>
+    <row r="9690"/>
+    <row r="9691"/>
+    <row r="9692"/>
+    <row r="9693"/>
+    <row r="9694"/>
+    <row r="9695"/>
+    <row r="9696"/>
+    <row r="9697"/>
+    <row r="9698"/>
+    <row r="9699"/>
+    <row r="9700"/>
+    <row r="9701"/>
+    <row r="9702"/>
+    <row r="9703"/>
+    <row r="9704"/>
+    <row r="9705"/>
+    <row r="9706"/>
+    <row r="9707"/>
+    <row r="9708"/>
+    <row r="9709"/>
+    <row r="9710"/>
+    <row r="9711"/>
+    <row r="9712"/>
+    <row r="9713"/>
+    <row r="9714"/>
+    <row r="9715"/>
+    <row r="9716"/>
+    <row r="9717"/>
+    <row r="9718"/>
+    <row r="9719"/>
+    <row r="9720"/>
+    <row r="9721"/>
+    <row r="9722"/>
+    <row r="9723"/>
+    <row r="9724"/>
+    <row r="9725"/>
+    <row r="9726"/>
+    <row r="9727"/>
+    <row r="9728"/>
+    <row r="9729"/>
+    <row r="9730"/>
+    <row r="9731"/>
+    <row r="9732"/>
+    <row r="9733"/>
+    <row r="9734"/>
+    <row r="9735"/>
+    <row r="9736"/>
+    <row r="9737"/>
+    <row r="9738"/>
+    <row r="9739"/>
+    <row r="9740"/>
+    <row r="9741"/>
+    <row r="9742"/>
+    <row r="9743"/>
+    <row r="9744"/>
+    <row r="9745"/>
+    <row r="9746"/>
+    <row r="9747"/>
+    <row r="9748"/>
+    <row r="9749"/>
+    <row r="9750"/>
+    <row r="9751"/>
+    <row r="9752"/>
+    <row r="9753"/>
+    <row r="9754"/>
+    <row r="9755"/>
+    <row r="9756"/>
+    <row r="9757"/>
+    <row r="9758"/>
+    <row r="9759"/>
+    <row r="9760"/>
+    <row r="9761"/>
+    <row r="9762"/>
+    <row r="9763"/>
+    <row r="9764"/>
+    <row r="9765"/>
+    <row r="9766"/>
+    <row r="9767"/>
+    <row r="9768"/>
+    <row r="9769"/>
+    <row r="9770"/>
+    <row r="9771"/>
+    <row r="9772"/>
+    <row r="9773"/>
+    <row r="9774"/>
+    <row r="9775"/>
+    <row r="9776"/>
+    <row r="9777"/>
+    <row r="9778"/>
+    <row r="9779"/>
+    <row r="9780"/>
+    <row r="9781"/>
+    <row r="9782"/>
+    <row r="9783"/>
+    <row r="9784"/>
+    <row r="9785"/>
+    <row r="9786"/>
+    <row r="9787"/>
+    <row r="9788"/>
+    <row r="9789"/>
+    <row r="9790"/>
+    <row r="9791"/>
+    <row r="9792"/>
+    <row r="9793"/>
+    <row r="9794"/>
+    <row r="9795"/>
+    <row r="9796"/>
+    <row r="9797"/>
+    <row r="9798"/>
+    <row r="9799"/>
+    <row r="9800"/>
+    <row r="9801"/>
+    <row r="9802"/>
+    <row r="9803"/>
+    <row r="9804"/>
+    <row r="9805"/>
+    <row r="9806"/>
+    <row r="9807"/>
+    <row r="9808"/>
+    <row r="9809"/>
+    <row r="9810"/>
+    <row r="9811"/>
+    <row r="9812"/>
+    <row r="9813"/>
+    <row r="9814"/>
+    <row r="9815"/>
+    <row r="9816"/>
+    <row r="9817"/>
+    <row r="9818"/>
+    <row r="9819"/>
+    <row r="9820"/>
+    <row r="9821"/>
+    <row r="9822"/>
+    <row r="9823"/>
+    <row r="9824"/>
+    <row r="9825"/>
+    <row r="9826"/>
+    <row r="9827"/>
+    <row r="9828"/>
+    <row r="9829"/>
+    <row r="9830"/>
+    <row r="9831"/>
+    <row r="9832"/>
+    <row r="9833"/>
+    <row r="9834"/>
+    <row r="9835"/>
+    <row r="9836"/>
+    <row r="9837"/>
+    <row r="9838"/>
+    <row r="9839"/>
+    <row r="9840"/>
+    <row r="9841"/>
+    <row r="9842"/>
+    <row r="9843"/>
+    <row r="9844"/>
+    <row r="9845"/>
+    <row r="9846"/>
+    <row r="9847"/>
+    <row r="9848"/>
+    <row r="9849"/>
+    <row r="9850"/>
+    <row r="9851"/>
+    <row r="9852"/>
+    <row r="9853"/>
+    <row r="9854"/>
+    <row r="9855"/>
+    <row r="9856"/>
+    <row r="9857"/>
+    <row r="9858"/>
+    <row r="9859"/>
+    <row r="9860"/>
+    <row r="9861"/>
+    <row r="9862"/>
+    <row r="9863"/>
+    <row r="9864"/>
+    <row r="9865"/>
+    <row r="9866"/>
+    <row r="9867"/>
+    <row r="9868"/>
+    <row r="9869"/>
+    <row r="9870"/>
+    <row r="9871"/>
+    <row r="9872"/>
+    <row r="9873"/>
+    <row r="9874"/>
+    <row r="9875"/>
+    <row r="9876"/>
+    <row r="9877"/>
+    <row r="9878"/>
+    <row r="9879"/>
+    <row r="9880"/>
+    <row r="9881"/>
+    <row r="9882"/>
+    <row r="9883"/>
+    <row r="9884"/>
+    <row r="9885"/>
+    <row r="9886"/>
+    <row r="9887"/>
+    <row r="9888"/>
+    <row r="9889"/>
+    <row r="9890"/>
+    <row r="9891"/>
+    <row r="9892"/>
+    <row r="9893"/>
+    <row r="9894"/>
+    <row r="9895"/>
+    <row r="9896"/>
+    <row r="9897"/>
+    <row r="9898"/>
+    <row r="9899"/>
+    <row r="9900"/>
+    <row r="9901"/>
+    <row r="9902"/>
+    <row r="9903"/>
+    <row r="9904"/>
+    <row r="9905"/>
+    <row r="9906"/>
+    <row r="9907"/>
+    <row r="9908"/>
+    <row r="9909"/>
+    <row r="9910"/>
+    <row r="9911"/>
+    <row r="9912"/>
+    <row r="9913"/>
+    <row r="9914"/>
+    <row r="9915"/>
+    <row r="9916"/>
+    <row r="9917"/>
+    <row r="9918"/>
+    <row r="9919"/>
+    <row r="9920"/>
+    <row r="9921"/>
+    <row r="9922"/>
+    <row r="9923"/>
+    <row r="9924"/>
+    <row r="9925"/>
+    <row r="9926"/>
+    <row r="9927"/>
+    <row r="9928"/>
+    <row r="9929"/>
+    <row r="9930"/>
+    <row r="9931"/>
+    <row r="9932"/>
+    <row r="9933"/>
+    <row r="9934"/>
+    <row r="9935"/>
+    <row r="9936"/>
+    <row r="9937"/>
+    <row r="9938"/>
+    <row r="9939"/>
+    <row r="9940"/>
+    <row r="9941"/>
+    <row r="9942"/>
+    <row r="9943"/>
+    <row r="9944"/>
+    <row r="9945"/>
+    <row r="9946"/>
+    <row r="9947"/>
+    <row r="9948"/>
+    <row r="9949"/>
+    <row r="9950"/>
+    <row r="9951"/>
+    <row r="9952"/>
+    <row r="9953"/>
+    <row r="9954"/>
+    <row r="9955"/>
+    <row r="9956"/>
+    <row r="9957"/>
+    <row r="9958"/>
+    <row r="9959"/>
+    <row r="9960"/>
+    <row r="9961"/>
+    <row r="9962"/>
+    <row r="9963"/>
+    <row r="9964"/>
+    <row r="9965"/>
+    <row r="9966"/>
+    <row r="9967"/>
+    <row r="9968"/>
+    <row r="9969"/>
+    <row r="9970"/>
+    <row r="9971"/>
+    <row r="9972"/>
+    <row r="9973"/>
+    <row r="9974"/>
+    <row r="9975"/>
+    <row r="9976"/>
+    <row r="9977"/>
+    <row r="9978"/>
+    <row r="9979"/>
+    <row r="9980"/>
+    <row r="9981"/>
+    <row r="9982"/>
+    <row r="9983"/>
+    <row r="9984"/>
+    <row r="9985"/>
+    <row r="9986"/>
+    <row r="9987"/>
+    <row r="9988"/>
+    <row r="9989"/>
+    <row r="9990"/>
+    <row r="9991"/>
+    <row r="9992"/>
+    <row r="9993"/>
+    <row r="9994"/>
+    <row r="9995"/>
+    <row r="9996"/>
+    <row r="9997"/>
+    <row r="9998"/>
+    <row r="9999"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
